--- a/章节标题.xlsx
+++ b/章节标题.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\魔禁相关\魔法禁书目录X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7472134-90BF-4998-8840-E17D279DE85F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7289D6B3-A3D6-4E67-8E28-D31E56000CB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7290" yWindow="1050" windowWidth="28365" windowHeight="19950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="1379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="1383">
   <si>
     <t>章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1253,37 +1253,10 @@
     <t>魔神变得近在咫尺了</t>
   </si>
   <si>
-    <t>Home_Party?</t>
-  </si>
-  <si>
-    <t>幻想杀手和理想放逐</t>
-  </si>
-  <si>
-    <t>One_Night_Encount.</t>
-  </si>
-  <si>
-    <t>食客是会增加的生物</t>
-  </si>
-  <si>
-    <t>Cannibalization.</t>
-  </si>
-  <si>
-    <t>少女的愿望相互交错</t>
-  </si>
-  <si>
-    <t>Winner’s_“APPLE”.</t>
-  </si>
-  <si>
     <t>上条当麻与上里翔流</t>
   </si>
   <si>
-    <t>Attack_the_Fist.</t>
-  </si>
-  <si>
     <t>摇篮的时刻迎来终结</t>
-  </si>
-  <si>
-    <t>More_Purely,More_Bloody.</t>
   </si>
   <si>
     <t>硬币的反面的反面</t>
@@ -4926,6 +4899,58 @@
   </si>
   <si>
     <t>“平凡高中生”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想杀手和理想放逐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想杀手与理想放逐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食客是会增加的生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女的愿望相互交错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔神就在身边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇篮时间结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home_Party?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One_Night_Encount.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannibalization.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Winner’s_“APPLE”.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上条当麻与上里翔流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack_the_Fist.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>More_Purely,More_Bloody.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5765,8 +5790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="F295" sqref="F295"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="G312" sqref="G312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5783,22 +5808,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25">
       <c r="A1" s="2" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>1019</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>1028</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>1</v>
@@ -5806,20 +5831,20 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>1225</v>
+        <v>1216</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
@@ -5827,13 +5852,13 @@
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="2" t="s">
-        <v>1225</v>
+        <v>1216</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17" t="s">
@@ -5848,13 +5873,13 @@
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="2" t="s">
-        <v>1225</v>
+        <v>1216</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17" t="s">
@@ -5864,18 +5889,18 @@
         <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="2" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17" t="s">
@@ -5890,13 +5915,13 @@
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="2" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17" t="s">
@@ -5911,13 +5936,13 @@
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="2" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
@@ -5941,13 +5966,13 @@
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="2" t="s">
-        <v>1226</v>
+        <v>1217</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
@@ -5962,13 +5987,13 @@
     </row>
     <row r="10" spans="1:7" ht="14.25">
       <c r="A10" s="2" t="s">
-        <v>1226</v>
+        <v>1217</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17" t="s">
@@ -5983,13 +6008,13 @@
     </row>
     <row r="11" spans="1:7" ht="14.25">
       <c r="A11" s="2" t="s">
-        <v>1226</v>
+        <v>1217</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17" t="s">
@@ -6004,13 +6029,13 @@
     </row>
     <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="2" t="s">
-        <v>1226</v>
+        <v>1217</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17" t="s">
@@ -6025,13 +6050,13 @@
     </row>
     <row r="13" spans="1:7" ht="14.25">
       <c r="A13" s="2" t="s">
-        <v>1226</v>
+        <v>1217</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17" t="s">
@@ -6046,13 +6071,13 @@
     </row>
     <row r="14" spans="1:7" ht="14.25">
       <c r="A14" s="2" t="s">
-        <v>1226</v>
+        <v>1217</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17" t="s">
@@ -6076,13 +6101,13 @@
     </row>
     <row r="16" spans="1:7" ht="14.25">
       <c r="A16" s="2" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17" t="s">
@@ -6097,13 +6122,13 @@
     </row>
     <row r="17" spans="1:7" ht="14.25">
       <c r="A17" s="2" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
@@ -6118,13 +6143,13 @@
     </row>
     <row r="18" spans="1:7" ht="14.25">
       <c r="A18" s="2" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17" t="s">
@@ -6139,13 +6164,13 @@
     </row>
     <row r="19" spans="1:7" ht="14.25">
       <c r="A19" s="2" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17" t="s">
@@ -6160,13 +6185,13 @@
     </row>
     <row r="20" spans="1:7" ht="14.25">
       <c r="A20" s="2" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17" t="s">
@@ -6181,13 +6206,13 @@
     </row>
     <row r="21" spans="1:7" ht="14.25">
       <c r="A21" s="2" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
@@ -6211,13 +6236,13 @@
     </row>
     <row r="23" spans="1:7" ht="14.25">
       <c r="A23" s="2" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17" t="s">
@@ -6230,13 +6255,13 @@
     </row>
     <row r="24" spans="1:7" ht="14.25">
       <c r="A24" s="2" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17" t="s">
@@ -6249,13 +6274,13 @@
     </row>
     <row r="25" spans="1:7" ht="14.25">
       <c r="A25" s="2" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
@@ -6268,13 +6293,13 @@
     </row>
     <row r="26" spans="1:7" ht="14.25">
       <c r="A26" s="2" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
@@ -6287,13 +6312,13 @@
     </row>
     <row r="27" spans="1:7" ht="14.25">
       <c r="A27" s="2" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
@@ -6306,13 +6331,13 @@
     </row>
     <row r="28" spans="1:7" ht="14.25">
       <c r="A28" s="2" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
@@ -6334,13 +6359,13 @@
     </row>
     <row r="30" spans="1:7" ht="14.25">
       <c r="A30" s="2" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17" t="s">
@@ -6355,20 +6380,20 @@
     </row>
     <row r="31" spans="1:7" ht="14.25">
       <c r="A31" s="2" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17" t="s">
         <v>48</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>49</v>
@@ -6376,20 +6401,20 @@
     </row>
     <row r="32" spans="1:7" ht="14.25">
       <c r="A32" s="2" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>51</v>
@@ -6397,20 +6422,20 @@
     </row>
     <row r="33" spans="1:7" ht="14.25">
       <c r="A33" s="2" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>53</v>
@@ -6418,20 +6443,20 @@
     </row>
     <row r="34" spans="1:7" ht="14.25">
       <c r="A34" s="2" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>55</v>
@@ -6439,13 +6464,13 @@
     </row>
     <row r="35" spans="1:7" ht="14.25">
       <c r="A35" s="2" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17" t="s">
@@ -6469,39 +6494,39 @@
     </row>
     <row r="37" spans="1:7" ht="14.25">
       <c r="A37" s="2" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17" t="s">
-        <v>1347</v>
+        <v>1338</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>1348</v>
+        <v>1339</v>
       </c>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" ht="14.25">
       <c r="A38" s="2" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>1350</v>
+        <v>1341</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>59</v>
@@ -6509,13 +6534,13 @@
     </row>
     <row r="39" spans="1:7" ht="14.25">
       <c r="A39" s="2" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="17" t="s">
@@ -6530,13 +6555,13 @@
     </row>
     <row r="40" spans="1:7" ht="14.25">
       <c r="A40" s="2" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="17" t="s">
@@ -6551,13 +6576,13 @@
     </row>
     <row r="41" spans="1:7" ht="14.25">
       <c r="A41" s="2" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17" t="s">
@@ -6572,20 +6597,20 @@
     </row>
     <row r="42" spans="1:7" ht="14.25">
       <c r="A42" s="2" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>1349</v>
+        <v>1340</v>
       </c>
       <c r="G42" s="2"/>
     </row>
@@ -6600,13 +6625,13 @@
     </row>
     <row r="44" spans="1:7" ht="14.25">
       <c r="A44" s="2" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17" t="s">
@@ -6621,13 +6646,13 @@
     </row>
     <row r="45" spans="1:7" ht="14.25">
       <c r="A45" s="2" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17" t="s">
@@ -6642,13 +6667,13 @@
     </row>
     <row r="46" spans="1:7" ht="14.25">
       <c r="A46" s="2" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17" t="s">
@@ -6663,13 +6688,13 @@
     </row>
     <row r="47" spans="1:7" ht="14.25">
       <c r="A47" s="2" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17" t="s">
@@ -6684,20 +6709,20 @@
     </row>
     <row r="48" spans="1:7" ht="14.25">
       <c r="A48" s="2" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>75</v>
@@ -6705,13 +6730,13 @@
     </row>
     <row r="49" spans="1:7" ht="14.25">
       <c r="A49" s="2" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17" t="s">
@@ -6735,20 +6760,20 @@
     </row>
     <row r="51" spans="1:7" ht="14.25">
       <c r="A51" s="2" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17" t="s">
         <v>78</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>79</v>
@@ -6756,20 +6781,20 @@
     </row>
     <row r="52" spans="1:7" ht="14.25">
       <c r="A52" s="2" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>81</v>
@@ -6777,20 +6802,20 @@
     </row>
     <row r="53" spans="1:7" ht="14.25">
       <c r="A53" s="2" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>83</v>
@@ -6798,41 +6823,41 @@
     </row>
     <row r="54" spans="1:7" ht="14.25">
       <c r="A54" s="2" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.25">
       <c r="A55" s="2" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>86</v>
@@ -6840,13 +6865,13 @@
     </row>
     <row r="56" spans="1:7" ht="14.25">
       <c r="A56" s="2" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="2" t="s">
@@ -6870,20 +6895,20 @@
     </row>
     <row r="58" spans="1:7" ht="14.25">
       <c r="A58" s="2" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>90</v>
@@ -6891,20 +6916,20 @@
     </row>
     <row r="59" spans="1:7" ht="14.25">
       <c r="A59" s="2" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>1250</v>
+        <v>1241</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>92</v>
@@ -6912,20 +6937,20 @@
     </row>
     <row r="60" spans="1:7" ht="14.25">
       <c r="A60" s="2" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>94</v>
@@ -6933,20 +6958,20 @@
     </row>
     <row r="61" spans="1:7" ht="14.25">
       <c r="A61" s="2" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="2" t="s">
-        <v>1251</v>
+        <v>1242</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>1252</v>
+        <v>1243</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>95</v>
@@ -6954,20 +6979,20 @@
     </row>
     <row r="62" spans="1:7" ht="14.25">
       <c r="A62" s="2" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>97</v>
@@ -6975,22 +7000,22 @@
     </row>
     <row r="63" spans="1:7" ht="14.25">
       <c r="A63" s="2" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>100</v>
@@ -6998,20 +7023,20 @@
     </row>
     <row r="64" spans="1:7" ht="14.25">
       <c r="A64" s="2" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>103</v>
@@ -7019,20 +7044,20 @@
     </row>
     <row r="65" spans="1:7" ht="14.25">
       <c r="A65" s="2" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>106</v>
@@ -7040,20 +7065,20 @@
     </row>
     <row r="66" spans="1:7" ht="14.25">
       <c r="A66" s="2" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>109</v>
@@ -7061,20 +7086,20 @@
     </row>
     <row r="67" spans="1:7" ht="14.25">
       <c r="A67" s="2" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>111</v>
@@ -7091,20 +7116,20 @@
     </row>
     <row r="69" spans="1:7" ht="14.25">
       <c r="A69" s="2" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="17" t="s">
         <v>112</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>113</v>
@@ -7112,20 +7137,20 @@
     </row>
     <row r="70" spans="1:7" ht="14.25">
       <c r="A70" s="2" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>115</v>
@@ -7133,20 +7158,20 @@
     </row>
     <row r="71" spans="1:7" ht="14.25">
       <c r="A71" s="2" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>117</v>
@@ -7154,22 +7179,22 @@
     </row>
     <row r="72" spans="1:7" ht="14.25">
       <c r="A72" s="2" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>1223</v>
+        <v>1214</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>119</v>
@@ -7177,20 +7202,20 @@
     </row>
     <row r="73" spans="1:7" ht="14.25">
       <c r="A73" s="2" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="2" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>120</v>
@@ -7198,20 +7223,20 @@
     </row>
     <row r="74" spans="1:7" ht="14.25">
       <c r="A74" s="2" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>122</v>
@@ -7219,20 +7244,20 @@
     </row>
     <row r="75" spans="1:7" ht="14.25">
       <c r="A75" s="2" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="2" t="s">
         <v>123</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>1351</v>
+        <v>1342</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>124</v>
@@ -7249,13 +7274,13 @@
     </row>
     <row r="77" spans="1:7" ht="14.25">
       <c r="A77" s="2" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="2" t="s">
@@ -7270,20 +7295,20 @@
     </row>
     <row r="78" spans="1:7" ht="14.25">
       <c r="A78" s="2" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>128</v>
@@ -7291,20 +7316,20 @@
     </row>
     <row r="79" spans="1:7" ht="14.25">
       <c r="A79" s="2" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>130</v>
@@ -7312,20 +7337,20 @@
     </row>
     <row r="80" spans="1:7" ht="14.25">
       <c r="A80" s="2" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>132</v>
@@ -7333,20 +7358,20 @@
     </row>
     <row r="81" spans="1:7" ht="14.25">
       <c r="A81" s="2" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>134</v>
@@ -7354,20 +7379,20 @@
     </row>
     <row r="82" spans="1:7" ht="14.25">
       <c r="A82" s="2" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="2" t="s">
         <v>135</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>136</v>
@@ -7375,20 +7400,20 @@
     </row>
     <row r="83" spans="1:7" ht="14.25">
       <c r="A83" s="2" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="2" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>1265</v>
+        <v>1256</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>137</v>
@@ -7396,20 +7421,20 @@
     </row>
     <row r="84" spans="1:7" ht="14.25">
       <c r="A84" s="2" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="2" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>1266</v>
+        <v>1257</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>138</v>
@@ -7417,13 +7442,13 @@
     </row>
     <row r="85" spans="1:7" ht="14.25">
       <c r="A85" s="2" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="2" t="s">
@@ -7438,20 +7463,20 @@
     </row>
     <row r="86" spans="1:7" ht="14.25">
       <c r="A86" s="2" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="2" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>1267</v>
+        <v>1258</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>142</v>
@@ -7459,20 +7484,20 @@
     </row>
     <row r="87" spans="1:7" ht="14.25">
       <c r="A87" s="2" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="2" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>144</v>
@@ -7480,23 +7505,23 @@
     </row>
     <row r="88" spans="1:7" ht="14.25">
       <c r="A88" s="2" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="2" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>1353</v>
+        <v>1344</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="14.25">
@@ -7510,22 +7535,22 @@
     </row>
     <row r="90" spans="1:7" ht="14.25">
       <c r="A90" s="2" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>146</v>
@@ -7533,22 +7558,22 @@
     </row>
     <row r="91" spans="1:7" ht="14.25">
       <c r="A91" s="2" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>1269</v>
+        <v>1260</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>148</v>
@@ -7556,22 +7581,22 @@
     </row>
     <row r="92" spans="1:7" ht="14.25">
       <c r="A92" s="2" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>150</v>
@@ -7579,13 +7604,13 @@
     </row>
     <row r="93" spans="1:7" ht="14.25">
       <c r="A93" s="2" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>151</v>
@@ -7594,7 +7619,7 @@
         <v>151</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>1370</v>
+        <v>1361</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>152</v>
@@ -7602,22 +7627,22 @@
     </row>
     <row r="94" spans="1:7" ht="14.25">
       <c r="A94" s="2" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>1270</v>
+        <v>1261</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>154</v>
@@ -7625,22 +7650,22 @@
     </row>
     <row r="95" spans="1:7" ht="14.25">
       <c r="A95" s="2" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>155</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>156</v>
@@ -7657,20 +7682,20 @@
     </row>
     <row r="97" spans="1:7" ht="14.25">
       <c r="A97" s="2" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="2" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>157</v>
@@ -7678,20 +7703,20 @@
     </row>
     <row r="98" spans="1:7" ht="14.25">
       <c r="A98" s="2" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="2" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>158</v>
@@ -7699,20 +7724,20 @@
     </row>
     <row r="99" spans="1:7" ht="14.25">
       <c r="A99" s="2" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="2" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>159</v>
@@ -7720,20 +7745,20 @@
     </row>
     <row r="100" spans="1:7" ht="14.25">
       <c r="A100" s="2" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="2" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>160</v>
@@ -7741,20 +7766,20 @@
     </row>
     <row r="101" spans="1:7" ht="14.25">
       <c r="A101" s="2" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="2" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>1354</v>
+        <v>1345</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>161</v>
@@ -7762,20 +7787,20 @@
     </row>
     <row r="102" spans="1:7" ht="14.25">
       <c r="A102" s="2" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="2" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>1271</v>
+        <v>1262</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>162</v>
@@ -7792,20 +7817,20 @@
     </row>
     <row r="104" spans="1:7" ht="14.25">
       <c r="A104" s="2" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="2" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>1352</v>
+        <v>1343</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>163</v>
@@ -7813,20 +7838,20 @@
     </row>
     <row r="105" spans="1:7" ht="14.25">
       <c r="A105" s="2" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="2" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>164</v>
@@ -7834,20 +7859,20 @@
     </row>
     <row r="106" spans="1:7" ht="14.25">
       <c r="A106" s="2" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="D106" s="17"/>
       <c r="E106" s="2" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>165</v>
@@ -7855,20 +7880,20 @@
     </row>
     <row r="107" spans="1:7" ht="14.25">
       <c r="A107" s="2" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="2" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>166</v>
@@ -7876,20 +7901,20 @@
     </row>
     <row r="108" spans="1:7" ht="14.25">
       <c r="A108" s="2" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D108" s="17"/>
       <c r="E108" s="2" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>167</v>
@@ -7897,20 +7922,20 @@
     </row>
     <row r="109" spans="1:7" ht="14.25">
       <c r="A109" s="2" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="2" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>168</v>
@@ -7918,20 +7943,20 @@
     </row>
     <row r="110" spans="1:7" ht="14.25">
       <c r="A110" s="2" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="D110" s="17"/>
       <c r="E110" s="2" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>169</v>
@@ -7948,20 +7973,20 @@
     </row>
     <row r="112" spans="1:7" ht="14.25">
       <c r="A112" s="2" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="D112" s="17"/>
       <c r="E112" s="2" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>170</v>
@@ -7969,20 +7994,20 @@
     </row>
     <row r="113" spans="1:7" ht="14.25">
       <c r="A113" s="2" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="2" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>171</v>
@@ -7990,20 +8015,20 @@
     </row>
     <row r="114" spans="1:7" ht="14.25">
       <c r="A114" s="2" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="D114" s="17"/>
       <c r="E114" s="2" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>1282</v>
+        <v>1273</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>172</v>
@@ -8011,20 +8036,20 @@
     </row>
     <row r="115" spans="1:7" ht="14.25">
       <c r="A115" s="2" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="2" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>1281</v>
+        <v>1272</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>173</v>
@@ -8032,20 +8057,20 @@
     </row>
     <row r="116" spans="1:7" ht="14.25">
       <c r="A116" s="2" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="2" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>1361</v>
+        <v>1352</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>174</v>
@@ -8053,20 +8078,20 @@
     </row>
     <row r="117" spans="1:7" ht="14.25">
       <c r="A117" s="2" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="2" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>1283</v>
+        <v>1274</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>175</v>
@@ -8083,22 +8108,22 @@
     </row>
     <row r="119" spans="1:7" ht="14.25">
       <c r="A119" s="2" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>176</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>177</v>
@@ -8106,22 +8131,22 @@
     </row>
     <row r="120" spans="1:7" ht="14.25">
       <c r="A120" s="2" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>178</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>179</v>
@@ -8129,22 +8154,22 @@
     </row>
     <row r="121" spans="1:7" ht="14.25">
       <c r="A121" s="2" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>180</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>181</v>
@@ -8152,22 +8177,22 @@
     </row>
     <row r="122" spans="1:7" ht="14.25">
       <c r="A122" s="2" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>182</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>183</v>
@@ -8175,22 +8200,22 @@
     </row>
     <row r="123" spans="1:7" ht="14.25">
       <c r="A123" s="2" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>185</v>
@@ -8198,22 +8223,22 @@
     </row>
     <row r="124" spans="1:7" ht="14.25">
       <c r="A124" s="2" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>186</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>187</v>
@@ -8221,22 +8246,22 @@
     </row>
     <row r="125" spans="1:7" ht="14.25">
       <c r="A125" s="2" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>188</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>189</v>
@@ -8244,13 +8269,13 @@
     </row>
     <row r="126" spans="1:7" ht="14.25">
       <c r="A126" s="2" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>190</v>
@@ -8259,7 +8284,7 @@
         <v>190</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>191</v>
@@ -8267,22 +8292,22 @@
     </row>
     <row r="127" spans="1:7" ht="14.25">
       <c r="A127" s="2" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>192</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>193</v>
@@ -8290,22 +8315,22 @@
     </row>
     <row r="128" spans="1:7" ht="14.25">
       <c r="A128" s="2" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>194</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>195</v>
@@ -8313,22 +8338,22 @@
     </row>
     <row r="129" spans="1:7" ht="14.25">
       <c r="A129" s="2" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>198</v>
@@ -8336,22 +8361,22 @@
     </row>
     <row r="130" spans="1:7" ht="14.25">
       <c r="A130" s="2" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>200</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>201</v>
@@ -8359,22 +8384,22 @@
     </row>
     <row r="131" spans="1:7" ht="14.25">
       <c r="A131" s="2" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>203</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>1295</v>
+        <v>1286</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>204</v>
@@ -8382,22 +8407,22 @@
     </row>
     <row r="132" spans="1:7" ht="14.25">
       <c r="A132" s="2" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>206</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>207</v>
@@ -8405,22 +8430,22 @@
     </row>
     <row r="133" spans="1:7" ht="14.25">
       <c r="A133" s="2" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>209</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>210</v>
@@ -8428,22 +8453,22 @@
     </row>
     <row r="134" spans="1:7" ht="14.25">
       <c r="A134" s="2" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>212</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>213</v>
@@ -8451,22 +8476,22 @@
     </row>
     <row r="135" spans="1:7" ht="14.25">
       <c r="A135" s="2" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>215</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>216</v>
@@ -8474,22 +8499,22 @@
     </row>
     <row r="136" spans="1:7" ht="14.25">
       <c r="A136" s="2" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>1372</v>
+        <v>1363</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>216</v>
@@ -8497,22 +8522,22 @@
     </row>
     <row r="137" spans="1:7" ht="14.25">
       <c r="A137" s="2" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>220</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>221</v>
@@ -8520,22 +8545,22 @@
     </row>
     <row r="138" spans="1:7" ht="14.25">
       <c r="A138" s="2" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>1301</v>
+        <v>1292</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>221</v>
@@ -8543,22 +8568,22 @@
     </row>
     <row r="139" spans="1:7" ht="14.25">
       <c r="A139" s="2" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>221</v>
@@ -8566,22 +8591,22 @@
     </row>
     <row r="140" spans="1:7" ht="14.25">
       <c r="A140" s="2" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>226</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>221</v>
@@ -8598,229 +8623,229 @@
     </row>
     <row r="142" spans="1:7" ht="14.25">
       <c r="A142" s="2" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="D142" s="17" t="s">
         <v>227</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>1306</v>
+        <v>1297</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>1306</v>
+        <v>1297</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="14.25">
       <c r="A143" s="2" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>228</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>1364</v>
+        <v>1355</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="14.25">
       <c r="A144" s="2" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>229</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="F144" s="16" t="s">
-        <v>1365</v>
+        <v>1356</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="14.25">
       <c r="A145" s="2" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="D145" s="17" t="s">
         <v>230</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="14.25">
       <c r="A146" s="2" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>231</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="F146" s="21" t="s">
-        <v>1307</v>
+        <v>1298</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="14.25">
       <c r="A147" s="2" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="14.25">
       <c r="A148" s="2" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>232</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>1046</v>
+        <v>1037</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>232</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="14.25">
       <c r="A149" s="2" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>233</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="14.25">
       <c r="A150" s="2" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="D150" s="17" t="s">
         <v>234</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="14.25">
       <c r="A151" s="2" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="D151" s="17" t="s">
         <v>235</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>1311</v>
+        <v>1302</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>236</v>
@@ -8837,105 +8862,105 @@
     </row>
     <row r="153" spans="1:7" ht="14.25">
       <c r="A153" s="2" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>237</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="14.25">
       <c r="A154" s="2" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>238</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="14.25">
       <c r="A155" s="2" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>239</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>1367</v>
+        <v>1358</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="14.25">
       <c r="A156" s="2" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>240</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="14.25">
       <c r="A157" s="2" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>241</v>
@@ -8944,33 +8969,33 @@
         <v>241</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="14.25">
       <c r="A158" s="2" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>242</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>1053</v>
+        <v>1044</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="14.25">
@@ -8984,22 +9009,22 @@
     </row>
     <row r="160" spans="1:7" ht="14.25">
       <c r="A160" s="2" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>243</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>1054</v>
+        <v>1045</v>
       </c>
       <c r="F160" s="17" t="s">
-        <v>1368</v>
+        <v>1359</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>244</v>
@@ -9007,22 +9032,22 @@
     </row>
     <row r="161" spans="1:7" ht="14.25">
       <c r="A161" s="2" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>245</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>1055</v>
+        <v>1046</v>
       </c>
       <c r="F161" s="17" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>246</v>
@@ -9030,22 +9055,22 @@
     </row>
     <row r="162" spans="1:7" ht="14.25">
       <c r="A162" s="2" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>247</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="F162" s="17" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>248</v>
@@ -9053,22 +9078,22 @@
     </row>
     <row r="163" spans="1:7" ht="14.25">
       <c r="A163" s="2" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>1056</v>
+        <v>1047</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>250</v>
@@ -9076,22 +9101,22 @@
     </row>
     <row r="164" spans="1:7" ht="14.25">
       <c r="A164" s="2" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>251</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>1057</v>
+        <v>1048</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>252</v>
@@ -9099,13 +9124,13 @@
     </row>
     <row r="165" spans="1:7" ht="14.25">
       <c r="A165" s="2" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="D165" s="17" t="s">
         <v>253</v>
@@ -9122,19 +9147,19 @@
     </row>
     <row r="166" spans="1:7" ht="14.25">
       <c r="A166" s="2" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="D166" s="17" t="s">
         <v>255</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="F166" s="17" t="s">
         <v>255</v>
@@ -9145,19 +9170,19 @@
     </row>
     <row r="167" spans="1:7" ht="14.25">
       <c r="A167" s="2" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="D167" s="17" t="s">
         <v>257</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="F167" s="17" t="s">
         <v>257</v>
@@ -9168,19 +9193,19 @@
     </row>
     <row r="168" spans="1:7" ht="14.25">
       <c r="A168" s="2" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="D168" s="17" t="s">
         <v>259</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>1060</v>
+        <v>1051</v>
       </c>
       <c r="F168" s="17" t="s">
         <v>259</v>
@@ -9191,19 +9216,19 @@
     </row>
     <row r="169" spans="1:7" ht="14.25">
       <c r="A169" s="2" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="D169" s="17" t="s">
         <v>261</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>1061</v>
+        <v>1052</v>
       </c>
       <c r="F169" s="17" t="s">
         <v>261</v>
@@ -9214,19 +9239,19 @@
     </row>
     <row r="170" spans="1:7" ht="14.25">
       <c r="A170" s="2" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="D170" s="17" t="s">
         <v>263</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>1062</v>
+        <v>1053</v>
       </c>
       <c r="F170" s="17" t="s">
         <v>263</v>
@@ -9237,19 +9262,19 @@
     </row>
     <row r="171" spans="1:7" ht="14.25">
       <c r="A171" s="2" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="D171" s="17" t="s">
         <v>265</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>1063</v>
+        <v>1054</v>
       </c>
       <c r="F171" s="17" t="s">
         <v>265</v>
@@ -9260,19 +9285,19 @@
     </row>
     <row r="172" spans="1:7" ht="14.25">
       <c r="A172" s="2" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="D172" s="17" t="s">
         <v>267</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="F172" s="17" t="s">
         <v>267</v>
@@ -9283,19 +9308,19 @@
     </row>
     <row r="173" spans="1:7" ht="14.25">
       <c r="A173" s="2" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="D173" s="17" t="s">
         <v>269</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>1065</v>
+        <v>1056</v>
       </c>
       <c r="F173" s="17" t="s">
         <v>269</v>
@@ -9315,22 +9340,22 @@
     </row>
     <row r="175" spans="1:7" ht="14.25">
       <c r="A175" s="2" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D175" s="17" t="s">
         <v>271</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>1373</v>
+        <v>1364</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>272</v>
@@ -9338,22 +9363,22 @@
     </row>
     <row r="176" spans="1:7" ht="14.25">
       <c r="A176" s="2" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>1067</v>
+        <v>1058</v>
       </c>
       <c r="F176" s="18" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>273</v>
@@ -9361,22 +9386,22 @@
     </row>
     <row r="177" spans="1:7" ht="14.25">
       <c r="A177" s="2" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="D177" s="17" t="s">
         <v>274</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>1068</v>
+        <v>1059</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>1374</v>
+        <v>1365</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>275</v>
@@ -9384,22 +9409,22 @@
     </row>
     <row r="178" spans="1:7" ht="14.25">
       <c r="A178" s="2" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>276</v>
@@ -9407,13 +9432,13 @@
     </row>
     <row r="179" spans="1:7" ht="14.25">
       <c r="A179" s="2" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="D179" s="17" t="s">
         <v>277</v>
@@ -9422,7 +9447,7 @@
         <v>277</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>278</v>
@@ -9430,22 +9455,22 @@
     </row>
     <row r="180" spans="1:7" ht="14.25">
       <c r="A180" s="2" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>279</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>280</v>
@@ -9453,22 +9478,22 @@
     </row>
     <row r="181" spans="1:7" ht="14.25">
       <c r="A181" s="2" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="D181" s="17" t="s">
         <v>281</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>282</v>
@@ -9485,19 +9510,19 @@
     </row>
     <row r="183" spans="1:7" ht="14.25">
       <c r="A183" s="2" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>1072</v>
+        <v>1063</v>
       </c>
       <c r="F183" s="17" t="s">
         <v>283</v>
@@ -9508,22 +9533,22 @@
     </row>
     <row r="184" spans="1:7" ht="14.25">
       <c r="A184" s="2" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>285</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
       <c r="F184" s="17" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>286</v>
@@ -9531,22 +9556,22 @@
     </row>
     <row r="185" spans="1:7" ht="14.25">
       <c r="A185" s="2" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>287</v>
@@ -9554,22 +9579,22 @@
     </row>
     <row r="186" spans="1:7" ht="14.25">
       <c r="A186" s="2" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="D186" s="17" t="s">
         <v>288</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
       <c r="F186" s="18" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>289</v>
@@ -9577,45 +9602,45 @@
     </row>
     <row r="187" spans="1:7" ht="14.25">
       <c r="A187" s="2" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="D187" s="17" t="s">
         <v>290</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
       <c r="F187" s="18" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="14.25">
       <c r="A188" s="2" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>291</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="F188" s="17" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>292</v>
@@ -9632,59 +9657,59 @@
     </row>
     <row r="190" spans="1:7" ht="14.25">
       <c r="A190" s="2" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>293</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="F190" s="17" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="14.25">
       <c r="A191" s="2" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>1376</v>
+        <v>1367</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="14.25">
       <c r="A192" s="2" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>294</v>
@@ -9693,102 +9718,102 @@
         <v>294</v>
       </c>
       <c r="F192" s="17" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="14.25">
       <c r="A193" s="2" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="D193" s="17" t="s">
         <v>295</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="F193" s="17" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="14.25">
       <c r="A194" s="2" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>296</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="F194" s="17" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="14.25">
       <c r="A195" s="2" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>297</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="F195" s="17" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="14.25">
       <c r="A196" s="2" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="14.25">
@@ -9802,26 +9827,26 @@
     </row>
     <row r="198" spans="1:7" ht="14.25">
       <c r="A198" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2" t="s">
         <v>298</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="E198" s="17" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="F198" s="17" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="G198" s="2"/>
     </row>
     <row r="199" spans="1:7" ht="14.25">
       <c r="A199" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
@@ -9840,7 +9865,7 @@
     </row>
     <row r="200" spans="1:7" ht="14.25">
       <c r="A200" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="2" t="s">
@@ -9859,7 +9884,7 @@
     </row>
     <row r="201" spans="1:7" ht="14.25">
       <c r="A201" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="2" t="s">
@@ -9878,7 +9903,7 @@
     </row>
     <row r="202" spans="1:7" ht="14.25">
       <c r="A202" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2" t="s">
@@ -9897,7 +9922,7 @@
     </row>
     <row r="203" spans="1:7" ht="14.25">
       <c r="A203" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2" t="s">
@@ -9916,7 +9941,7 @@
     </row>
     <row r="204" spans="1:7" ht="14.25">
       <c r="A204" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2" t="s">
@@ -9935,7 +9960,7 @@
     </row>
     <row r="205" spans="1:7" ht="14.25">
       <c r="A205" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2" t="s">
@@ -9954,7 +9979,7 @@
     </row>
     <row r="206" spans="1:7" ht="14.25">
       <c r="A206" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" s="2" t="s">
@@ -9973,7 +9998,7 @@
     </row>
     <row r="207" spans="1:7" ht="14.25">
       <c r="A207" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" s="2" t="s">
@@ -9992,7 +10017,7 @@
     </row>
     <row r="208" spans="1:7" ht="14.25">
       <c r="A208" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="2" t="s">
@@ -10011,7 +10036,7 @@
     </row>
     <row r="209" spans="1:7" ht="14.25">
       <c r="A209" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" s="2" t="s">
@@ -10030,7 +10055,7 @@
     </row>
     <row r="210" spans="1:7" ht="14.25">
       <c r="A210" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" s="2" t="s">
@@ -10049,7 +10074,7 @@
     </row>
     <row r="211" spans="1:7" ht="14.25">
       <c r="A211" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="2" t="s">
@@ -10068,7 +10093,7 @@
     </row>
     <row r="212" spans="1:7" ht="14.25">
       <c r="A212" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2" t="s">
@@ -10087,7 +10112,7 @@
     </row>
     <row r="213" spans="1:7" ht="14.25">
       <c r="A213" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2" t="s">
@@ -10106,7 +10131,7 @@
     </row>
     <row r="214" spans="1:7" ht="14.25">
       <c r="A214" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2" t="s">
@@ -10125,7 +10150,7 @@
     </row>
     <row r="215" spans="1:7" ht="14.25">
       <c r="A215" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="2" t="s">
@@ -10144,7 +10169,7 @@
     </row>
     <row r="216" spans="1:7" ht="14.25">
       <c r="A216" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="2" t="s">
@@ -10163,7 +10188,7 @@
     </row>
     <row r="217" spans="1:7" ht="14.25">
       <c r="A217" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" s="2" t="s">
@@ -10182,7 +10207,7 @@
     </row>
     <row r="218" spans="1:7" ht="14.25">
       <c r="A218" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="2" t="s">
@@ -10201,7 +10226,7 @@
     </row>
     <row r="219" spans="1:7" ht="14.25">
       <c r="A219" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="2" t="s">
@@ -10220,7 +10245,7 @@
     </row>
     <row r="220" spans="1:7" ht="14.25">
       <c r="A220" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="2" t="s">
@@ -10239,7 +10264,7 @@
     </row>
     <row r="221" spans="1:7" ht="14.25">
       <c r="A221" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" s="2" t="s">
@@ -10258,7 +10283,7 @@
     </row>
     <row r="222" spans="1:7" ht="14.25">
       <c r="A222" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" s="2" t="s">
@@ -10277,7 +10302,7 @@
     </row>
     <row r="223" spans="1:7" ht="14.25">
       <c r="A223" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="2" t="s">
@@ -10296,7 +10321,7 @@
     </row>
     <row r="224" spans="1:7" ht="14.25">
       <c r="A224" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="2" t="s">
@@ -10315,7 +10340,7 @@
     </row>
     <row r="225" spans="1:7" ht="14.25">
       <c r="A225" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" s="2" t="s">
@@ -10334,7 +10359,7 @@
     </row>
     <row r="226" spans="1:7" ht="14.25">
       <c r="A226" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2" t="s">
@@ -10353,7 +10378,7 @@
     </row>
     <row r="227" spans="1:7" ht="14.25">
       <c r="A227" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2" t="s">
@@ -10372,7 +10397,7 @@
     </row>
     <row r="228" spans="1:7" ht="14.25">
       <c r="A228" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" s="2" t="s">
@@ -10391,7 +10416,7 @@
     </row>
     <row r="229" spans="1:7" ht="14.25">
       <c r="A229" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="2" t="s">
@@ -10410,7 +10435,7 @@
     </row>
     <row r="230" spans="1:7" ht="14.25">
       <c r="A230" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2" t="s">
@@ -10429,7 +10454,7 @@
     </row>
     <row r="231" spans="1:7" ht="14.25">
       <c r="A231" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2" t="s">
@@ -10448,7 +10473,7 @@
     </row>
     <row r="232" spans="1:7" ht="14.25">
       <c r="A232" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" s="2" t="s">
@@ -10467,41 +10492,41 @@
     </row>
     <row r="233" spans="1:7" ht="14.25">
       <c r="A233" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" s="2" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="F233" s="17" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="G233" s="2"/>
     </row>
     <row r="234" spans="1:7" ht="14.25">
       <c r="A234" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>332</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="D234" s="17" t="s">
         <v>333</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="F234" s="16" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>334</v>
@@ -10509,23 +10534,23 @@
     </row>
     <row r="235" spans="1:7" ht="16.5">
       <c r="A235" s="2" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" s="2" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="D235" s="17" t="s">
         <v>335</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="F235" s="17" t="s">
         <v>335</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="14.25">
@@ -10539,13 +10564,13 @@
     </row>
     <row r="237" spans="1:7" ht="14.25">
       <c r="A237" s="2" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="D237" s="17" t="s">
         <v>336</v>
@@ -10562,22 +10587,22 @@
     </row>
     <row r="238" spans="1:7" ht="14.25">
       <c r="A238" s="2" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="D238" s="17" t="s">
         <v>338</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>339</v>
@@ -10585,22 +10610,22 @@
     </row>
     <row r="239" spans="1:7" ht="14.25">
       <c r="A239" s="2" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="D239" s="17" t="s">
         <v>340</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
       <c r="F239" s="17" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>341</v>
@@ -10608,13 +10633,13 @@
     </row>
     <row r="240" spans="1:7" ht="14.25">
       <c r="A240" s="2" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="D240" s="17" t="s">
         <v>342</v>
@@ -10631,13 +10656,13 @@
     </row>
     <row r="241" spans="1:7" ht="14.25">
       <c r="A241" s="2" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="D241" s="17" t="s">
         <v>344</v>
@@ -10654,22 +10679,22 @@
     </row>
     <row r="242" spans="1:7" ht="14.25">
       <c r="A242" s="2" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="D242" s="17" t="s">
         <v>346</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>347</v>
@@ -10677,36 +10702,36 @@
     </row>
     <row r="243" spans="1:7" ht="14.25">
       <c r="A243" s="2" t="s">
-        <v>1240</v>
+        <v>1231</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>348</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
       <c r="F243" s="9" t="s">
-        <v>1315</v>
+        <v>1306</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="14.25">
       <c r="A244" s="2" t="s">
-        <v>1240</v>
+        <v>1231</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="D244" s="17" t="s">
         <v>349</v>
@@ -10715,79 +10740,79 @@
         <v>349</v>
       </c>
       <c r="F244" s="18" t="s">
-        <v>1323</v>
+        <v>1314</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="14.25">
       <c r="A245" s="2" t="s">
-        <v>1240</v>
+        <v>1231</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="D245" s="17" t="s">
         <v>350</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="F245" s="18" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="14.25">
       <c r="A246" s="2" t="s">
-        <v>1240</v>
+        <v>1231</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="D246" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
       <c r="F246" s="9" t="s">
-        <v>1317</v>
+        <v>1308</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="14.25">
       <c r="A247" s="2" t="s">
-        <v>1240</v>
+        <v>1231</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="D247" s="17" t="s">
         <v>352</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
       <c r="F247" s="9" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="14.25">
@@ -10801,82 +10826,82 @@
     </row>
     <row r="249" spans="1:7" ht="14.25">
       <c r="A249" s="2" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="D249" s="17" t="s">
         <v>353</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="14.25">
       <c r="A250" s="2" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="14.25">
       <c r="A251" s="2" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="14.25">
       <c r="A252" s="2" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>355</v>
@@ -10885,56 +10910,56 @@
         <v>355</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="14.25">
       <c r="A253" s="2" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>356</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="14.25">
       <c r="A254" s="2" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>357</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="14.25">
@@ -10948,125 +10973,125 @@
     </row>
     <row r="256" spans="1:7" ht="14.25">
       <c r="A256" s="2" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="D256" s="17" t="s">
         <v>358</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="14.25">
       <c r="A257" s="2" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>359</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="14.25">
       <c r="A258" s="2" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>360</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="14.25">
       <c r="A259" s="2" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="14.25">
       <c r="A260" s="2" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>362</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="14.25">
       <c r="A261" s="2" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>363</v>
@@ -11075,24 +11100,24 @@
         <v>364</v>
       </c>
       <c r="E261" s="17" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
       <c r="F261" s="17" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="14.25">
       <c r="A262" s="2" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D262" s="17" t="s">
         <v>365</v>
@@ -11101,235 +11126,235 @@
         <v>365</v>
       </c>
       <c r="F262" s="17" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="14.25">
       <c r="A263" s="2" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="F263" s="18" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="14.25">
       <c r="A264" s="2" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D264" s="17" t="s">
         <v>366</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="F264" s="17" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="14.25">
       <c r="A265" s="2" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D265" s="17" t="s">
         <v>366</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="F265" s="17" t="s">
-        <v>1377</v>
+        <v>1368</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="14.25">
       <c r="A266" s="2" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="2" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="E266" s="17" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="F266" s="17" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="14.25">
       <c r="A267" s="2" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="F267" s="17" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="14.25">
       <c r="A268" s="2" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="F268" s="17" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="14.25">
       <c r="A269" s="2" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
       <c r="F269" s="17" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="14.25">
       <c r="A270" s="2" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="D270" s="17" t="s">
         <v>367</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="F270" s="18" t="s">
+        <v>967</v>
+      </c>
+      <c r="G270" s="2" t="s">
         <v>976</v>
-      </c>
-      <c r="G270" s="2" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="14.25">
       <c r="A271" s="2" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>368</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="F271" s="16" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="14.25">
       <c r="A272" s="2" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="F272" s="17" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>369</v>
@@ -11337,22 +11362,22 @@
     </row>
     <row r="273" spans="1:7" ht="14.25">
       <c r="A273" s="2" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>372</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="F273" s="17" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>371</v>
@@ -11360,22 +11385,22 @@
     </row>
     <row r="274" spans="1:7" ht="14.25">
       <c r="A274" s="2" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>374</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="F274" s="17" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>373</v>
@@ -11383,22 +11408,22 @@
     </row>
     <row r="275" spans="1:7" ht="14.25">
       <c r="A275" s="2" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>370</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="F275" s="17" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>375</v>
@@ -11406,22 +11431,22 @@
     </row>
     <row r="276" spans="1:7" ht="14.25">
       <c r="A276" s="2" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>376</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="F276" s="17" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>377</v>
@@ -11429,22 +11454,22 @@
     </row>
     <row r="277" spans="1:7" ht="14.25">
       <c r="A277" s="2" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>378</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="F277" s="17" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>379</v>
@@ -11452,22 +11477,22 @@
     </row>
     <row r="278" spans="1:7" ht="14.25">
       <c r="A278" s="2" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>380</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="F278" s="17" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>381</v>
@@ -11475,22 +11500,22 @@
     </row>
     <row r="279" spans="1:7" ht="14.25">
       <c r="A279" s="2" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>382</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="F279" s="17" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>383</v>
@@ -11498,22 +11523,22 @@
     </row>
     <row r="280" spans="1:7" ht="14.25">
       <c r="A280" s="2" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>384</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>385</v>
@@ -11521,22 +11546,22 @@
     </row>
     <row r="281" spans="1:7" ht="14.25">
       <c r="A281" s="2" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>386</v>
@@ -11544,22 +11569,22 @@
     </row>
     <row r="282" spans="1:7" ht="14.25">
       <c r="A282" s="2" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>388</v>
@@ -11567,48 +11592,48 @@
     </row>
     <row r="283" spans="1:7" ht="14.25">
       <c r="A283" s="2" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>389</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="14.25">
       <c r="A284" s="2" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>390</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="14.25">
@@ -11622,13 +11647,13 @@
     </row>
     <row r="286" spans="1:7" ht="14.25">
       <c r="A286" s="2" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>391</v>
@@ -11637,113 +11662,113 @@
         <v>391</v>
       </c>
       <c r="F286" s="17" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="14.25">
       <c r="A287" s="2" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>392</v>
       </c>
       <c r="E287" s="17" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="F287" s="17" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="14.25">
       <c r="A288" s="2" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="E288" s="17" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="F288" s="17" t="s">
         <v>393</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="14.25">
       <c r="A289" s="2" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="E289" s="17" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F289" s="17" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="14.25">
       <c r="A290" s="2" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="E290" s="17" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="F290" s="17" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="14.25">
       <c r="A291" s="2" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="D291" s="17" t="s">
         <v>394</v>
@@ -11752,10 +11777,10 @@
         <v>394</v>
       </c>
       <c r="F291" s="17" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="14.25">
@@ -11769,140 +11794,140 @@
     </row>
     <row r="293" spans="1:7" ht="14.25">
       <c r="A293" s="2" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="F293" s="17" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="14.25">
       <c r="A294" s="2" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="F294" s="18" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="14.25">
       <c r="A295" s="2" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="F295" s="18" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="14.25">
       <c r="A296" s="2" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>395</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="F296" s="17" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="14.25">
       <c r="A297" s="2" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>396</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="F297" s="17" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="14.25">
       <c r="A298" s="2" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>397</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="14.25">
@@ -11916,140 +11941,140 @@
     </row>
     <row r="300" spans="1:7" ht="14.25">
       <c r="A300" s="2" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="D300" s="17" t="s">
         <v>398</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
       <c r="F300" s="16" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>1339</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="14.25">
       <c r="A301" s="2" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="D301" s="17" t="s">
         <v>399</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
       <c r="F301" s="16" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>1340</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="14.25">
       <c r="A302" s="2" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="D302" s="17" t="s">
         <v>400</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
       <c r="F302" s="21" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="14.25">
       <c r="A303" s="2" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="D303" s="17" t="s">
         <v>401</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="F303" s="16" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>1342</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="14.25">
       <c r="A304" s="2" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="D304" s="17" t="s">
         <v>402</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
       <c r="F304" s="16" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="14.25">
       <c r="A305" s="2" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="D305" s="17" t="s">
         <v>403</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="F305" s="16" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="14.25">
@@ -12063,128 +12088,140 @@
     </row>
     <row r="307" spans="1:7" ht="14.25">
       <c r="A307" s="2" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="D307" s="17" t="s">
         <v>404</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F307" s="11"/>
+        <v>1121</v>
+      </c>
+      <c r="F307" s="18" t="s">
+        <v>1374</v>
+      </c>
       <c r="G307" s="2" t="s">
-        <v>405</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="14.25">
       <c r="A308" s="2" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>406</v>
+        <v>1370</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>1131</v>
-      </c>
-      <c r="F308" s="11"/>
+        <v>1122</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>1371</v>
+      </c>
       <c r="G308" s="2" t="s">
-        <v>407</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="14.25">
       <c r="A309" s="2" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>408</v>
+        <v>1372</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F309" s="11"/>
+        <v>1123</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>1372</v>
+      </c>
       <c r="G309" s="2" t="s">
-        <v>409</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="14.25">
       <c r="A310" s="2" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>410</v>
+        <v>1373</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F310" s="11"/>
+        <v>1124</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>1373</v>
+      </c>
       <c r="G310" s="2" t="s">
-        <v>411</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="14.25">
       <c r="A311" s="2" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="F311" s="11"/>
+        <v>405</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>1380</v>
+      </c>
       <c r="G311" s="2" t="s">
-        <v>413</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="14.25">
       <c r="A312" s="2" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F312" s="11"/>
+        <v>1125</v>
+      </c>
+      <c r="F312" s="9" t="s">
+        <v>1375</v>
+      </c>
       <c r="G312" s="2" t="s">
-        <v>415</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="14.25">
@@ -12198,149 +12235,149 @@
     </row>
     <row r="314" spans="1:7" ht="14.25">
       <c r="A314" s="2" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="F314" s="11"/>
       <c r="G314" s="2" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="14.25">
       <c r="A315" s="2" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="F315" s="11"/>
       <c r="G315" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="14.25">
       <c r="A316" s="2" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="F316" s="11"/>
       <c r="G316" s="2" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="14.25">
       <c r="A317" s="2" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="F317" s="11"/>
       <c r="G317" s="2" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="14.25">
       <c r="A318" s="2" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="F318" s="11"/>
       <c r="G318" s="2" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="14.25">
       <c r="A319" s="2" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="F319" s="11"/>
       <c r="G319" s="2" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="14.25">
       <c r="A320" s="2" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="F320" s="11"/>
       <c r="G320" s="2" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="14.25">
@@ -12354,128 +12391,128 @@
     </row>
     <row r="322" spans="1:7" ht="14.25">
       <c r="A322" s="2" t="s">
-        <v>1215</v>
+        <v>1206</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="F322" s="11"/>
       <c r="G322" s="2" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="14.25">
       <c r="A323" s="2" t="s">
-        <v>1215</v>
+        <v>1206</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="F323" s="11"/>
       <c r="G323" s="2" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="14.25">
       <c r="A324" s="2" t="s">
-        <v>1215</v>
+        <v>1206</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="F324" s="11"/>
       <c r="G324" s="2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="14.25">
       <c r="A325" s="2" t="s">
-        <v>1215</v>
+        <v>1206</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="F325" s="11"/>
       <c r="G325" s="2" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="14.25">
       <c r="A326" s="2" t="s">
-        <v>1215</v>
+        <v>1206</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="F326" s="11"/>
       <c r="G326" s="2" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="14.25">
       <c r="A327" s="2" t="s">
-        <v>1215</v>
+        <v>1206</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="F327" s="11"/>
       <c r="G327" s="2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="14.25">
@@ -12489,128 +12526,128 @@
     </row>
     <row r="329" spans="1:7" ht="14.25">
       <c r="A329" s="2" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="F329" s="11"/>
       <c r="G329" s="2" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="14.25">
       <c r="A330" s="2" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="F330" s="11"/>
       <c r="G330" s="2" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="14.25">
       <c r="A331" s="2" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="F331" s="11"/>
       <c r="G331" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="14.25">
       <c r="A332" s="2" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="F332" s="11"/>
       <c r="G332" s="2" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="14.25">
       <c r="A333" s="2" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="F333" s="11"/>
       <c r="G333" s="2" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="14.25">
       <c r="A334" s="2" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
       <c r="F334" s="11"/>
       <c r="G334" s="2" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="14.25">
@@ -12624,128 +12661,128 @@
     </row>
     <row r="336" spans="1:7" ht="14.25">
       <c r="A336" s="2" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
       <c r="F336" s="11"/>
       <c r="G336" s="2" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="14.25">
       <c r="A337" s="2" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="F337" s="11"/>
       <c r="G337" s="2" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="14.25">
       <c r="A338" s="2" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="F338" s="11"/>
       <c r="G338" s="2" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="14.25">
       <c r="A339" s="2" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="F339" s="11"/>
       <c r="G339" s="2" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="14.25">
       <c r="A340" s="2" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="F340" s="11"/>
       <c r="G340" s="2" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="14.25">
       <c r="A341" s="2" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F341" s="11"/>
       <c r="G341" s="2" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="14.25">
@@ -12759,128 +12796,128 @@
     </row>
     <row r="343" spans="1:7" ht="14.25">
       <c r="A343" s="2" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="F343" s="11"/>
       <c r="G343" s="2" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="14.25">
       <c r="A344" s="2" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="F344" s="11"/>
       <c r="G344" s="2" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="14.25">
       <c r="A345" s="2" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="F345" s="11"/>
       <c r="G345" s="2" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="14.25">
       <c r="A346" s="2" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
       <c r="F346" s="11"/>
       <c r="G346" s="2" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="14.25">
       <c r="A347" s="2" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="D347" s="17" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="F347" s="11"/>
       <c r="G347" s="2" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="348" spans="1:7" ht="14.25">
       <c r="A348" s="2" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="F348" s="11"/>
       <c r="G348" s="2" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="14.25">
@@ -12894,128 +12931,128 @@
     </row>
     <row r="350" spans="1:7" ht="14.25">
       <c r="A350" s="2" t="s">
-        <v>1219</v>
+        <v>1210</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="F350" s="11"/>
       <c r="G350" s="2" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="14.25">
       <c r="A351" s="2" t="s">
-        <v>1219</v>
+        <v>1210</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
       <c r="F351" s="11"/>
       <c r="G351" s="2" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="14.25">
       <c r="A352" s="2" t="s">
-        <v>1219</v>
+        <v>1210</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="F352" s="11"/>
       <c r="G352" s="2" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="14.25">
       <c r="A353" s="2" t="s">
-        <v>1219</v>
+        <v>1210</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="F353" s="11"/>
       <c r="G353" s="2" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="14.25">
       <c r="A354" s="2" t="s">
-        <v>1219</v>
+        <v>1210</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="D354" s="17" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="F354" s="11"/>
       <c r="G354" s="2" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="14.25">
       <c r="A355" s="2" t="s">
-        <v>1219</v>
+        <v>1210</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="F355" s="11"/>
       <c r="G355" s="2" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="14.25">
@@ -13029,116 +13066,116 @@
     </row>
     <row r="357" spans="1:7" ht="14.25">
       <c r="A357" s="2" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="D357" s="16" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="E357" s="11"/>
       <c r="F357" s="11"/>
       <c r="G357" s="2" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="14.25">
       <c r="A358" s="2" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="D358" s="16" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="E358" s="11"/>
       <c r="F358" s="11"/>
       <c r="G358" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="14.25">
       <c r="A359" s="2" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="D359" s="16" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="E359" s="11"/>
       <c r="F359" s="11"/>
       <c r="G359" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="16.5">
       <c r="A360" s="2" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="D360" s="16" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="E360" s="11"/>
       <c r="F360" s="11"/>
       <c r="G360" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="14.25">
       <c r="A361" s="2" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="D361" s="16" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="E361" s="11"/>
       <c r="F361" s="11"/>
       <c r="G361" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="14.25">
       <c r="A362" s="2" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="D362" s="16" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="E362" s="11"/>
       <c r="F362" s="11"/>
       <c r="G362" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="14.25">
@@ -13152,116 +13189,116 @@
     </row>
     <row r="364" spans="1:7" ht="14.25">
       <c r="A364" s="2" t="s">
-        <v>1221</v>
+        <v>1212</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="E364" s="14"/>
       <c r="F364" s="11"/>
       <c r="G364" s="2" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="14.25">
       <c r="A365" s="2" t="s">
-        <v>1221</v>
+        <v>1212</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="E365" s="14"/>
       <c r="F365" s="11"/>
       <c r="G365" s="2" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="14.25">
       <c r="A366" s="2" t="s">
-        <v>1221</v>
+        <v>1212</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="E366" s="14"/>
       <c r="F366" s="11"/>
       <c r="G366" s="2" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="14.25">
       <c r="A367" s="2" t="s">
-        <v>1221</v>
+        <v>1212</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="E367" s="14"/>
       <c r="F367" s="11"/>
       <c r="G367" s="2" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="14.25">
       <c r="A368" s="2" t="s">
-        <v>1221</v>
+        <v>1212</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="D368" s="17" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="E368" s="14"/>
       <c r="F368" s="11"/>
       <c r="G368" s="2" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="57">
       <c r="A369" s="2" t="s">
-        <v>1221</v>
+        <v>1212</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="E369" s="15"/>
       <c r="F369" s="11"/>
       <c r="G369" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="14.25">
@@ -13275,116 +13312,116 @@
     </row>
     <row r="371" spans="1:7" ht="14.25">
       <c r="A371" s="2" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="D371" s="17" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="E371" s="14"/>
       <c r="F371" s="11"/>
       <c r="G371" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="14.25">
       <c r="A372" s="2" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="D372" s="17" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="E372" s="14"/>
       <c r="F372" s="11"/>
       <c r="G372" s="2" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="14.25">
       <c r="A373" s="2" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="D373" s="17" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="E373" s="14"/>
       <c r="F373" s="11"/>
       <c r="G373" s="2" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="14.25">
       <c r="A374" s="2" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="D374" s="17" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="E374" s="14"/>
       <c r="F374" s="11"/>
       <c r="G374" s="2" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="14.25">
       <c r="A375" s="2" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="D375" s="17" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="E375" s="14"/>
       <c r="F375" s="11"/>
       <c r="G375" s="2" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="14.25">
       <c r="A376" s="2" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="D376" s="17" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="E376" s="14"/>
       <c r="F376" s="11"/>
       <c r="G376" s="2" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="377" spans="1:7" ht="14.25">
@@ -13398,128 +13435,128 @@
     </row>
     <row r="378" spans="1:7" ht="14.25">
       <c r="A378" s="2" t="s">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="D378" s="5" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="E378" s="14"/>
       <c r="F378" s="5" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="14.25">
       <c r="A379" s="2" t="s">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="D379" s="5" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="E379" s="14"/>
       <c r="F379" s="5" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
     </row>
     <row r="380" spans="1:7" ht="14.25">
       <c r="A380" s="2" t="s">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="D380" s="5" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="E380" s="14"/>
       <c r="F380" s="5" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="14.25">
       <c r="A381" s="2" t="s">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="D381" s="5" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="E381" s="14"/>
       <c r="F381" s="5" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="14.25">
       <c r="A382" s="2" t="s">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="D382" s="5" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
       <c r="E382" s="14"/>
       <c r="F382" s="5" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="14.25">
       <c r="A383" s="2" t="s">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D383" s="17" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="E383" s="14"/>
       <c r="F383" s="17" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="14.25">
@@ -13533,128 +13570,128 @@
     </row>
     <row r="385" spans="1:7" ht="14.25">
       <c r="A385" s="2" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C385" s="19" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>1356</v>
+        <v>1347</v>
       </c>
       <c r="E385" s="11"/>
       <c r="F385" s="22" t="s">
-        <v>1320</v>
+        <v>1311</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="386" spans="1:7" ht="14.25">
       <c r="A386" s="2" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C386" s="19" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>1355</v>
+        <v>1346</v>
       </c>
       <c r="E386" s="11"/>
       <c r="F386" s="22" t="s">
-        <v>1326</v>
+        <v>1317</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="387" spans="1:7" ht="14.25">
       <c r="A387" s="2" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C387" s="19" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>1357</v>
+        <v>1348</v>
       </c>
       <c r="E387" s="11"/>
       <c r="F387" s="17" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="388" spans="1:7" ht="14.25">
       <c r="A388" s="2" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C388" s="19" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>1358</v>
+        <v>1349</v>
       </c>
       <c r="E388" s="11"/>
       <c r="F388" s="22" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="389" spans="1:7" ht="14.25">
       <c r="A389" s="2" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C389" s="19" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>1359</v>
+        <v>1350</v>
       </c>
       <c r="E389" s="11"/>
       <c r="F389" s="22" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="14.25">
       <c r="A390" s="2" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C390" s="19" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="E390" s="13"/>
       <c r="F390" s="22" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="14.25">

--- a/章节标题.xlsx
+++ b/章节标题.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\魔禁相关\魔法禁书目录X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7289D6B3-A3D6-4E67-8E28-D31E56000CB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0140BCAB-2435-4DF8-8542-71D1DADFD079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7290" yWindow="1050" windowWidth="28365" windowHeight="19950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="1215" windowWidth="22095" windowHeight="19950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet10" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="1383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="1388">
   <si>
     <t>章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1262,40 +1262,13 @@
     <t>硬币的反面的反面</t>
   </si>
   <si>
-    <t>Rock_on_Right_Arm.</t>
-  </si>
-  <si>
     <t>对峙，抑或是崭新的日子</t>
   </si>
   <si>
-    <t>Turn_a_New-Leaf.</t>
-  </si>
-  <si>
     <t>平稳，抑或是张网的陷阱</t>
   </si>
   <si>
-    <t>Board_Game.</t>
-  </si>
-  <si>
-    <t>转换，抑或是观点的改变</t>
-  </si>
-  <si>
-    <t>绝望，抑或是目标的明示</t>
-  </si>
-  <si>
-    <t>Artificial_Disaster.</t>
-  </si>
-  <si>
-    <t>光明，抑或是无尽的黑暗</t>
-  </si>
-  <si>
-    <t>To_the_Magic.</t>
-  </si>
-  <si>
     <t>硬币的正面的正面</t>
-  </si>
-  <si>
-    <t>Lock_on_Light_Girl.</t>
   </si>
   <si>
     <t>从泳装开始的驻校战</t>
@@ -4013,12 +3986,6 @@
     <t>转换，或是视点的变更</t>
   </si>
   <si>
-    <t>绝望，或是目的的明示</t>
-  </si>
-  <si>
-    <t>光明，或是无底的黑暗</t>
-  </si>
-  <si>
     <t>硬币正面的正面</t>
   </si>
   <si>
@@ -4951,6 +4918,70 @@
   </si>
   <si>
     <t>More_Purely,More_Bloody.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝望，抑或是目标的明示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝望，或是目标的明示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光明，抑或是无尽的黑暗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光明，或是无尽的黑暗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rock_on_Right_Arm.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬币反面的反面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turn_a_New-Leaf.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平稳，或是布网的陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board_Game.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换，抑或是观点的改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换，或是观点的改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artificial_Disaster.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To_the_Magic.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬币正面的正面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock_on_Light_Girl.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对峙，或是崭新的日子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5790,8 +5821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="G312" sqref="G312"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="G320" sqref="G320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5808,22 +5839,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25">
       <c r="A1" s="2" t="s">
-        <v>1184</v>
+        <v>1173</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>1010</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>1019</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>1</v>
@@ -5831,20 +5862,20 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>1216</v>
+        <v>1205</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>1239</v>
+        <v>1228</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
@@ -5852,13 +5883,13 @@
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="2" t="s">
-        <v>1216</v>
+        <v>1205</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17" t="s">
@@ -5873,13 +5904,13 @@
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="2" t="s">
-        <v>1216</v>
+        <v>1205</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17" t="s">
@@ -5889,18 +5920,18 @@
         <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="2" t="s">
-        <v>1215</v>
+        <v>1204</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17" t="s">
@@ -5915,13 +5946,13 @@
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="2" t="s">
-        <v>1215</v>
+        <v>1204</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17" t="s">
@@ -5936,13 +5967,13 @@
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="2" t="s">
-        <v>1215</v>
+        <v>1204</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
@@ -5966,13 +5997,13 @@
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="2" t="s">
-        <v>1217</v>
+        <v>1206</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
@@ -5987,13 +6018,13 @@
     </row>
     <row r="10" spans="1:7" ht="14.25">
       <c r="A10" s="2" t="s">
-        <v>1217</v>
+        <v>1206</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17" t="s">
@@ -6008,13 +6039,13 @@
     </row>
     <row r="11" spans="1:7" ht="14.25">
       <c r="A11" s="2" t="s">
-        <v>1217</v>
+        <v>1206</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17" t="s">
@@ -6029,13 +6060,13 @@
     </row>
     <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="2" t="s">
-        <v>1217</v>
+        <v>1206</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17" t="s">
@@ -6050,13 +6081,13 @@
     </row>
     <row r="13" spans="1:7" ht="14.25">
       <c r="A13" s="2" t="s">
-        <v>1217</v>
+        <v>1206</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17" t="s">
@@ -6071,13 +6102,13 @@
     </row>
     <row r="14" spans="1:7" ht="14.25">
       <c r="A14" s="2" t="s">
-        <v>1217</v>
+        <v>1206</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17" t="s">
@@ -6101,13 +6132,13 @@
     </row>
     <row r="16" spans="1:7" ht="14.25">
       <c r="A16" s="2" t="s">
-        <v>1219</v>
+        <v>1208</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17" t="s">
@@ -6122,13 +6153,13 @@
     </row>
     <row r="17" spans="1:7" ht="14.25">
       <c r="A17" s="2" t="s">
-        <v>1218</v>
+        <v>1207</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
@@ -6143,13 +6174,13 @@
     </row>
     <row r="18" spans="1:7" ht="14.25">
       <c r="A18" s="2" t="s">
-        <v>1218</v>
+        <v>1207</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17" t="s">
@@ -6164,13 +6195,13 @@
     </row>
     <row r="19" spans="1:7" ht="14.25">
       <c r="A19" s="2" t="s">
-        <v>1218</v>
+        <v>1207</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17" t="s">
@@ -6185,13 +6216,13 @@
     </row>
     <row r="20" spans="1:7" ht="14.25">
       <c r="A20" s="2" t="s">
-        <v>1218</v>
+        <v>1207</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17" t="s">
@@ -6206,13 +6237,13 @@
     </row>
     <row r="21" spans="1:7" ht="14.25">
       <c r="A21" s="2" t="s">
-        <v>1218</v>
+        <v>1207</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
@@ -6236,13 +6267,13 @@
     </row>
     <row r="23" spans="1:7" ht="14.25">
       <c r="A23" s="2" t="s">
-        <v>1220</v>
+        <v>1209</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17" t="s">
@@ -6255,13 +6286,13 @@
     </row>
     <row r="24" spans="1:7" ht="14.25">
       <c r="A24" s="2" t="s">
-        <v>1220</v>
+        <v>1209</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17" t="s">
@@ -6274,13 +6305,13 @@
     </row>
     <row r="25" spans="1:7" ht="14.25">
       <c r="A25" s="2" t="s">
-        <v>1220</v>
+        <v>1209</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
@@ -6293,13 +6324,13 @@
     </row>
     <row r="26" spans="1:7" ht="14.25">
       <c r="A26" s="2" t="s">
-        <v>1220</v>
+        <v>1209</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
@@ -6312,13 +6343,13 @@
     </row>
     <row r="27" spans="1:7" ht="14.25">
       <c r="A27" s="2" t="s">
-        <v>1220</v>
+        <v>1209</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
@@ -6331,13 +6362,13 @@
     </row>
     <row r="28" spans="1:7" ht="14.25">
       <c r="A28" s="2" t="s">
-        <v>1220</v>
+        <v>1209</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
@@ -6359,13 +6390,13 @@
     </row>
     <row r="30" spans="1:7" ht="14.25">
       <c r="A30" s="2" t="s">
-        <v>1221</v>
+        <v>1210</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17" t="s">
@@ -6380,20 +6411,20 @@
     </row>
     <row r="31" spans="1:7" ht="14.25">
       <c r="A31" s="2" t="s">
-        <v>1221</v>
+        <v>1210</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17" t="s">
         <v>48</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>49</v>
@@ -6401,20 +6432,20 @@
     </row>
     <row r="32" spans="1:7" ht="14.25">
       <c r="A32" s="2" t="s">
-        <v>1221</v>
+        <v>1210</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>51</v>
@@ -6422,20 +6453,20 @@
     </row>
     <row r="33" spans="1:7" ht="14.25">
       <c r="A33" s="2" t="s">
-        <v>1221</v>
+        <v>1210</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>53</v>
@@ -6443,20 +6474,20 @@
     </row>
     <row r="34" spans="1:7" ht="14.25">
       <c r="A34" s="2" t="s">
-        <v>1221</v>
+        <v>1210</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>55</v>
@@ -6464,13 +6495,13 @@
     </row>
     <row r="35" spans="1:7" ht="14.25">
       <c r="A35" s="2" t="s">
-        <v>1221</v>
+        <v>1210</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17" t="s">
@@ -6494,39 +6525,39 @@
     </row>
     <row r="37" spans="1:7" ht="14.25">
       <c r="A37" s="2" t="s">
-        <v>1222</v>
+        <v>1211</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17" t="s">
-        <v>1338</v>
+        <v>1327</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>1339</v>
+        <v>1328</v>
       </c>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" ht="14.25">
       <c r="A38" s="2" t="s">
-        <v>1222</v>
+        <v>1211</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>1341</v>
+        <v>1330</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>59</v>
@@ -6534,13 +6565,13 @@
     </row>
     <row r="39" spans="1:7" ht="14.25">
       <c r="A39" s="2" t="s">
-        <v>1222</v>
+        <v>1211</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="17" t="s">
@@ -6555,13 +6586,13 @@
     </row>
     <row r="40" spans="1:7" ht="14.25">
       <c r="A40" s="2" t="s">
-        <v>1222</v>
+        <v>1211</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="17" t="s">
@@ -6576,13 +6607,13 @@
     </row>
     <row r="41" spans="1:7" ht="14.25">
       <c r="A41" s="2" t="s">
-        <v>1222</v>
+        <v>1211</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17" t="s">
@@ -6597,20 +6628,20 @@
     </row>
     <row r="42" spans="1:7" ht="14.25">
       <c r="A42" s="2" t="s">
-        <v>1222</v>
+        <v>1211</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>1340</v>
+        <v>1329</v>
       </c>
       <c r="G42" s="2"/>
     </row>
@@ -6625,13 +6656,13 @@
     </row>
     <row r="44" spans="1:7" ht="14.25">
       <c r="A44" s="2" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17" t="s">
@@ -6646,13 +6677,13 @@
     </row>
     <row r="45" spans="1:7" ht="14.25">
       <c r="A45" s="2" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17" t="s">
@@ -6667,13 +6698,13 @@
     </row>
     <row r="46" spans="1:7" ht="14.25">
       <c r="A46" s="2" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17" t="s">
@@ -6688,13 +6719,13 @@
     </row>
     <row r="47" spans="1:7" ht="14.25">
       <c r="A47" s="2" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17" t="s">
@@ -6709,20 +6740,20 @@
     </row>
     <row r="48" spans="1:7" ht="14.25">
       <c r="A48" s="2" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>75</v>
@@ -6730,13 +6761,13 @@
     </row>
     <row r="49" spans="1:7" ht="14.25">
       <c r="A49" s="2" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17" t="s">
@@ -6760,20 +6791,20 @@
     </row>
     <row r="51" spans="1:7" ht="14.25">
       <c r="A51" s="2" t="s">
-        <v>1224</v>
+        <v>1213</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17" t="s">
         <v>78</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>79</v>
@@ -6781,20 +6812,20 @@
     </row>
     <row r="52" spans="1:7" ht="14.25">
       <c r="A52" s="2" t="s">
-        <v>1224</v>
+        <v>1213</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>81</v>
@@ -6802,20 +6833,20 @@
     </row>
     <row r="53" spans="1:7" ht="14.25">
       <c r="A53" s="2" t="s">
-        <v>1224</v>
+        <v>1213</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>83</v>
@@ -6823,41 +6854,41 @@
     </row>
     <row r="54" spans="1:7" ht="14.25">
       <c r="A54" s="2" t="s">
-        <v>1224</v>
+        <v>1213</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.25">
       <c r="A55" s="2" t="s">
-        <v>1224</v>
+        <v>1213</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>86</v>
@@ -6865,13 +6896,13 @@
     </row>
     <row r="56" spans="1:7" ht="14.25">
       <c r="A56" s="2" t="s">
-        <v>1224</v>
+        <v>1213</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="2" t="s">
@@ -6895,20 +6926,20 @@
     </row>
     <row r="58" spans="1:7" ht="14.25">
       <c r="A58" s="2" t="s">
-        <v>1225</v>
+        <v>1214</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>1246</v>
+        <v>1235</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>90</v>
@@ -6916,20 +6947,20 @@
     </row>
     <row r="59" spans="1:7" ht="14.25">
       <c r="A59" s="2" t="s">
-        <v>1225</v>
+        <v>1214</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>1241</v>
+        <v>1230</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>92</v>
@@ -6937,20 +6968,20 @@
     </row>
     <row r="60" spans="1:7" ht="14.25">
       <c r="A60" s="2" t="s">
-        <v>1225</v>
+        <v>1214</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>1240</v>
+        <v>1229</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>94</v>
@@ -6958,20 +6989,20 @@
     </row>
     <row r="61" spans="1:7" ht="14.25">
       <c r="A61" s="2" t="s">
-        <v>1225</v>
+        <v>1214</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="2" t="s">
-        <v>1242</v>
+        <v>1231</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>1243</v>
+        <v>1232</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>95</v>
@@ -6979,20 +7010,20 @@
     </row>
     <row r="62" spans="1:7" ht="14.25">
       <c r="A62" s="2" t="s">
-        <v>1225</v>
+        <v>1214</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>1244</v>
+        <v>1233</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>97</v>
@@ -7000,22 +7031,22 @@
     </row>
     <row r="63" spans="1:7" ht="14.25">
       <c r="A63" s="2" t="s">
-        <v>1187</v>
+        <v>1176</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>1245</v>
+        <v>1234</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>1251</v>
+        <v>1240</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>100</v>
@@ -7023,20 +7054,20 @@
     </row>
     <row r="64" spans="1:7" ht="14.25">
       <c r="A64" s="2" t="s">
-        <v>1187</v>
+        <v>1176</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>1247</v>
+        <v>1236</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>103</v>
@@ -7044,20 +7075,20 @@
     </row>
     <row r="65" spans="1:7" ht="14.25">
       <c r="A65" s="2" t="s">
-        <v>1187</v>
+        <v>1176</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>1248</v>
+        <v>1237</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>106</v>
@@ -7065,20 +7096,20 @@
     </row>
     <row r="66" spans="1:7" ht="14.25">
       <c r="A66" s="2" t="s">
-        <v>1187</v>
+        <v>1176</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>1250</v>
+        <v>1239</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>109</v>
@@ -7086,20 +7117,20 @@
     </row>
     <row r="67" spans="1:7" ht="14.25">
       <c r="A67" s="2" t="s">
-        <v>1187</v>
+        <v>1176</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>1249</v>
+        <v>1238</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>111</v>
@@ -7116,20 +7147,20 @@
     </row>
     <row r="69" spans="1:7" ht="14.25">
       <c r="A69" s="2" t="s">
-        <v>1188</v>
+        <v>1177</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="17" t="s">
         <v>112</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>113</v>
@@ -7137,20 +7168,20 @@
     </row>
     <row r="70" spans="1:7" ht="14.25">
       <c r="A70" s="2" t="s">
-        <v>1188</v>
+        <v>1177</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>115</v>
@@ -7158,20 +7189,20 @@
     </row>
     <row r="71" spans="1:7" ht="14.25">
       <c r="A71" s="2" t="s">
-        <v>1188</v>
+        <v>1177</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>117</v>
@@ -7179,22 +7210,22 @@
     </row>
     <row r="72" spans="1:7" ht="14.25">
       <c r="A72" s="2" t="s">
-        <v>1188</v>
+        <v>1177</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>119</v>
@@ -7202,20 +7233,20 @@
     </row>
     <row r="73" spans="1:7" ht="14.25">
       <c r="A73" s="2" t="s">
-        <v>1188</v>
+        <v>1177</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="2" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>120</v>
@@ -7223,20 +7254,20 @@
     </row>
     <row r="74" spans="1:7" ht="14.25">
       <c r="A74" s="2" t="s">
-        <v>1188</v>
+        <v>1177</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>122</v>
@@ -7244,20 +7275,20 @@
     </row>
     <row r="75" spans="1:7" ht="14.25">
       <c r="A75" s="2" t="s">
-        <v>1188</v>
+        <v>1177</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="2" t="s">
         <v>123</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>1342</v>
+        <v>1331</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>124</v>
@@ -7274,13 +7305,13 @@
     </row>
     <row r="77" spans="1:7" ht="14.25">
       <c r="A77" s="2" t="s">
-        <v>1189</v>
+        <v>1178</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="2" t="s">
@@ -7295,20 +7326,20 @@
     </row>
     <row r="78" spans="1:7" ht="14.25">
       <c r="A78" s="2" t="s">
-        <v>1189</v>
+        <v>1178</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>1252</v>
+        <v>1241</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>128</v>
@@ -7316,20 +7347,20 @@
     </row>
     <row r="79" spans="1:7" ht="14.25">
       <c r="A79" s="2" t="s">
-        <v>1189</v>
+        <v>1178</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>1253</v>
+        <v>1242</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>130</v>
@@ -7337,20 +7368,20 @@
     </row>
     <row r="80" spans="1:7" ht="14.25">
       <c r="A80" s="2" t="s">
-        <v>1189</v>
+        <v>1178</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>1254</v>
+        <v>1243</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>132</v>
@@ -7358,20 +7389,20 @@
     </row>
     <row r="81" spans="1:7" ht="14.25">
       <c r="A81" s="2" t="s">
-        <v>1189</v>
+        <v>1178</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>1270</v>
+        <v>1259</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>134</v>
@@ -7379,20 +7410,20 @@
     </row>
     <row r="82" spans="1:7" ht="14.25">
       <c r="A82" s="2" t="s">
-        <v>1189</v>
+        <v>1178</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="2" t="s">
         <v>135</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>1255</v>
+        <v>1244</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>136</v>
@@ -7400,20 +7431,20 @@
     </row>
     <row r="83" spans="1:7" ht="14.25">
       <c r="A83" s="2" t="s">
-        <v>1190</v>
+        <v>1179</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="2" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>1256</v>
+        <v>1245</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>137</v>
@@ -7421,20 +7452,20 @@
     </row>
     <row r="84" spans="1:7" ht="14.25">
       <c r="A84" s="2" t="s">
-        <v>1190</v>
+        <v>1179</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="2" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>1257</v>
+        <v>1246</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>138</v>
@@ -7442,13 +7473,13 @@
     </row>
     <row r="85" spans="1:7" ht="14.25">
       <c r="A85" s="2" t="s">
-        <v>1190</v>
+        <v>1179</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="2" t="s">
@@ -7463,20 +7494,20 @@
     </row>
     <row r="86" spans="1:7" ht="14.25">
       <c r="A86" s="2" t="s">
-        <v>1190</v>
+        <v>1179</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="2" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>1258</v>
+        <v>1247</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>142</v>
@@ -7484,20 +7515,20 @@
     </row>
     <row r="87" spans="1:7" ht="14.25">
       <c r="A87" s="2" t="s">
-        <v>1190</v>
+        <v>1179</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="2" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>1259</v>
+        <v>1248</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>144</v>
@@ -7505,23 +7536,23 @@
     </row>
     <row r="88" spans="1:7" ht="14.25">
       <c r="A88" s="2" t="s">
-        <v>1190</v>
+        <v>1179</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="2" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>1344</v>
+        <v>1333</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="14.25">
@@ -7535,22 +7566,22 @@
     </row>
     <row r="90" spans="1:7" ht="14.25">
       <c r="A90" s="2" t="s">
-        <v>1185</v>
+        <v>1174</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>146</v>
@@ -7558,22 +7589,22 @@
     </row>
     <row r="91" spans="1:7" ht="14.25">
       <c r="A91" s="2" t="s">
-        <v>1185</v>
+        <v>1174</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>1260</v>
+        <v>1249</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>148</v>
@@ -7581,22 +7612,22 @@
     </row>
     <row r="92" spans="1:7" ht="14.25">
       <c r="A92" s="2" t="s">
-        <v>1185</v>
+        <v>1174</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>1360</v>
+        <v>1349</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>150</v>
@@ -7604,13 +7635,13 @@
     </row>
     <row r="93" spans="1:7" ht="14.25">
       <c r="A93" s="2" t="s">
-        <v>1185</v>
+        <v>1174</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>151</v>
@@ -7619,7 +7650,7 @@
         <v>151</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>1361</v>
+        <v>1350</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>152</v>
@@ -7627,22 +7658,22 @@
     </row>
     <row r="94" spans="1:7" ht="14.25">
       <c r="A94" s="2" t="s">
-        <v>1185</v>
+        <v>1174</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>1261</v>
+        <v>1250</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>154</v>
@@ -7650,22 +7681,22 @@
     </row>
     <row r="95" spans="1:7" ht="14.25">
       <c r="A95" s="2" t="s">
-        <v>1185</v>
+        <v>1174</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>155</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>156</v>
@@ -7682,20 +7713,20 @@
     </row>
     <row r="97" spans="1:7" ht="14.25">
       <c r="A97" s="2" t="s">
-        <v>1191</v>
+        <v>1180</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="2" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>1264</v>
+        <v>1253</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>157</v>
@@ -7703,20 +7734,20 @@
     </row>
     <row r="98" spans="1:7" ht="14.25">
       <c r="A98" s="2" t="s">
-        <v>1191</v>
+        <v>1180</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="2" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>1265</v>
+        <v>1254</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>158</v>
@@ -7724,20 +7755,20 @@
     </row>
     <row r="99" spans="1:7" ht="14.25">
       <c r="A99" s="2" t="s">
-        <v>1191</v>
+        <v>1180</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="2" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>1263</v>
+        <v>1252</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>159</v>
@@ -7745,20 +7776,20 @@
     </row>
     <row r="100" spans="1:7" ht="14.25">
       <c r="A100" s="2" t="s">
-        <v>1191</v>
+        <v>1180</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="2" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>160</v>
@@ -7766,20 +7797,20 @@
     </row>
     <row r="101" spans="1:7" ht="14.25">
       <c r="A101" s="2" t="s">
-        <v>1191</v>
+        <v>1180</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="2" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>1345</v>
+        <v>1334</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>161</v>
@@ -7787,20 +7818,20 @@
     </row>
     <row r="102" spans="1:7" ht="14.25">
       <c r="A102" s="2" t="s">
-        <v>1191</v>
+        <v>1180</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="2" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>1262</v>
+        <v>1251</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>162</v>
@@ -7817,20 +7848,20 @@
     </row>
     <row r="104" spans="1:7" ht="14.25">
       <c r="A104" s="2" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="2" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>1343</v>
+        <v>1332</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>163</v>
@@ -7838,20 +7869,20 @@
     </row>
     <row r="105" spans="1:7" ht="14.25">
       <c r="A105" s="2" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="2" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>164</v>
@@ -7859,20 +7890,20 @@
     </row>
     <row r="106" spans="1:7" ht="14.25">
       <c r="A106" s="2" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="D106" s="17"/>
       <c r="E106" s="2" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>1266</v>
+        <v>1255</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>165</v>
@@ -7880,20 +7911,20 @@
     </row>
     <row r="107" spans="1:7" ht="14.25">
       <c r="A107" s="2" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="2" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>1267</v>
+        <v>1256</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>166</v>
@@ -7901,20 +7932,20 @@
     </row>
     <row r="108" spans="1:7" ht="14.25">
       <c r="A108" s="2" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="D108" s="17"/>
       <c r="E108" s="2" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>1268</v>
+        <v>1257</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>167</v>
@@ -7922,20 +7953,20 @@
     </row>
     <row r="109" spans="1:7" ht="14.25">
       <c r="A109" s="2" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="2" t="s">
-        <v>1175</v>
+        <v>1164</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>1174</v>
+        <v>1163</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>168</v>
@@ -7943,20 +7974,20 @@
     </row>
     <row r="110" spans="1:7" ht="14.25">
       <c r="A110" s="2" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="D110" s="17"/>
       <c r="E110" s="2" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>1269</v>
+        <v>1258</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>169</v>
@@ -7973,20 +8004,20 @@
     </row>
     <row r="112" spans="1:7" ht="14.25">
       <c r="A112" s="2" t="s">
-        <v>1193</v>
+        <v>1182</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="D112" s="17"/>
       <c r="E112" s="2" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>1275</v>
+        <v>1264</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>170</v>
@@ -7994,20 +8025,20 @@
     </row>
     <row r="113" spans="1:7" ht="14.25">
       <c r="A113" s="2" t="s">
-        <v>1193</v>
+        <v>1182</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="2" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>1271</v>
+        <v>1260</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>171</v>
@@ -8015,20 +8046,20 @@
     </row>
     <row r="114" spans="1:7" ht="14.25">
       <c r="A114" s="2" t="s">
-        <v>1193</v>
+        <v>1182</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="D114" s="17"/>
       <c r="E114" s="2" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>1273</v>
+        <v>1262</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>172</v>
@@ -8036,20 +8067,20 @@
     </row>
     <row r="115" spans="1:7" ht="14.25">
       <c r="A115" s="2" t="s">
-        <v>1193</v>
+        <v>1182</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="2" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>1272</v>
+        <v>1261</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>173</v>
@@ -8057,20 +8088,20 @@
     </row>
     <row r="116" spans="1:7" ht="14.25">
       <c r="A116" s="2" t="s">
-        <v>1193</v>
+        <v>1182</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="2" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>1352</v>
+        <v>1341</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>174</v>
@@ -8078,20 +8109,20 @@
     </row>
     <row r="117" spans="1:7" ht="14.25">
       <c r="A117" s="2" t="s">
-        <v>1193</v>
+        <v>1182</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="2" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>175</v>
@@ -8108,22 +8139,22 @@
     </row>
     <row r="119" spans="1:7" ht="14.25">
       <c r="A119" s="2" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>176</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>1279</v>
+        <v>1268</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>177</v>
@@ -8131,22 +8162,22 @@
     </row>
     <row r="120" spans="1:7" ht="14.25">
       <c r="A120" s="2" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>178</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>1277</v>
+        <v>1266</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>1278</v>
+        <v>1267</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>179</v>
@@ -8154,22 +8185,22 @@
     </row>
     <row r="121" spans="1:7" ht="14.25">
       <c r="A121" s="2" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>180</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>1276</v>
+        <v>1265</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>181</v>
@@ -8177,22 +8208,22 @@
     </row>
     <row r="122" spans="1:7" ht="14.25">
       <c r="A122" s="2" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>182</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>1280</v>
+        <v>1269</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>183</v>
@@ -8200,22 +8231,22 @@
     </row>
     <row r="123" spans="1:7" ht="14.25">
       <c r="A123" s="2" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>1281</v>
+        <v>1270</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>185</v>
@@ -8223,22 +8254,22 @@
     </row>
     <row r="124" spans="1:7" ht="14.25">
       <c r="A124" s="2" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>186</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>1282</v>
+        <v>1271</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>187</v>
@@ -8246,22 +8277,22 @@
     </row>
     <row r="125" spans="1:7" ht="14.25">
       <c r="A125" s="2" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>188</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>1283</v>
+        <v>1272</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>189</v>
@@ -8269,13 +8300,13 @@
     </row>
     <row r="126" spans="1:7" ht="14.25">
       <c r="A126" s="2" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>190</v>
@@ -8284,7 +8315,7 @@
         <v>190</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>1301</v>
+        <v>1290</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>191</v>
@@ -8292,22 +8323,22 @@
     </row>
     <row r="127" spans="1:7" ht="14.25">
       <c r="A127" s="2" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>192</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>193</v>
@@ -8315,22 +8346,22 @@
     </row>
     <row r="128" spans="1:7" ht="14.25">
       <c r="A128" s="2" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>194</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>1284</v>
+        <v>1273</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>195</v>
@@ -8338,22 +8369,22 @@
     </row>
     <row r="129" spans="1:7" ht="14.25">
       <c r="A129" s="2" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>1362</v>
+        <v>1351</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>198</v>
@@ -8361,22 +8392,22 @@
     </row>
     <row r="130" spans="1:7" ht="14.25">
       <c r="A130" s="2" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>200</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>1285</v>
+        <v>1274</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>201</v>
@@ -8384,22 +8415,22 @@
     </row>
     <row r="131" spans="1:7" ht="14.25">
       <c r="A131" s="2" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>203</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>1286</v>
+        <v>1275</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>204</v>
@@ -8407,22 +8438,22 @@
     </row>
     <row r="132" spans="1:7" ht="14.25">
       <c r="A132" s="2" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>206</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>1287</v>
+        <v>1276</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>207</v>
@@ -8430,22 +8461,22 @@
     </row>
     <row r="133" spans="1:7" ht="14.25">
       <c r="A133" s="2" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>209</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>1288</v>
+        <v>1277</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>210</v>
@@ -8453,22 +8484,22 @@
     </row>
     <row r="134" spans="1:7" ht="14.25">
       <c r="A134" s="2" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>212</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>1289</v>
+        <v>1278</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>213</v>
@@ -8476,22 +8507,22 @@
     </row>
     <row r="135" spans="1:7" ht="14.25">
       <c r="A135" s="2" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>215</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1296</v>
+        <v>1285</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>216</v>
@@ -8499,22 +8530,22 @@
     </row>
     <row r="136" spans="1:7" ht="14.25">
       <c r="A136" s="2" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>1363</v>
+        <v>1352</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>216</v>
@@ -8522,22 +8553,22 @@
     </row>
     <row r="137" spans="1:7" ht="14.25">
       <c r="A137" s="2" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>220</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>1290</v>
+        <v>1279</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>221</v>
@@ -8545,22 +8576,22 @@
     </row>
     <row r="138" spans="1:7" ht="14.25">
       <c r="A138" s="2" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1291</v>
+        <v>1280</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>1292</v>
+        <v>1281</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>221</v>
@@ -8568,22 +8599,22 @@
     </row>
     <row r="139" spans="1:7" ht="14.25">
       <c r="A139" s="2" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>1293</v>
+        <v>1282</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>221</v>
@@ -8591,22 +8622,22 @@
     </row>
     <row r="140" spans="1:7" ht="14.25">
       <c r="A140" s="2" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>226</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>1294</v>
+        <v>1283</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>221</v>
@@ -8623,229 +8654,229 @@
     </row>
     <row r="142" spans="1:7" ht="14.25">
       <c r="A142" s="2" t="s">
-        <v>1194</v>
+        <v>1183</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="D142" s="17" t="s">
         <v>227</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>1297</v>
+        <v>1286</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>1297</v>
+        <v>1286</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="14.25">
       <c r="A143" s="2" t="s">
-        <v>1194</v>
+        <v>1183</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>228</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>1355</v>
+        <v>1344</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="14.25">
       <c r="A144" s="2" t="s">
-        <v>1194</v>
+        <v>1183</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>229</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="F144" s="16" t="s">
-        <v>1356</v>
+        <v>1345</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="14.25">
       <c r="A145" s="2" t="s">
-        <v>1194</v>
+        <v>1183</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="D145" s="17" t="s">
         <v>230</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="14.25">
       <c r="A146" s="2" t="s">
-        <v>1194</v>
+        <v>1183</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>231</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="F146" s="21" t="s">
-        <v>1298</v>
+        <v>1287</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="14.25">
       <c r="A147" s="2" t="s">
-        <v>1195</v>
+        <v>1184</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1357</v>
+        <v>1346</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>1357</v>
+        <v>1346</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="14.25">
       <c r="A148" s="2" t="s">
-        <v>1195</v>
+        <v>1184</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>232</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>232</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="14.25">
       <c r="A149" s="2" t="s">
-        <v>1195</v>
+        <v>1184</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>233</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>1299</v>
+        <v>1288</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="14.25">
       <c r="A150" s="2" t="s">
-        <v>1195</v>
+        <v>1184</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="D150" s="17" t="s">
         <v>234</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>1300</v>
+        <v>1289</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="14.25">
       <c r="A151" s="2" t="s">
-        <v>1195</v>
+        <v>1184</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="D151" s="17" t="s">
         <v>235</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>1302</v>
+        <v>1291</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>236</v>
@@ -8862,105 +8893,105 @@
     </row>
     <row r="153" spans="1:7" ht="14.25">
       <c r="A153" s="2" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>237</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>1303</v>
+        <v>1292</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="14.25">
       <c r="A154" s="2" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>238</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>1304</v>
+        <v>1293</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="14.25">
       <c r="A155" s="2" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>239</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>1358</v>
+        <v>1347</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="14.25">
       <c r="A156" s="2" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>240</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="14.25">
       <c r="A157" s="2" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>241</v>
@@ -8969,33 +9000,33 @@
         <v>241</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="14.25">
       <c r="A158" s="2" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>242</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="14.25">
@@ -9009,22 +9040,22 @@
     </row>
     <row r="160" spans="1:7" ht="14.25">
       <c r="A160" s="2" t="s">
-        <v>1197</v>
+        <v>1186</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>243</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="F160" s="17" t="s">
-        <v>1359</v>
+        <v>1348</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>244</v>
@@ -9032,22 +9063,22 @@
     </row>
     <row r="161" spans="1:7" ht="14.25">
       <c r="A161" s="2" t="s">
-        <v>1197</v>
+        <v>1186</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>245</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>1046</v>
+        <v>1037</v>
       </c>
       <c r="F161" s="17" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>246</v>
@@ -9055,22 +9086,22 @@
     </row>
     <row r="162" spans="1:7" ht="14.25">
       <c r="A162" s="2" t="s">
-        <v>1197</v>
+        <v>1186</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>247</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="F162" s="17" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>248</v>
@@ -9078,22 +9109,22 @@
     </row>
     <row r="163" spans="1:7" ht="14.25">
       <c r="A163" s="2" t="s">
-        <v>1197</v>
+        <v>1186</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>250</v>
@@ -9101,22 +9132,22 @@
     </row>
     <row r="164" spans="1:7" ht="14.25">
       <c r="A164" s="2" t="s">
-        <v>1197</v>
+        <v>1186</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>251</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>252</v>
@@ -9124,13 +9155,13 @@
     </row>
     <row r="165" spans="1:7" ht="14.25">
       <c r="A165" s="2" t="s">
-        <v>1198</v>
+        <v>1187</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D165" s="17" t="s">
         <v>253</v>
@@ -9147,19 +9178,19 @@
     </row>
     <row r="166" spans="1:7" ht="14.25">
       <c r="A166" s="2" t="s">
-        <v>1198</v>
+        <v>1187</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="D166" s="17" t="s">
         <v>255</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="F166" s="17" t="s">
         <v>255</v>
@@ -9170,19 +9201,19 @@
     </row>
     <row r="167" spans="1:7" ht="14.25">
       <c r="A167" s="2" t="s">
-        <v>1198</v>
+        <v>1187</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="D167" s="17" t="s">
         <v>257</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="F167" s="17" t="s">
         <v>257</v>
@@ -9193,19 +9224,19 @@
     </row>
     <row r="168" spans="1:7" ht="14.25">
       <c r="A168" s="2" t="s">
-        <v>1198</v>
+        <v>1187</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="D168" s="17" t="s">
         <v>259</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="F168" s="17" t="s">
         <v>259</v>
@@ -9216,19 +9247,19 @@
     </row>
     <row r="169" spans="1:7" ht="14.25">
       <c r="A169" s="2" t="s">
-        <v>1199</v>
+        <v>1188</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="D169" s="17" t="s">
         <v>261</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="F169" s="17" t="s">
         <v>261</v>
@@ -9239,19 +9270,19 @@
     </row>
     <row r="170" spans="1:7" ht="14.25">
       <c r="A170" s="2" t="s">
-        <v>1199</v>
+        <v>1188</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="D170" s="17" t="s">
         <v>263</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>1053</v>
+        <v>1044</v>
       </c>
       <c r="F170" s="17" t="s">
         <v>263</v>
@@ -9262,19 +9293,19 @@
     </row>
     <row r="171" spans="1:7" ht="14.25">
       <c r="A171" s="2" t="s">
-        <v>1199</v>
+        <v>1188</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="D171" s="17" t="s">
         <v>265</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>1054</v>
+        <v>1045</v>
       </c>
       <c r="F171" s="17" t="s">
         <v>265</v>
@@ -9285,19 +9316,19 @@
     </row>
     <row r="172" spans="1:7" ht="14.25">
       <c r="A172" s="2" t="s">
-        <v>1199</v>
+        <v>1188</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="D172" s="17" t="s">
         <v>267</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>1055</v>
+        <v>1046</v>
       </c>
       <c r="F172" s="17" t="s">
         <v>267</v>
@@ -9308,19 +9339,19 @@
     </row>
     <row r="173" spans="1:7" ht="14.25">
       <c r="A173" s="2" t="s">
-        <v>1199</v>
+        <v>1188</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="D173" s="17" t="s">
         <v>269</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>1056</v>
+        <v>1047</v>
       </c>
       <c r="F173" s="17" t="s">
         <v>269</v>
@@ -9340,22 +9371,22 @@
     </row>
     <row r="175" spans="1:7" ht="14.25">
       <c r="A175" s="2" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="D175" s="17" t="s">
         <v>271</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>1057</v>
+        <v>1048</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>1364</v>
+        <v>1353</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>272</v>
@@ -9363,22 +9394,22 @@
     </row>
     <row r="176" spans="1:7" ht="14.25">
       <c r="A176" s="2" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="F176" s="18" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>273</v>
@@ -9386,22 +9417,22 @@
     </row>
     <row r="177" spans="1:7" ht="14.25">
       <c r="A177" s="2" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="D177" s="17" t="s">
         <v>274</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>1365</v>
+        <v>1354</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>275</v>
@@ -9409,22 +9440,22 @@
     </row>
     <row r="178" spans="1:7" ht="14.25">
       <c r="A178" s="2" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>1060</v>
+        <v>1051</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>276</v>
@@ -9432,13 +9463,13 @@
     </row>
     <row r="179" spans="1:7" ht="14.25">
       <c r="A179" s="2" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="D179" s="17" t="s">
         <v>277</v>
@@ -9447,7 +9478,7 @@
         <v>277</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>278</v>
@@ -9455,22 +9486,22 @@
     </row>
     <row r="180" spans="1:7" ht="14.25">
       <c r="A180" s="2" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>279</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>1061</v>
+        <v>1052</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>1295</v>
+        <v>1284</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>280</v>
@@ -9478,22 +9509,22 @@
     </row>
     <row r="181" spans="1:7" ht="14.25">
       <c r="A181" s="2" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="D181" s="17" t="s">
         <v>281</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>1062</v>
+        <v>1053</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>282</v>
@@ -9510,19 +9541,19 @@
     </row>
     <row r="183" spans="1:7" ht="14.25">
       <c r="A183" s="2" t="s">
-        <v>1227</v>
+        <v>1216</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>1063</v>
+        <v>1054</v>
       </c>
       <c r="F183" s="17" t="s">
         <v>283</v>
@@ -9533,22 +9564,22 @@
     </row>
     <row r="184" spans="1:7" ht="14.25">
       <c r="A184" s="2" t="s">
-        <v>1227</v>
+        <v>1216</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>285</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="F184" s="17" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>286</v>
@@ -9556,22 +9587,22 @@
     </row>
     <row r="185" spans="1:7" ht="14.25">
       <c r="A185" s="2" t="s">
-        <v>1227</v>
+        <v>1216</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>1065</v>
+        <v>1056</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>287</v>
@@ -9579,22 +9610,22 @@
     </row>
     <row r="186" spans="1:7" ht="14.25">
       <c r="A186" s="2" t="s">
-        <v>1227</v>
+        <v>1216</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D186" s="17" t="s">
         <v>288</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="F186" s="18" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>289</v>
@@ -9602,45 +9633,45 @@
     </row>
     <row r="187" spans="1:7" ht="14.25">
       <c r="A187" s="2" t="s">
-        <v>1227</v>
+        <v>1216</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="D187" s="17" t="s">
         <v>290</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>1067</v>
+        <v>1058</v>
       </c>
       <c r="F187" s="18" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="14.25">
       <c r="A188" s="2" t="s">
-        <v>1227</v>
+        <v>1216</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>291</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>1068</v>
+        <v>1059</v>
       </c>
       <c r="F188" s="17" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>292</v>
@@ -9657,59 +9688,59 @@
     </row>
     <row r="190" spans="1:7" ht="14.25">
       <c r="A190" s="2" t="s">
-        <v>1228</v>
+        <v>1217</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>293</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="F190" s="17" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="14.25">
       <c r="A191" s="2" t="s">
-        <v>1228</v>
+        <v>1217</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>1366</v>
+        <v>1355</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>1367</v>
+        <v>1356</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="14.25">
       <c r="A192" s="2" t="s">
-        <v>1228</v>
+        <v>1217</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>294</v>
@@ -9718,102 +9749,102 @@
         <v>294</v>
       </c>
       <c r="F192" s="17" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="14.25">
       <c r="A193" s="2" t="s">
-        <v>1228</v>
+        <v>1217</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="D193" s="17" t="s">
         <v>295</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="F193" s="17" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="14.25">
       <c r="A194" s="2" t="s">
-        <v>1228</v>
+        <v>1217</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>296</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
       <c r="F194" s="17" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="14.25">
       <c r="A195" s="2" t="s">
-        <v>1228</v>
+        <v>1217</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>297</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>1072</v>
+        <v>1063</v>
       </c>
       <c r="F195" s="17" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="14.25">
       <c r="A196" s="2" t="s">
-        <v>1228</v>
+        <v>1217</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="14.25">
@@ -9827,26 +9858,26 @@
     </row>
     <row r="198" spans="1:7" ht="14.25">
       <c r="A198" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2" t="s">
         <v>298</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="E198" s="17" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="F198" s="17" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="G198" s="2"/>
     </row>
     <row r="199" spans="1:7" ht="14.25">
       <c r="A199" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
@@ -9865,7 +9896,7 @@
     </row>
     <row r="200" spans="1:7" ht="14.25">
       <c r="A200" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="2" t="s">
@@ -9884,7 +9915,7 @@
     </row>
     <row r="201" spans="1:7" ht="14.25">
       <c r="A201" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="2" t="s">
@@ -9903,7 +9934,7 @@
     </row>
     <row r="202" spans="1:7" ht="14.25">
       <c r="A202" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2" t="s">
@@ -9922,7 +9953,7 @@
     </row>
     <row r="203" spans="1:7" ht="14.25">
       <c r="A203" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2" t="s">
@@ -9941,7 +9972,7 @@
     </row>
     <row r="204" spans="1:7" ht="14.25">
       <c r="A204" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2" t="s">
@@ -9960,7 +9991,7 @@
     </row>
     <row r="205" spans="1:7" ht="14.25">
       <c r="A205" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2" t="s">
@@ -9979,7 +10010,7 @@
     </row>
     <row r="206" spans="1:7" ht="14.25">
       <c r="A206" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" s="2" t="s">
@@ -9998,7 +10029,7 @@
     </row>
     <row r="207" spans="1:7" ht="14.25">
       <c r="A207" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" s="2" t="s">
@@ -10017,7 +10048,7 @@
     </row>
     <row r="208" spans="1:7" ht="14.25">
       <c r="A208" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="2" t="s">
@@ -10036,7 +10067,7 @@
     </row>
     <row r="209" spans="1:7" ht="14.25">
       <c r="A209" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" s="2" t="s">
@@ -10055,7 +10086,7 @@
     </row>
     <row r="210" spans="1:7" ht="14.25">
       <c r="A210" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" s="2" t="s">
@@ -10074,7 +10105,7 @@
     </row>
     <row r="211" spans="1:7" ht="14.25">
       <c r="A211" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="2" t="s">
@@ -10093,7 +10124,7 @@
     </row>
     <row r="212" spans="1:7" ht="14.25">
       <c r="A212" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2" t="s">
@@ -10112,7 +10143,7 @@
     </row>
     <row r="213" spans="1:7" ht="14.25">
       <c r="A213" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2" t="s">
@@ -10131,7 +10162,7 @@
     </row>
     <row r="214" spans="1:7" ht="14.25">
       <c r="A214" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2" t="s">
@@ -10150,7 +10181,7 @@
     </row>
     <row r="215" spans="1:7" ht="14.25">
       <c r="A215" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="2" t="s">
@@ -10169,7 +10200,7 @@
     </row>
     <row r="216" spans="1:7" ht="14.25">
       <c r="A216" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="2" t="s">
@@ -10188,7 +10219,7 @@
     </row>
     <row r="217" spans="1:7" ht="14.25">
       <c r="A217" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" s="2" t="s">
@@ -10207,7 +10238,7 @@
     </row>
     <row r="218" spans="1:7" ht="14.25">
       <c r="A218" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="2" t="s">
@@ -10226,7 +10257,7 @@
     </row>
     <row r="219" spans="1:7" ht="14.25">
       <c r="A219" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="2" t="s">
@@ -10245,7 +10276,7 @@
     </row>
     <row r="220" spans="1:7" ht="14.25">
       <c r="A220" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="2" t="s">
@@ -10264,7 +10295,7 @@
     </row>
     <row r="221" spans="1:7" ht="14.25">
       <c r="A221" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" s="2" t="s">
@@ -10283,7 +10314,7 @@
     </row>
     <row r="222" spans="1:7" ht="14.25">
       <c r="A222" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" s="2" t="s">
@@ -10302,7 +10333,7 @@
     </row>
     <row r="223" spans="1:7" ht="14.25">
       <c r="A223" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="2" t="s">
@@ -10321,7 +10352,7 @@
     </row>
     <row r="224" spans="1:7" ht="14.25">
       <c r="A224" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="2" t="s">
@@ -10340,7 +10371,7 @@
     </row>
     <row r="225" spans="1:7" ht="14.25">
       <c r="A225" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" s="2" t="s">
@@ -10359,7 +10390,7 @@
     </row>
     <row r="226" spans="1:7" ht="14.25">
       <c r="A226" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2" t="s">
@@ -10378,7 +10409,7 @@
     </row>
     <row r="227" spans="1:7" ht="14.25">
       <c r="A227" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2" t="s">
@@ -10397,7 +10428,7 @@
     </row>
     <row r="228" spans="1:7" ht="14.25">
       <c r="A228" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" s="2" t="s">
@@ -10416,7 +10447,7 @@
     </row>
     <row r="229" spans="1:7" ht="14.25">
       <c r="A229" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="2" t="s">
@@ -10435,7 +10466,7 @@
     </row>
     <row r="230" spans="1:7" ht="14.25">
       <c r="A230" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2" t="s">
@@ -10454,7 +10485,7 @@
     </row>
     <row r="231" spans="1:7" ht="14.25">
       <c r="A231" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2" t="s">
@@ -10473,7 +10504,7 @@
     </row>
     <row r="232" spans="1:7" ht="14.25">
       <c r="A232" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" s="2" t="s">
@@ -10492,41 +10523,41 @@
     </row>
     <row r="233" spans="1:7" ht="14.25">
       <c r="A233" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" s="2" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
       <c r="F233" s="17" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="G233" s="2"/>
     </row>
     <row r="234" spans="1:7" ht="14.25">
       <c r="A234" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>332</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="D234" s="17" t="s">
         <v>333</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
       <c r="F234" s="16" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>334</v>
@@ -10534,23 +10565,23 @@
     </row>
     <row r="235" spans="1:7" ht="16.5">
       <c r="A235" s="2" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" s="2" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="D235" s="17" t="s">
         <v>335</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
       <c r="F235" s="17" t="s">
         <v>335</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="14.25">
@@ -10564,13 +10595,13 @@
     </row>
     <row r="237" spans="1:7" ht="14.25">
       <c r="A237" s="2" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="D237" s="17" t="s">
         <v>336</v>
@@ -10587,22 +10618,22 @@
     </row>
     <row r="238" spans="1:7" ht="14.25">
       <c r="A238" s="2" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="D238" s="17" t="s">
         <v>338</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>339</v>
@@ -10610,22 +10641,22 @@
     </row>
     <row r="239" spans="1:7" ht="14.25">
       <c r="A239" s="2" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="D239" s="17" t="s">
         <v>340</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="F239" s="17" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>341</v>
@@ -10633,13 +10664,13 @@
     </row>
     <row r="240" spans="1:7" ht="14.25">
       <c r="A240" s="2" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="D240" s="17" t="s">
         <v>342</v>
@@ -10656,13 +10687,13 @@
     </row>
     <row r="241" spans="1:7" ht="14.25">
       <c r="A241" s="2" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="D241" s="17" t="s">
         <v>344</v>
@@ -10679,22 +10710,22 @@
     </row>
     <row r="242" spans="1:7" ht="14.25">
       <c r="A242" s="2" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="D242" s="17" t="s">
         <v>346</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>347</v>
@@ -10702,36 +10733,36 @@
     </row>
     <row r="243" spans="1:7" ht="14.25">
       <c r="A243" s="2" t="s">
-        <v>1231</v>
+        <v>1220</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>348</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="F243" s="9" t="s">
-        <v>1306</v>
+        <v>1295</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="14.25">
       <c r="A244" s="2" t="s">
-        <v>1231</v>
+        <v>1220</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="D244" s="17" t="s">
         <v>349</v>
@@ -10740,79 +10771,79 @@
         <v>349</v>
       </c>
       <c r="F244" s="18" t="s">
-        <v>1314</v>
+        <v>1303</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="14.25">
       <c r="A245" s="2" t="s">
-        <v>1231</v>
+        <v>1220</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="D245" s="17" t="s">
         <v>350</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="F245" s="18" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="14.25">
       <c r="A246" s="2" t="s">
-        <v>1231</v>
+        <v>1220</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="D246" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="F246" s="9" t="s">
-        <v>1308</v>
+        <v>1297</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="14.25">
       <c r="A247" s="2" t="s">
-        <v>1231</v>
+        <v>1220</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="D247" s="17" t="s">
         <v>352</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="F247" s="9" t="s">
-        <v>1309</v>
+        <v>1298</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="14.25">
@@ -10826,82 +10857,82 @@
     </row>
     <row r="249" spans="1:7" ht="14.25">
       <c r="A249" s="2" t="s">
-        <v>1232</v>
+        <v>1221</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="D249" s="17" t="s">
         <v>353</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="14.25">
       <c r="A250" s="2" t="s">
-        <v>1232</v>
+        <v>1221</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="14.25">
       <c r="A251" s="2" t="s">
-        <v>1232</v>
+        <v>1221</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="14.25">
       <c r="A252" s="2" t="s">
-        <v>1232</v>
+        <v>1221</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>355</v>
@@ -10910,56 +10941,56 @@
         <v>355</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="14.25">
       <c r="A253" s="2" t="s">
-        <v>1232</v>
+        <v>1221</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>356</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="14.25">
       <c r="A254" s="2" t="s">
-        <v>1232</v>
+        <v>1221</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>357</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="14.25">
@@ -10973,125 +11004,125 @@
     </row>
     <row r="256" spans="1:7" ht="14.25">
       <c r="A256" s="2" t="s">
-        <v>1233</v>
+        <v>1222</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="D256" s="17" t="s">
         <v>358</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="14.25">
       <c r="A257" s="2" t="s">
-        <v>1233</v>
+        <v>1222</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>359</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="14.25">
       <c r="A258" s="2" t="s">
-        <v>1233</v>
+        <v>1222</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>360</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="14.25">
       <c r="A259" s="2" t="s">
-        <v>1233</v>
+        <v>1222</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="14.25">
       <c r="A260" s="2" t="s">
-        <v>1233</v>
+        <v>1222</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>362</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="14.25">
       <c r="A261" s="2" t="s">
-        <v>1233</v>
+        <v>1222</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>363</v>
@@ -11100,24 +11131,24 @@
         <v>364</v>
       </c>
       <c r="E261" s="17" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
       <c r="F261" s="17" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="14.25">
       <c r="A262" s="2" t="s">
-        <v>1234</v>
+        <v>1223</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="D262" s="17" t="s">
         <v>365</v>
@@ -11126,235 +11157,235 @@
         <v>365</v>
       </c>
       <c r="F262" s="17" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="14.25">
       <c r="A263" s="2" t="s">
-        <v>1234</v>
+        <v>1223</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="F263" s="18" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="14.25">
       <c r="A264" s="2" t="s">
-        <v>1234</v>
+        <v>1223</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D264" s="17" t="s">
         <v>366</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
       <c r="F264" s="17" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="14.25">
       <c r="A265" s="2" t="s">
-        <v>1234</v>
+        <v>1223</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D265" s="17" t="s">
         <v>366</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
       <c r="F265" s="17" t="s">
-        <v>1368</v>
+        <v>1357</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="14.25">
       <c r="A266" s="2" t="s">
-        <v>1234</v>
+        <v>1223</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="2" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="E266" s="17" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="F266" s="17" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="14.25">
       <c r="A267" s="2" t="s">
-        <v>1234</v>
+        <v>1223</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
       <c r="F267" s="17" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="14.25">
       <c r="A268" s="2" t="s">
-        <v>1234</v>
+        <v>1223</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="F268" s="17" t="s">
-        <v>1369</v>
+        <v>1358</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="14.25">
       <c r="A269" s="2" t="s">
-        <v>1234</v>
+        <v>1223</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="F269" s="17" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="14.25">
       <c r="A270" s="2" t="s">
-        <v>1234</v>
+        <v>1223</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="D270" s="17" t="s">
         <v>367</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="F270" s="18" t="s">
+        <v>958</v>
+      </c>
+      <c r="G270" s="2" t="s">
         <v>967</v>
-      </c>
-      <c r="G270" s="2" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="14.25">
       <c r="A271" s="2" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>368</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="F271" s="16" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="14.25">
       <c r="A272" s="2" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="F272" s="17" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>369</v>
@@ -11362,22 +11393,22 @@
     </row>
     <row r="273" spans="1:7" ht="14.25">
       <c r="A273" s="2" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>372</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
       <c r="F273" s="17" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>371</v>
@@ -11385,22 +11416,22 @@
     </row>
     <row r="274" spans="1:7" ht="14.25">
       <c r="A274" s="2" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>374</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
       <c r="F274" s="17" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>373</v>
@@ -11408,22 +11439,22 @@
     </row>
     <row r="275" spans="1:7" ht="14.25">
       <c r="A275" s="2" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>370</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="F275" s="17" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>375</v>
@@ -11431,22 +11462,22 @@
     </row>
     <row r="276" spans="1:7" ht="14.25">
       <c r="A276" s="2" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>376</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="F276" s="17" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>377</v>
@@ -11454,22 +11485,22 @@
     </row>
     <row r="277" spans="1:7" ht="14.25">
       <c r="A277" s="2" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>378</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="F277" s="17" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>379</v>
@@ -11477,22 +11508,22 @@
     </row>
     <row r="278" spans="1:7" ht="14.25">
       <c r="A278" s="2" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>380</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
       <c r="F278" s="17" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>381</v>
@@ -11500,22 +11531,22 @@
     </row>
     <row r="279" spans="1:7" ht="14.25">
       <c r="A279" s="2" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>382</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="F279" s="17" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>383</v>
@@ -11523,22 +11554,22 @@
     </row>
     <row r="280" spans="1:7" ht="14.25">
       <c r="A280" s="2" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>384</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>385</v>
@@ -11546,22 +11577,22 @@
     </row>
     <row r="281" spans="1:7" ht="14.25">
       <c r="A281" s="2" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>386</v>
@@ -11569,22 +11600,22 @@
     </row>
     <row r="282" spans="1:7" ht="14.25">
       <c r="A282" s="2" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>388</v>
@@ -11592,48 +11623,48 @@
     </row>
     <row r="283" spans="1:7" ht="14.25">
       <c r="A283" s="2" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>389</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="14.25">
       <c r="A284" s="2" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>390</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="14.25">
@@ -11647,13 +11678,13 @@
     </row>
     <row r="286" spans="1:7" ht="14.25">
       <c r="A286" s="2" t="s">
-        <v>1201</v>
+        <v>1190</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>391</v>
@@ -11662,113 +11693,113 @@
         <v>391</v>
       </c>
       <c r="F286" s="17" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="14.25">
       <c r="A287" s="2" t="s">
-        <v>1201</v>
+        <v>1190</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>392</v>
       </c>
       <c r="E287" s="17" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="F287" s="17" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="14.25">
       <c r="A288" s="2" t="s">
-        <v>1201</v>
+        <v>1190</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="E288" s="17" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="F288" s="17" t="s">
         <v>393</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="14.25">
       <c r="A289" s="2" t="s">
-        <v>1201</v>
+        <v>1190</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="E289" s="17" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="F289" s="17" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="14.25">
       <c r="A290" s="2" t="s">
-        <v>1201</v>
+        <v>1190</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="E290" s="17" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="F290" s="17" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="14.25">
       <c r="A291" s="2" t="s">
-        <v>1201</v>
+        <v>1190</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="D291" s="17" t="s">
         <v>394</v>
@@ -11777,10 +11808,10 @@
         <v>394</v>
       </c>
       <c r="F291" s="17" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="14.25">
@@ -11794,140 +11825,140 @@
     </row>
     <row r="293" spans="1:7" ht="14.25">
       <c r="A293" s="2" t="s">
-        <v>1202</v>
+        <v>1191</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="F293" s="17" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>1178</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="14.25">
       <c r="A294" s="2" t="s">
-        <v>1202</v>
+        <v>1191</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="F294" s="18" t="s">
-        <v>1324</v>
+        <v>1313</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>1179</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="14.25">
       <c r="A295" s="2" t="s">
-        <v>1202</v>
+        <v>1191</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="F295" s="18" t="s">
-        <v>1322</v>
+        <v>1311</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>1180</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="14.25">
       <c r="A296" s="2" t="s">
-        <v>1202</v>
+        <v>1191</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>395</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="F296" s="17" t="s">
-        <v>1176</v>
+        <v>1165</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>1181</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="14.25">
       <c r="A297" s="2" t="s">
-        <v>1202</v>
+        <v>1191</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>396</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="F297" s="17" t="s">
-        <v>1323</v>
+        <v>1312</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="14.25">
       <c r="A298" s="2" t="s">
-        <v>1202</v>
+        <v>1191</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>397</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>1177</v>
+        <v>1166</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>1183</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="14.25">
@@ -11941,140 +11972,140 @@
     </row>
     <row r="300" spans="1:7" ht="14.25">
       <c r="A300" s="2" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="D300" s="17" t="s">
         <v>398</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="F300" s="16" t="s">
-        <v>1325</v>
+        <v>1314</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="14.25">
       <c r="A301" s="2" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="D301" s="17" t="s">
         <v>399</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="F301" s="16" t="s">
-        <v>1326</v>
+        <v>1315</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="14.25">
       <c r="A302" s="2" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="D302" s="17" t="s">
         <v>400</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>1237</v>
+        <v>1226</v>
       </c>
       <c r="F302" s="21" t="s">
-        <v>1238</v>
+        <v>1227</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>1332</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="14.25">
       <c r="A303" s="2" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="D303" s="17" t="s">
         <v>401</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="F303" s="16" t="s">
-        <v>1327</v>
+        <v>1316</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>1333</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="14.25">
       <c r="A304" s="2" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="D304" s="17" t="s">
         <v>402</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="F304" s="16" t="s">
-        <v>1328</v>
+        <v>1317</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>1334</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="14.25">
       <c r="A305" s="2" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="D305" s="17" t="s">
         <v>403</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="F305" s="16" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>1335</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="14.25">
@@ -12088,105 +12119,105 @@
     </row>
     <row r="307" spans="1:7" ht="14.25">
       <c r="A307" s="2" t="s">
-        <v>1204</v>
+        <v>1193</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="D307" s="17" t="s">
         <v>404</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="F307" s="18" t="s">
-        <v>1374</v>
+        <v>1363</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>1376</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="14.25">
       <c r="A308" s="2" t="s">
-        <v>1204</v>
+        <v>1193</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>1370</v>
+        <v>1359</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>1371</v>
+        <v>1360</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>1377</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="14.25">
       <c r="A309" s="2" t="s">
-        <v>1204</v>
+        <v>1193</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>1372</v>
+        <v>1361</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>1372</v>
+        <v>1361</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>1378</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="14.25">
       <c r="A310" s="2" t="s">
-        <v>1204</v>
+        <v>1193</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>1373</v>
+        <v>1362</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>1373</v>
+        <v>1362</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>1379</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="14.25">
       <c r="A311" s="2" t="s">
-        <v>1204</v>
+        <v>1193</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="D311" s="17" t="s">
         <v>405</v>
@@ -12195,33 +12226,33 @@
         <v>405</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>1380</v>
+        <v>1369</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>1381</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="14.25">
       <c r="A312" s="2" t="s">
-        <v>1204</v>
+        <v>1193</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="D312" s="17" t="s">
         <v>406</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
       <c r="F312" s="9" t="s">
-        <v>1375</v>
+        <v>1364</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>1382</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="14.25">
@@ -12235,149 +12266,163 @@
     </row>
     <row r="314" spans="1:7" ht="14.25">
       <c r="A314" s="2" t="s">
-        <v>1205</v>
+        <v>1194</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="D314" s="17" t="s">
         <v>407</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F314" s="11"/>
+        <v>1117</v>
+      </c>
+      <c r="F314" s="16" t="s">
+        <v>1377</v>
+      </c>
       <c r="G314" s="2" t="s">
-        <v>408</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="14.25">
       <c r="A315" s="2" t="s">
-        <v>1205</v>
+        <v>1194</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F315" s="11"/>
+        <v>1118</v>
+      </c>
+      <c r="F315" s="16" t="s">
+        <v>1387</v>
+      </c>
       <c r="G315" s="2" t="s">
-        <v>410</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="14.25">
       <c r="A316" s="2" t="s">
-        <v>1205</v>
+        <v>1194</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F316" s="11"/>
+        <v>1119</v>
+      </c>
+      <c r="F316" s="16" t="s">
+        <v>1379</v>
+      </c>
       <c r="G316" s="2" t="s">
-        <v>412</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="14.25">
       <c r="A317" s="2" t="s">
-        <v>1205</v>
+        <v>1194</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>413</v>
+        <v>1381</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>1129</v>
-      </c>
-      <c r="F317" s="11"/>
+        <v>1120</v>
+      </c>
+      <c r="F317" s="16" t="s">
+        <v>1382</v>
+      </c>
       <c r="G317" s="2" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="14.25">
       <c r="A318" s="2" t="s">
-        <v>1205</v>
+        <v>1194</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>414</v>
+        <v>1372</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F318" s="11"/>
+        <v>1373</v>
+      </c>
+      <c r="F318" s="16" t="s">
+        <v>1373</v>
+      </c>
       <c r="G318" s="2" t="s">
-        <v>415</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="14.25">
       <c r="A319" s="2" t="s">
-        <v>1205</v>
+        <v>1194</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>416</v>
+        <v>1374</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>1131</v>
-      </c>
-      <c r="F319" s="11"/>
+        <v>1375</v>
+      </c>
+      <c r="F319" s="16" t="s">
+        <v>1375</v>
+      </c>
       <c r="G319" s="2" t="s">
-        <v>417</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="14.25">
       <c r="A320" s="2" t="s">
-        <v>1205</v>
+        <v>1194</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F320" s="11"/>
+        <v>1121</v>
+      </c>
+      <c r="F320" s="16" t="s">
+        <v>1385</v>
+      </c>
       <c r="G320" s="2" t="s">
-        <v>419</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="14.25">
@@ -12391,128 +12436,128 @@
     </row>
     <row r="322" spans="1:7" ht="14.25">
       <c r="A322" s="2" t="s">
-        <v>1206</v>
+        <v>1195</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>1133</v>
+        <v>1122</v>
       </c>
       <c r="F322" s="11"/>
       <c r="G322" s="2" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="14.25">
       <c r="A323" s="2" t="s">
-        <v>1206</v>
+        <v>1195</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
       <c r="F323" s="11"/>
       <c r="G323" s="2" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="14.25">
       <c r="A324" s="2" t="s">
-        <v>1206</v>
+        <v>1195</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>1135</v>
+        <v>1124</v>
       </c>
       <c r="F324" s="11"/>
       <c r="G324" s="2" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="14.25">
       <c r="A325" s="2" t="s">
-        <v>1206</v>
+        <v>1195</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
       <c r="F325" s="11"/>
       <c r="G325" s="2" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="14.25">
       <c r="A326" s="2" t="s">
-        <v>1206</v>
+        <v>1195</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>1137</v>
+        <v>1126</v>
       </c>
       <c r="F326" s="11"/>
       <c r="G326" s="2" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="14.25">
       <c r="A327" s="2" t="s">
-        <v>1206</v>
+        <v>1195</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
       <c r="F327" s="11"/>
       <c r="G327" s="2" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="14.25">
@@ -12526,128 +12571,128 @@
     </row>
     <row r="329" spans="1:7" ht="14.25">
       <c r="A329" s="2" t="s">
-        <v>1207</v>
+        <v>1196</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
       <c r="F329" s="11"/>
       <c r="G329" s="2" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="14.25">
       <c r="A330" s="2" t="s">
-        <v>1207</v>
+        <v>1196</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
       <c r="F330" s="11"/>
       <c r="G330" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="14.25">
       <c r="A331" s="2" t="s">
-        <v>1207</v>
+        <v>1196</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
       <c r="F331" s="11"/>
       <c r="G331" s="2" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="14.25">
       <c r="A332" s="2" t="s">
-        <v>1207</v>
+        <v>1196</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>1142</v>
+        <v>1131</v>
       </c>
       <c r="F332" s="11"/>
       <c r="G332" s="2" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="14.25">
       <c r="A333" s="2" t="s">
-        <v>1207</v>
+        <v>1196</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>1143</v>
+        <v>1132</v>
       </c>
       <c r="F333" s="11"/>
       <c r="G333" s="2" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="14.25">
       <c r="A334" s="2" t="s">
-        <v>1207</v>
+        <v>1196</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>1144</v>
+        <v>1133</v>
       </c>
       <c r="F334" s="11"/>
       <c r="G334" s="2" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="14.25">
@@ -12661,128 +12706,128 @@
     </row>
     <row r="336" spans="1:7" ht="14.25">
       <c r="A336" s="2" t="s">
-        <v>1208</v>
+        <v>1197</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>1145</v>
+        <v>1134</v>
       </c>
       <c r="F336" s="11"/>
       <c r="G336" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="14.25">
       <c r="A337" s="2" t="s">
-        <v>1208</v>
+        <v>1197</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>1146</v>
+        <v>1135</v>
       </c>
       <c r="F337" s="11"/>
       <c r="G337" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="14.25">
       <c r="A338" s="2" t="s">
-        <v>1208</v>
+        <v>1197</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
       <c r="F338" s="11"/>
       <c r="G338" s="2" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="14.25">
       <c r="A339" s="2" t="s">
-        <v>1208</v>
+        <v>1197</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>1148</v>
+        <v>1137</v>
       </c>
       <c r="F339" s="11"/>
       <c r="G339" s="2" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="14.25">
       <c r="A340" s="2" t="s">
-        <v>1208</v>
+        <v>1197</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>1149</v>
+        <v>1138</v>
       </c>
       <c r="F340" s="11"/>
       <c r="G340" s="2" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="14.25">
       <c r="A341" s="2" t="s">
-        <v>1208</v>
+        <v>1197</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="F341" s="11"/>
       <c r="G341" s="2" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="14.25">
@@ -12796,128 +12841,128 @@
     </row>
     <row r="343" spans="1:7" ht="14.25">
       <c r="A343" s="2" t="s">
-        <v>1209</v>
+        <v>1198</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>1150</v>
+        <v>1139</v>
       </c>
       <c r="F343" s="11"/>
       <c r="G343" s="2" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="14.25">
       <c r="A344" s="2" t="s">
-        <v>1209</v>
+        <v>1198</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>1151</v>
+        <v>1140</v>
       </c>
       <c r="F344" s="11"/>
       <c r="G344" s="2" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="14.25">
       <c r="A345" s="2" t="s">
-        <v>1209</v>
+        <v>1198</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="F345" s="11"/>
       <c r="G345" s="2" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="14.25">
       <c r="A346" s="2" t="s">
-        <v>1209</v>
+        <v>1198</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>1153</v>
+        <v>1142</v>
       </c>
       <c r="F346" s="11"/>
       <c r="G346" s="2" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="14.25">
       <c r="A347" s="2" t="s">
-        <v>1209</v>
+        <v>1198</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="D347" s="17" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>1154</v>
+        <v>1143</v>
       </c>
       <c r="F347" s="11"/>
       <c r="G347" s="2" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="348" spans="1:7" ht="14.25">
       <c r="A348" s="2" t="s">
-        <v>1209</v>
+        <v>1198</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>1155</v>
+        <v>1144</v>
       </c>
       <c r="F348" s="11"/>
       <c r="G348" s="2" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="14.25">
@@ -12931,128 +12976,128 @@
     </row>
     <row r="350" spans="1:7" ht="14.25">
       <c r="A350" s="2" t="s">
-        <v>1210</v>
+        <v>1199</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>1156</v>
+        <v>1145</v>
       </c>
       <c r="F350" s="11"/>
       <c r="G350" s="2" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="14.25">
       <c r="A351" s="2" t="s">
-        <v>1210</v>
+        <v>1199</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>1157</v>
+        <v>1146</v>
       </c>
       <c r="F351" s="11"/>
       <c r="G351" s="2" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="14.25">
       <c r="A352" s="2" t="s">
-        <v>1210</v>
+        <v>1199</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>1158</v>
+        <v>1147</v>
       </c>
       <c r="F352" s="11"/>
       <c r="G352" s="2" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="14.25">
       <c r="A353" s="2" t="s">
-        <v>1210</v>
+        <v>1199</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
       <c r="F353" s="11"/>
       <c r="G353" s="2" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="14.25">
       <c r="A354" s="2" t="s">
-        <v>1210</v>
+        <v>1199</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="D354" s="17" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="F354" s="11"/>
       <c r="G354" s="2" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="14.25">
       <c r="A355" s="2" t="s">
-        <v>1210</v>
+        <v>1199</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>1161</v>
+        <v>1150</v>
       </c>
       <c r="F355" s="11"/>
       <c r="G355" s="2" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="14.25">
@@ -13066,116 +13111,116 @@
     </row>
     <row r="357" spans="1:7" ht="14.25">
       <c r="A357" s="2" t="s">
-        <v>1211</v>
+        <v>1200</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="D357" s="16" t="s">
-        <v>1162</v>
+        <v>1151</v>
       </c>
       <c r="E357" s="11"/>
       <c r="F357" s="11"/>
       <c r="G357" s="2" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="14.25">
       <c r="A358" s="2" t="s">
-        <v>1211</v>
+        <v>1200</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="D358" s="16" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="E358" s="11"/>
       <c r="F358" s="11"/>
       <c r="G358" s="2" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="14.25">
       <c r="A359" s="2" t="s">
-        <v>1211</v>
+        <v>1200</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="D359" s="16" t="s">
-        <v>1163</v>
+        <v>1152</v>
       </c>
       <c r="E359" s="11"/>
       <c r="F359" s="11"/>
       <c r="G359" s="2" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="16.5">
       <c r="A360" s="2" t="s">
-        <v>1211</v>
+        <v>1200</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="D360" s="16" t="s">
-        <v>1164</v>
+        <v>1153</v>
       </c>
       <c r="E360" s="11"/>
       <c r="F360" s="11"/>
       <c r="G360" s="2" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="14.25">
       <c r="A361" s="2" t="s">
-        <v>1211</v>
+        <v>1200</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="D361" s="16" t="s">
-        <v>1165</v>
+        <v>1154</v>
       </c>
       <c r="E361" s="11"/>
       <c r="F361" s="11"/>
       <c r="G361" s="2" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="14.25">
       <c r="A362" s="2" t="s">
-        <v>1211</v>
+        <v>1200</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="D362" s="16" t="s">
-        <v>1166</v>
+        <v>1155</v>
       </c>
       <c r="E362" s="11"/>
       <c r="F362" s="11"/>
       <c r="G362" s="2" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="14.25">
@@ -13189,116 +13234,116 @@
     </row>
     <row r="364" spans="1:7" ht="14.25">
       <c r="A364" s="2" t="s">
-        <v>1212</v>
+        <v>1201</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="E364" s="14"/>
       <c r="F364" s="11"/>
       <c r="G364" s="2" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="14.25">
       <c r="A365" s="2" t="s">
-        <v>1212</v>
+        <v>1201</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="E365" s="14"/>
       <c r="F365" s="11"/>
       <c r="G365" s="2" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="14.25">
       <c r="A366" s="2" t="s">
-        <v>1212</v>
+        <v>1201</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="E366" s="14"/>
       <c r="F366" s="11"/>
       <c r="G366" s="2" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="14.25">
       <c r="A367" s="2" t="s">
-        <v>1212</v>
+        <v>1201</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="E367" s="14"/>
       <c r="F367" s="11"/>
       <c r="G367" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="14.25">
       <c r="A368" s="2" t="s">
-        <v>1212</v>
+        <v>1201</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="D368" s="17" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="E368" s="14"/>
       <c r="F368" s="11"/>
       <c r="G368" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="57">
       <c r="A369" s="2" t="s">
-        <v>1212</v>
+        <v>1201</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="E369" s="15"/>
       <c r="F369" s="11"/>
       <c r="G369" s="2" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="14.25">
@@ -13312,116 +13357,116 @@
     </row>
     <row r="371" spans="1:7" ht="14.25">
       <c r="A371" s="2" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="D371" s="17" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="E371" s="14"/>
       <c r="F371" s="11"/>
       <c r="G371" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="14.25">
       <c r="A372" s="2" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="D372" s="17" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="E372" s="14"/>
       <c r="F372" s="11"/>
       <c r="G372" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="14.25">
       <c r="A373" s="2" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="D373" s="17" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="E373" s="14"/>
       <c r="F373" s="11"/>
       <c r="G373" s="2" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="14.25">
       <c r="A374" s="2" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="D374" s="17" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="E374" s="14"/>
       <c r="F374" s="11"/>
       <c r="G374" s="2" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="14.25">
       <c r="A375" s="2" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="D375" s="17" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="E375" s="14"/>
       <c r="F375" s="11"/>
       <c r="G375" s="2" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="14.25">
       <c r="A376" s="2" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="D376" s="17" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="E376" s="14"/>
       <c r="F376" s="11"/>
       <c r="G376" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="377" spans="1:7" ht="14.25">
@@ -13435,128 +13480,128 @@
     </row>
     <row r="378" spans="1:7" ht="14.25">
       <c r="A378" s="2" t="s">
-        <v>1235</v>
+        <v>1224</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D378" s="5" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="E378" s="14"/>
       <c r="F378" s="5" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="14.25">
       <c r="A379" s="2" t="s">
-        <v>1235</v>
+        <v>1224</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="D379" s="5" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="E379" s="14"/>
       <c r="F379" s="5" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
     </row>
     <row r="380" spans="1:7" ht="14.25">
       <c r="A380" s="2" t="s">
-        <v>1235</v>
+        <v>1224</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="D380" s="5" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="E380" s="14"/>
       <c r="F380" s="5" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="14.25">
       <c r="A381" s="2" t="s">
-        <v>1235</v>
+        <v>1224</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D381" s="5" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="E381" s="14"/>
       <c r="F381" s="5" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="14.25">
       <c r="A382" s="2" t="s">
-        <v>1235</v>
+        <v>1224</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="D382" s="5" t="s">
-        <v>1336</v>
+        <v>1325</v>
       </c>
       <c r="E382" s="14"/>
       <c r="F382" s="5" t="s">
-        <v>1336</v>
+        <v>1325</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="14.25">
       <c r="A383" s="2" t="s">
-        <v>1235</v>
+        <v>1224</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="D383" s="17" t="s">
-        <v>1337</v>
+        <v>1326</v>
       </c>
       <c r="E383" s="14"/>
       <c r="F383" s="17" t="s">
-        <v>1337</v>
+        <v>1326</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="14.25">
@@ -13570,128 +13615,128 @@
     </row>
     <row r="385" spans="1:7" ht="14.25">
       <c r="A385" s="2" t="s">
-        <v>1236</v>
+        <v>1225</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="C385" s="19" t="s">
-        <v>1310</v>
+        <v>1299</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>1347</v>
+        <v>1336</v>
       </c>
       <c r="E385" s="11"/>
       <c r="F385" s="22" t="s">
-        <v>1311</v>
+        <v>1300</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>1168</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="386" spans="1:7" ht="14.25">
       <c r="A386" s="2" t="s">
-        <v>1236</v>
+        <v>1225</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C386" s="19" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>1346</v>
+        <v>1335</v>
       </c>
       <c r="E386" s="11"/>
       <c r="F386" s="22" t="s">
-        <v>1317</v>
+        <v>1306</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>1169</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="387" spans="1:7" ht="14.25">
       <c r="A387" s="2" t="s">
-        <v>1236</v>
+        <v>1225</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C387" s="19" t="s">
-        <v>1167</v>
+        <v>1156</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>1348</v>
+        <v>1337</v>
       </c>
       <c r="E387" s="11"/>
       <c r="F387" s="17" t="s">
-        <v>1313</v>
+        <v>1302</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>1170</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="388" spans="1:7" ht="14.25">
       <c r="A388" s="2" t="s">
-        <v>1236</v>
+        <v>1225</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C388" s="19" t="s">
-        <v>1316</v>
+        <v>1305</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>1349</v>
+        <v>1338</v>
       </c>
       <c r="E388" s="11"/>
       <c r="F388" s="22" t="s">
-        <v>1321</v>
+        <v>1310</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>1171</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="389" spans="1:7" ht="14.25">
       <c r="A389" s="2" t="s">
-        <v>1236</v>
+        <v>1225</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C389" s="19" t="s">
-        <v>1315</v>
+        <v>1304</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>1350</v>
+        <v>1339</v>
       </c>
       <c r="E389" s="11"/>
       <c r="F389" s="22" t="s">
-        <v>1320</v>
+        <v>1309</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>1172</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="14.25">
       <c r="A390" s="2" t="s">
-        <v>1236</v>
+        <v>1225</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="C390" s="19" t="s">
-        <v>1318</v>
+        <v>1307</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>1351</v>
+        <v>1340</v>
       </c>
       <c r="E390" s="13"/>
       <c r="F390" s="22" t="s">
-        <v>1319</v>
+        <v>1308</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="14.25">

--- a/章节标题.xlsx
+++ b/章节标题.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\魔禁相关\魔法禁书目录X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0140BCAB-2435-4DF8-8542-71D1DADFD079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06001447-02DA-43A8-959D-2F01009CCA3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="1215" windowWidth="22095" windowHeight="19950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1050" windowWidth="22095" windowHeight="19950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet10" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="1388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="1394">
   <si>
     <t>章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1274,37 +1274,19 @@
     <t>从泳装开始的驻校战</t>
   </si>
   <si>
-    <t>Melt_the_Asphalt.</t>
-  </si>
-  <si>
     <t>炎热中持续确保安全</t>
   </si>
   <si>
-    <t>Water_Hunt.</t>
-  </si>
-  <si>
     <t>与大小姐们进攻要塞</t>
   </si>
   <si>
-    <t>Tower_of_the_Crystal.</t>
-  </si>
-  <si>
     <t>宿敌之间的求助邀请</t>
   </si>
   <si>
-    <t>Double_Enemy.</t>
-  </si>
-  <si>
     <t>传导毁灭的形势急转</t>
   </si>
   <si>
-    <t>Operation_Right_Hand.</t>
-  </si>
-  <si>
     <t>超越灾厄的模范答案</t>
-  </si>
-  <si>
-    <t>Nightmare_by_Lost_Boy.</t>
   </si>
   <si>
     <t>或者说包括结论的前提</t>
@@ -4982,6 +4964,54 @@
   </si>
   <si>
     <t>对峙，或是崭新的日子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>始于泳装的学校守城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melt_the_Asphalt.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎热之下的安全确保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water_Hunt.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower_of_the_Crystal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double_Enemy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传导毁灭的形势急转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation_Right_Hand.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超越灾厄的模范解答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nightmare_by_Lost_Boy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千金同行的据点攻略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化敌为友的协力要求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5821,8 +5851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="G320" sqref="G320"/>
+    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
+      <selection activeCell="G327" sqref="G327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5839,22 +5869,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25">
       <c r="A1" s="2" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>1</v>
@@ -5862,20 +5892,20 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
@@ -5883,13 +5913,13 @@
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="2" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17" t="s">
@@ -5904,13 +5934,13 @@
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="2" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17" t="s">
@@ -5920,18 +5950,18 @@
         <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17" t="s">
@@ -5946,13 +5976,13 @@
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17" t="s">
@@ -5967,13 +5997,13 @@
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
@@ -5997,13 +6027,13 @@
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="2" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
@@ -6018,13 +6048,13 @@
     </row>
     <row r="10" spans="1:7" ht="14.25">
       <c r="A10" s="2" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17" t="s">
@@ -6039,13 +6069,13 @@
     </row>
     <row r="11" spans="1:7" ht="14.25">
       <c r="A11" s="2" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17" t="s">
@@ -6060,13 +6090,13 @@
     </row>
     <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="2" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17" t="s">
@@ -6081,13 +6111,13 @@
     </row>
     <row r="13" spans="1:7" ht="14.25">
       <c r="A13" s="2" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17" t="s">
@@ -6102,13 +6132,13 @@
     </row>
     <row r="14" spans="1:7" ht="14.25">
       <c r="A14" s="2" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17" t="s">
@@ -6132,13 +6162,13 @@
     </row>
     <row r="16" spans="1:7" ht="14.25">
       <c r="A16" s="2" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17" t="s">
@@ -6153,13 +6183,13 @@
     </row>
     <row r="17" spans="1:7" ht="14.25">
       <c r="A17" s="2" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
@@ -6174,13 +6204,13 @@
     </row>
     <row r="18" spans="1:7" ht="14.25">
       <c r="A18" s="2" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17" t="s">
@@ -6195,13 +6225,13 @@
     </row>
     <row r="19" spans="1:7" ht="14.25">
       <c r="A19" s="2" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17" t="s">
@@ -6216,13 +6246,13 @@
     </row>
     <row r="20" spans="1:7" ht="14.25">
       <c r="A20" s="2" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17" t="s">
@@ -6237,13 +6267,13 @@
     </row>
     <row r="21" spans="1:7" ht="14.25">
       <c r="A21" s="2" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
@@ -6267,13 +6297,13 @@
     </row>
     <row r="23" spans="1:7" ht="14.25">
       <c r="A23" s="2" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17" t="s">
@@ -6286,13 +6316,13 @@
     </row>
     <row r="24" spans="1:7" ht="14.25">
       <c r="A24" s="2" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17" t="s">
@@ -6305,13 +6335,13 @@
     </row>
     <row r="25" spans="1:7" ht="14.25">
       <c r="A25" s="2" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
@@ -6324,13 +6354,13 @@
     </row>
     <row r="26" spans="1:7" ht="14.25">
       <c r="A26" s="2" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
@@ -6343,13 +6373,13 @@
     </row>
     <row r="27" spans="1:7" ht="14.25">
       <c r="A27" s="2" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
@@ -6362,13 +6392,13 @@
     </row>
     <row r="28" spans="1:7" ht="14.25">
       <c r="A28" s="2" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
@@ -6390,13 +6420,13 @@
     </row>
     <row r="30" spans="1:7" ht="14.25">
       <c r="A30" s="2" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17" t="s">
@@ -6411,20 +6441,20 @@
     </row>
     <row r="31" spans="1:7" ht="14.25">
       <c r="A31" s="2" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17" t="s">
         <v>48</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>49</v>
@@ -6432,20 +6462,20 @@
     </row>
     <row r="32" spans="1:7" ht="14.25">
       <c r="A32" s="2" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>51</v>
@@ -6453,20 +6483,20 @@
     </row>
     <row r="33" spans="1:7" ht="14.25">
       <c r="A33" s="2" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>53</v>
@@ -6474,20 +6504,20 @@
     </row>
     <row r="34" spans="1:7" ht="14.25">
       <c r="A34" s="2" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>55</v>
@@ -6495,13 +6525,13 @@
     </row>
     <row r="35" spans="1:7" ht="14.25">
       <c r="A35" s="2" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17" t="s">
@@ -6525,39 +6555,39 @@
     </row>
     <row r="37" spans="1:7" ht="14.25">
       <c r="A37" s="2" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" ht="14.25">
       <c r="A38" s="2" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>59</v>
@@ -6565,13 +6595,13 @@
     </row>
     <row r="39" spans="1:7" ht="14.25">
       <c r="A39" s="2" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="17" t="s">
@@ -6586,13 +6616,13 @@
     </row>
     <row r="40" spans="1:7" ht="14.25">
       <c r="A40" s="2" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="17" t="s">
@@ -6607,13 +6637,13 @@
     </row>
     <row r="41" spans="1:7" ht="14.25">
       <c r="A41" s="2" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17" t="s">
@@ -6628,20 +6658,20 @@
     </row>
     <row r="42" spans="1:7" ht="14.25">
       <c r="A42" s="2" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="G42" s="2"/>
     </row>
@@ -6656,13 +6686,13 @@
     </row>
     <row r="44" spans="1:7" ht="14.25">
       <c r="A44" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17" t="s">
@@ -6677,13 +6707,13 @@
     </row>
     <row r="45" spans="1:7" ht="14.25">
       <c r="A45" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17" t="s">
@@ -6698,13 +6728,13 @@
     </row>
     <row r="46" spans="1:7" ht="14.25">
       <c r="A46" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17" t="s">
@@ -6719,13 +6749,13 @@
     </row>
     <row r="47" spans="1:7" ht="14.25">
       <c r="A47" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17" t="s">
@@ -6740,20 +6770,20 @@
     </row>
     <row r="48" spans="1:7" ht="14.25">
       <c r="A48" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>75</v>
@@ -6761,13 +6791,13 @@
     </row>
     <row r="49" spans="1:7" ht="14.25">
       <c r="A49" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17" t="s">
@@ -6791,20 +6821,20 @@
     </row>
     <row r="51" spans="1:7" ht="14.25">
       <c r="A51" s="2" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17" t="s">
         <v>78</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>79</v>
@@ -6812,20 +6842,20 @@
     </row>
     <row r="52" spans="1:7" ht="14.25">
       <c r="A52" s="2" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>81</v>
@@ -6833,20 +6863,20 @@
     </row>
     <row r="53" spans="1:7" ht="14.25">
       <c r="A53" s="2" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>83</v>
@@ -6854,41 +6884,41 @@
     </row>
     <row r="54" spans="1:7" ht="14.25">
       <c r="A54" s="2" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.25">
       <c r="A55" s="2" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>86</v>
@@ -6896,13 +6926,13 @@
     </row>
     <row r="56" spans="1:7" ht="14.25">
       <c r="A56" s="2" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="2" t="s">
@@ -6926,20 +6956,20 @@
     </row>
     <row r="58" spans="1:7" ht="14.25">
       <c r="A58" s="2" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>90</v>
@@ -6947,20 +6977,20 @@
     </row>
     <row r="59" spans="1:7" ht="14.25">
       <c r="A59" s="2" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>92</v>
@@ -6968,20 +6998,20 @@
     </row>
     <row r="60" spans="1:7" ht="14.25">
       <c r="A60" s="2" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>94</v>
@@ -6989,20 +7019,20 @@
     </row>
     <row r="61" spans="1:7" ht="14.25">
       <c r="A61" s="2" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="2" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>95</v>
@@ -7010,20 +7040,20 @@
     </row>
     <row r="62" spans="1:7" ht="14.25">
       <c r="A62" s="2" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>97</v>
@@ -7031,22 +7061,22 @@
     </row>
     <row r="63" spans="1:7" ht="14.25">
       <c r="A63" s="2" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>100</v>
@@ -7054,20 +7084,20 @@
     </row>
     <row r="64" spans="1:7" ht="14.25">
       <c r="A64" s="2" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>103</v>
@@ -7075,20 +7105,20 @@
     </row>
     <row r="65" spans="1:7" ht="14.25">
       <c r="A65" s="2" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>106</v>
@@ -7096,20 +7126,20 @@
     </row>
     <row r="66" spans="1:7" ht="14.25">
       <c r="A66" s="2" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>109</v>
@@ -7117,20 +7147,20 @@
     </row>
     <row r="67" spans="1:7" ht="14.25">
       <c r="A67" s="2" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>111</v>
@@ -7147,20 +7177,20 @@
     </row>
     <row r="69" spans="1:7" ht="14.25">
       <c r="A69" s="2" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="17" t="s">
         <v>112</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>113</v>
@@ -7168,20 +7198,20 @@
     </row>
     <row r="70" spans="1:7" ht="14.25">
       <c r="A70" s="2" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>115</v>
@@ -7189,20 +7219,20 @@
     </row>
     <row r="71" spans="1:7" ht="14.25">
       <c r="A71" s="2" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>117</v>
@@ -7210,22 +7240,22 @@
     </row>
     <row r="72" spans="1:7" ht="14.25">
       <c r="A72" s="2" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>119</v>
@@ -7233,20 +7263,20 @@
     </row>
     <row r="73" spans="1:7" ht="14.25">
       <c r="A73" s="2" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="2" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>120</v>
@@ -7254,20 +7284,20 @@
     </row>
     <row r="74" spans="1:7" ht="14.25">
       <c r="A74" s="2" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>122</v>
@@ -7275,20 +7305,20 @@
     </row>
     <row r="75" spans="1:7" ht="14.25">
       <c r="A75" s="2" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="2" t="s">
         <v>123</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>124</v>
@@ -7305,13 +7335,13 @@
     </row>
     <row r="77" spans="1:7" ht="14.25">
       <c r="A77" s="2" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="2" t="s">
@@ -7326,20 +7356,20 @@
     </row>
     <row r="78" spans="1:7" ht="14.25">
       <c r="A78" s="2" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>128</v>
@@ -7347,20 +7377,20 @@
     </row>
     <row r="79" spans="1:7" ht="14.25">
       <c r="A79" s="2" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>130</v>
@@ -7368,20 +7398,20 @@
     </row>
     <row r="80" spans="1:7" ht="14.25">
       <c r="A80" s="2" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>132</v>
@@ -7389,20 +7419,20 @@
     </row>
     <row r="81" spans="1:7" ht="14.25">
       <c r="A81" s="2" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>134</v>
@@ -7410,20 +7440,20 @@
     </row>
     <row r="82" spans="1:7" ht="14.25">
       <c r="A82" s="2" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="2" t="s">
         <v>135</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>136</v>
@@ -7431,20 +7461,20 @@
     </row>
     <row r="83" spans="1:7" ht="14.25">
       <c r="A83" s="2" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="2" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>137</v>
@@ -7452,20 +7482,20 @@
     </row>
     <row r="84" spans="1:7" ht="14.25">
       <c r="A84" s="2" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="2" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>138</v>
@@ -7473,13 +7503,13 @@
     </row>
     <row r="85" spans="1:7" ht="14.25">
       <c r="A85" s="2" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="2" t="s">
@@ -7494,20 +7524,20 @@
     </row>
     <row r="86" spans="1:7" ht="14.25">
       <c r="A86" s="2" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="2" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>142</v>
@@ -7515,20 +7545,20 @@
     </row>
     <row r="87" spans="1:7" ht="14.25">
       <c r="A87" s="2" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="2" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>144</v>
@@ -7536,23 +7566,23 @@
     </row>
     <row r="88" spans="1:7" ht="14.25">
       <c r="A88" s="2" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="2" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="14.25">
@@ -7566,22 +7596,22 @@
     </row>
     <row r="90" spans="1:7" ht="14.25">
       <c r="A90" s="2" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>146</v>
@@ -7589,22 +7619,22 @@
     </row>
     <row r="91" spans="1:7" ht="14.25">
       <c r="A91" s="2" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>148</v>
@@ -7612,22 +7642,22 @@
     </row>
     <row r="92" spans="1:7" ht="14.25">
       <c r="A92" s="2" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>150</v>
@@ -7635,13 +7665,13 @@
     </row>
     <row r="93" spans="1:7" ht="14.25">
       <c r="A93" s="2" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>151</v>
@@ -7650,7 +7680,7 @@
         <v>151</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>152</v>
@@ -7658,22 +7688,22 @@
     </row>
     <row r="94" spans="1:7" ht="14.25">
       <c r="A94" s="2" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>154</v>
@@ -7681,22 +7711,22 @@
     </row>
     <row r="95" spans="1:7" ht="14.25">
       <c r="A95" s="2" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>155</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>156</v>
@@ -7713,20 +7743,20 @@
     </row>
     <row r="97" spans="1:7" ht="14.25">
       <c r="A97" s="2" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="2" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>157</v>
@@ -7734,20 +7764,20 @@
     </row>
     <row r="98" spans="1:7" ht="14.25">
       <c r="A98" s="2" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="2" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>158</v>
@@ -7755,20 +7785,20 @@
     </row>
     <row r="99" spans="1:7" ht="14.25">
       <c r="A99" s="2" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="2" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>159</v>
@@ -7776,20 +7806,20 @@
     </row>
     <row r="100" spans="1:7" ht="14.25">
       <c r="A100" s="2" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="2" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>160</v>
@@ -7797,20 +7827,20 @@
     </row>
     <row r="101" spans="1:7" ht="14.25">
       <c r="A101" s="2" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="2" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>161</v>
@@ -7818,20 +7848,20 @@
     </row>
     <row r="102" spans="1:7" ht="14.25">
       <c r="A102" s="2" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="2" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>162</v>
@@ -7848,20 +7878,20 @@
     </row>
     <row r="104" spans="1:7" ht="14.25">
       <c r="A104" s="2" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="2" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>163</v>
@@ -7869,20 +7899,20 @@
     </row>
     <row r="105" spans="1:7" ht="14.25">
       <c r="A105" s="2" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="2" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>164</v>
@@ -7890,20 +7920,20 @@
     </row>
     <row r="106" spans="1:7" ht="14.25">
       <c r="A106" s="2" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D106" s="17"/>
       <c r="E106" s="2" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>165</v>
@@ -7911,20 +7941,20 @@
     </row>
     <row r="107" spans="1:7" ht="14.25">
       <c r="A107" s="2" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="2" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>166</v>
@@ -7932,20 +7962,20 @@
     </row>
     <row r="108" spans="1:7" ht="14.25">
       <c r="A108" s="2" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="D108" s="17"/>
       <c r="E108" s="2" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>167</v>
@@ -7953,20 +7983,20 @@
     </row>
     <row r="109" spans="1:7" ht="14.25">
       <c r="A109" s="2" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="2" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>168</v>
@@ -7974,20 +8004,20 @@
     </row>
     <row r="110" spans="1:7" ht="14.25">
       <c r="A110" s="2" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D110" s="17"/>
       <c r="E110" s="2" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>169</v>
@@ -8004,20 +8034,20 @@
     </row>
     <row r="112" spans="1:7" ht="14.25">
       <c r="A112" s="2" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D112" s="17"/>
       <c r="E112" s="2" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>170</v>
@@ -8025,20 +8055,20 @@
     </row>
     <row r="113" spans="1:7" ht="14.25">
       <c r="A113" s="2" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="2" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>171</v>
@@ -8046,20 +8076,20 @@
     </row>
     <row r="114" spans="1:7" ht="14.25">
       <c r="A114" s="2" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D114" s="17"/>
       <c r="E114" s="2" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>172</v>
@@ -8067,20 +8097,20 @@
     </row>
     <row r="115" spans="1:7" ht="14.25">
       <c r="A115" s="2" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="2" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>173</v>
@@ -8088,20 +8118,20 @@
     </row>
     <row r="116" spans="1:7" ht="14.25">
       <c r="A116" s="2" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="2" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>174</v>
@@ -8109,20 +8139,20 @@
     </row>
     <row r="117" spans="1:7" ht="14.25">
       <c r="A117" s="2" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="2" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>175</v>
@@ -8139,22 +8169,22 @@
     </row>
     <row r="119" spans="1:7" ht="14.25">
       <c r="A119" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>176</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>177</v>
@@ -8162,22 +8192,22 @@
     </row>
     <row r="120" spans="1:7" ht="14.25">
       <c r="A120" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>178</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>179</v>
@@ -8185,22 +8215,22 @@
     </row>
     <row r="121" spans="1:7" ht="14.25">
       <c r="A121" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>180</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>181</v>
@@ -8208,22 +8238,22 @@
     </row>
     <row r="122" spans="1:7" ht="14.25">
       <c r="A122" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>182</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>183</v>
@@ -8231,22 +8261,22 @@
     </row>
     <row r="123" spans="1:7" ht="14.25">
       <c r="A123" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>185</v>
@@ -8254,22 +8284,22 @@
     </row>
     <row r="124" spans="1:7" ht="14.25">
       <c r="A124" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>186</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>187</v>
@@ -8277,22 +8307,22 @@
     </row>
     <row r="125" spans="1:7" ht="14.25">
       <c r="A125" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>188</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>189</v>
@@ -8300,13 +8330,13 @@
     </row>
     <row r="126" spans="1:7" ht="14.25">
       <c r="A126" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>190</v>
@@ -8315,7 +8345,7 @@
         <v>190</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>191</v>
@@ -8323,22 +8353,22 @@
     </row>
     <row r="127" spans="1:7" ht="14.25">
       <c r="A127" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>192</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>193</v>
@@ -8346,22 +8376,22 @@
     </row>
     <row r="128" spans="1:7" ht="14.25">
       <c r="A128" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>194</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>195</v>
@@ -8369,22 +8399,22 @@
     </row>
     <row r="129" spans="1:7" ht="14.25">
       <c r="A129" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>198</v>
@@ -8392,22 +8422,22 @@
     </row>
     <row r="130" spans="1:7" ht="14.25">
       <c r="A130" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>200</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>201</v>
@@ -8415,22 +8445,22 @@
     </row>
     <row r="131" spans="1:7" ht="14.25">
       <c r="A131" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>203</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>204</v>
@@ -8438,22 +8468,22 @@
     </row>
     <row r="132" spans="1:7" ht="14.25">
       <c r="A132" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>206</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>207</v>
@@ -8461,22 +8491,22 @@
     </row>
     <row r="133" spans="1:7" ht="14.25">
       <c r="A133" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>209</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>210</v>
@@ -8484,22 +8514,22 @@
     </row>
     <row r="134" spans="1:7" ht="14.25">
       <c r="A134" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>212</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>213</v>
@@ -8507,22 +8537,22 @@
     </row>
     <row r="135" spans="1:7" ht="14.25">
       <c r="A135" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>215</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>216</v>
@@ -8530,22 +8560,22 @@
     </row>
     <row r="136" spans="1:7" ht="14.25">
       <c r="A136" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>216</v>
@@ -8553,22 +8583,22 @@
     </row>
     <row r="137" spans="1:7" ht="14.25">
       <c r="A137" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>220</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>221</v>
@@ -8576,22 +8606,22 @@
     </row>
     <row r="138" spans="1:7" ht="14.25">
       <c r="A138" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>221</v>
@@ -8599,22 +8629,22 @@
     </row>
     <row r="139" spans="1:7" ht="14.25">
       <c r="A139" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>221</v>
@@ -8622,22 +8652,22 @@
     </row>
     <row r="140" spans="1:7" ht="14.25">
       <c r="A140" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>226</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>221</v>
@@ -8654,229 +8684,229 @@
     </row>
     <row r="142" spans="1:7" ht="14.25">
       <c r="A142" s="2" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D142" s="17" t="s">
         <v>227</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="14.25">
       <c r="A143" s="2" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>228</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="14.25">
       <c r="A144" s="2" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>229</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="F144" s="16" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="14.25">
       <c r="A145" s="2" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D145" s="17" t="s">
         <v>230</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="14.25">
       <c r="A146" s="2" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>231</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="F146" s="21" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="14.25">
       <c r="A147" s="2" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="14.25">
       <c r="A148" s="2" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>232</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>232</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="14.25">
       <c r="A149" s="2" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>233</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="14.25">
       <c r="A150" s="2" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D150" s="17" t="s">
         <v>234</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="14.25">
       <c r="A151" s="2" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D151" s="17" t="s">
         <v>235</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>236</v>
@@ -8893,105 +8923,105 @@
     </row>
     <row r="153" spans="1:7" ht="14.25">
       <c r="A153" s="2" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>237</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="14.25">
       <c r="A154" s="2" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>238</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="14.25">
       <c r="A155" s="2" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>239</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="14.25">
       <c r="A156" s="2" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>240</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="14.25">
       <c r="A157" s="2" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>241</v>
@@ -9000,33 +9030,33 @@
         <v>241</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="14.25">
       <c r="A158" s="2" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>242</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="14.25">
@@ -9040,22 +9070,22 @@
     </row>
     <row r="160" spans="1:7" ht="14.25">
       <c r="A160" s="2" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>243</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="F160" s="17" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>244</v>
@@ -9063,22 +9093,22 @@
     </row>
     <row r="161" spans="1:7" ht="14.25">
       <c r="A161" s="2" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>245</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="F161" s="17" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>246</v>
@@ -9086,22 +9116,22 @@
     </row>
     <row r="162" spans="1:7" ht="14.25">
       <c r="A162" s="2" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>247</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F162" s="17" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>248</v>
@@ -9109,22 +9139,22 @@
     </row>
     <row r="163" spans="1:7" ht="14.25">
       <c r="A163" s="2" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>250</v>
@@ -9132,22 +9162,22 @@
     </row>
     <row r="164" spans="1:7" ht="14.25">
       <c r="A164" s="2" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>251</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>252</v>
@@ -9155,13 +9185,13 @@
     </row>
     <row r="165" spans="1:7" ht="14.25">
       <c r="A165" s="2" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D165" s="17" t="s">
         <v>253</v>
@@ -9178,19 +9208,19 @@
     </row>
     <row r="166" spans="1:7" ht="14.25">
       <c r="A166" s="2" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D166" s="17" t="s">
         <v>255</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="F166" s="17" t="s">
         <v>255</v>
@@ -9201,19 +9231,19 @@
     </row>
     <row r="167" spans="1:7" ht="14.25">
       <c r="A167" s="2" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="D167" s="17" t="s">
         <v>257</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="F167" s="17" t="s">
         <v>257</v>
@@ -9224,19 +9254,19 @@
     </row>
     <row r="168" spans="1:7" ht="14.25">
       <c r="A168" s="2" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D168" s="17" t="s">
         <v>259</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="F168" s="17" t="s">
         <v>259</v>
@@ -9247,19 +9277,19 @@
     </row>
     <row r="169" spans="1:7" ht="14.25">
       <c r="A169" s="2" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D169" s="17" t="s">
         <v>261</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="F169" s="17" t="s">
         <v>261</v>
@@ -9270,19 +9300,19 @@
     </row>
     <row r="170" spans="1:7" ht="14.25">
       <c r="A170" s="2" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D170" s="17" t="s">
         <v>263</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="F170" s="17" t="s">
         <v>263</v>
@@ -9293,19 +9323,19 @@
     </row>
     <row r="171" spans="1:7" ht="14.25">
       <c r="A171" s="2" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="D171" s="17" t="s">
         <v>265</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="F171" s="17" t="s">
         <v>265</v>
@@ -9316,19 +9346,19 @@
     </row>
     <row r="172" spans="1:7" ht="14.25">
       <c r="A172" s="2" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="D172" s="17" t="s">
         <v>267</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="F172" s="17" t="s">
         <v>267</v>
@@ -9339,19 +9369,19 @@
     </row>
     <row r="173" spans="1:7" ht="14.25">
       <c r="A173" s="2" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="D173" s="17" t="s">
         <v>269</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="F173" s="17" t="s">
         <v>269</v>
@@ -9371,22 +9401,22 @@
     </row>
     <row r="175" spans="1:7" ht="14.25">
       <c r="A175" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D175" s="17" t="s">
         <v>271</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>272</v>
@@ -9394,22 +9424,22 @@
     </row>
     <row r="176" spans="1:7" ht="14.25">
       <c r="A176" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="F176" s="18" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>273</v>
@@ -9417,22 +9447,22 @@
     </row>
     <row r="177" spans="1:7" ht="14.25">
       <c r="A177" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D177" s="17" t="s">
         <v>274</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>275</v>
@@ -9440,22 +9470,22 @@
     </row>
     <row r="178" spans="1:7" ht="14.25">
       <c r="A178" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>276</v>
@@ -9463,13 +9493,13 @@
     </row>
     <row r="179" spans="1:7" ht="14.25">
       <c r="A179" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D179" s="17" t="s">
         <v>277</v>
@@ -9478,7 +9508,7 @@
         <v>277</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>278</v>
@@ -9486,22 +9516,22 @@
     </row>
     <row r="180" spans="1:7" ht="14.25">
       <c r="A180" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>279</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>280</v>
@@ -9509,22 +9539,22 @@
     </row>
     <row r="181" spans="1:7" ht="14.25">
       <c r="A181" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="D181" s="17" t="s">
         <v>281</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>282</v>
@@ -9541,19 +9571,19 @@
     </row>
     <row r="183" spans="1:7" ht="14.25">
       <c r="A183" s="2" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="F183" s="17" t="s">
         <v>283</v>
@@ -9564,22 +9594,22 @@
     </row>
     <row r="184" spans="1:7" ht="14.25">
       <c r="A184" s="2" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>285</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="F184" s="17" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>286</v>
@@ -9587,22 +9617,22 @@
     </row>
     <row r="185" spans="1:7" ht="14.25">
       <c r="A185" s="2" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>287</v>
@@ -9610,22 +9640,22 @@
     </row>
     <row r="186" spans="1:7" ht="14.25">
       <c r="A186" s="2" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="D186" s="17" t="s">
         <v>288</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="F186" s="18" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>289</v>
@@ -9633,45 +9663,45 @@
     </row>
     <row r="187" spans="1:7" ht="14.25">
       <c r="A187" s="2" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D187" s="17" t="s">
         <v>290</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="F187" s="18" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="14.25">
       <c r="A188" s="2" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>291</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="F188" s="17" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>292</v>
@@ -9688,59 +9718,59 @@
     </row>
     <row r="190" spans="1:7" ht="14.25">
       <c r="A190" s="2" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>293</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="F190" s="17" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="14.25">
       <c r="A191" s="2" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="14.25">
       <c r="A192" s="2" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>294</v>
@@ -9749,102 +9779,102 @@
         <v>294</v>
       </c>
       <c r="F192" s="17" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="14.25">
       <c r="A193" s="2" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D193" s="17" t="s">
         <v>295</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="F193" s="17" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="14.25">
       <c r="A194" s="2" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>296</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="F194" s="17" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="14.25">
       <c r="A195" s="2" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>297</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="F195" s="17" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="14.25">
       <c r="A196" s="2" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="14.25">
@@ -9858,26 +9888,26 @@
     </row>
     <row r="198" spans="1:7" ht="14.25">
       <c r="A198" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2" t="s">
         <v>298</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E198" s="17" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F198" s="17" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="G198" s="2"/>
     </row>
     <row r="199" spans="1:7" ht="14.25">
       <c r="A199" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
@@ -9896,7 +9926,7 @@
     </row>
     <row r="200" spans="1:7" ht="14.25">
       <c r="A200" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="2" t="s">
@@ -9915,7 +9945,7 @@
     </row>
     <row r="201" spans="1:7" ht="14.25">
       <c r="A201" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="2" t="s">
@@ -9934,7 +9964,7 @@
     </row>
     <row r="202" spans="1:7" ht="14.25">
       <c r="A202" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2" t="s">
@@ -9953,7 +9983,7 @@
     </row>
     <row r="203" spans="1:7" ht="14.25">
       <c r="A203" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2" t="s">
@@ -9972,7 +10002,7 @@
     </row>
     <row r="204" spans="1:7" ht="14.25">
       <c r="A204" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2" t="s">
@@ -9991,7 +10021,7 @@
     </row>
     <row r="205" spans="1:7" ht="14.25">
       <c r="A205" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2" t="s">
@@ -10010,7 +10040,7 @@
     </row>
     <row r="206" spans="1:7" ht="14.25">
       <c r="A206" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" s="2" t="s">
@@ -10029,7 +10059,7 @@
     </row>
     <row r="207" spans="1:7" ht="14.25">
       <c r="A207" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" s="2" t="s">
@@ -10048,7 +10078,7 @@
     </row>
     <row r="208" spans="1:7" ht="14.25">
       <c r="A208" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="2" t="s">
@@ -10067,7 +10097,7 @@
     </row>
     <row r="209" spans="1:7" ht="14.25">
       <c r="A209" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" s="2" t="s">
@@ -10086,7 +10116,7 @@
     </row>
     <row r="210" spans="1:7" ht="14.25">
       <c r="A210" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" s="2" t="s">
@@ -10105,7 +10135,7 @@
     </row>
     <row r="211" spans="1:7" ht="14.25">
       <c r="A211" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="2" t="s">
@@ -10124,7 +10154,7 @@
     </row>
     <row r="212" spans="1:7" ht="14.25">
       <c r="A212" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2" t="s">
@@ -10143,7 +10173,7 @@
     </row>
     <row r="213" spans="1:7" ht="14.25">
       <c r="A213" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2" t="s">
@@ -10162,7 +10192,7 @@
     </row>
     <row r="214" spans="1:7" ht="14.25">
       <c r="A214" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2" t="s">
@@ -10181,7 +10211,7 @@
     </row>
     <row r="215" spans="1:7" ht="14.25">
       <c r="A215" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="2" t="s">
@@ -10200,7 +10230,7 @@
     </row>
     <row r="216" spans="1:7" ht="14.25">
       <c r="A216" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="2" t="s">
@@ -10219,7 +10249,7 @@
     </row>
     <row r="217" spans="1:7" ht="14.25">
       <c r="A217" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" s="2" t="s">
@@ -10238,7 +10268,7 @@
     </row>
     <row r="218" spans="1:7" ht="14.25">
       <c r="A218" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="2" t="s">
@@ -10257,7 +10287,7 @@
     </row>
     <row r="219" spans="1:7" ht="14.25">
       <c r="A219" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="2" t="s">
@@ -10276,7 +10306,7 @@
     </row>
     <row r="220" spans="1:7" ht="14.25">
       <c r="A220" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="2" t="s">
@@ -10295,7 +10325,7 @@
     </row>
     <row r="221" spans="1:7" ht="14.25">
       <c r="A221" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" s="2" t="s">
@@ -10314,7 +10344,7 @@
     </row>
     <row r="222" spans="1:7" ht="14.25">
       <c r="A222" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" s="2" t="s">
@@ -10333,7 +10363,7 @@
     </row>
     <row r="223" spans="1:7" ht="14.25">
       <c r="A223" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="2" t="s">
@@ -10352,7 +10382,7 @@
     </row>
     <row r="224" spans="1:7" ht="14.25">
       <c r="A224" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="2" t="s">
@@ -10371,7 +10401,7 @@
     </row>
     <row r="225" spans="1:7" ht="14.25">
       <c r="A225" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" s="2" t="s">
@@ -10390,7 +10420,7 @@
     </row>
     <row r="226" spans="1:7" ht="14.25">
       <c r="A226" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2" t="s">
@@ -10409,7 +10439,7 @@
     </row>
     <row r="227" spans="1:7" ht="14.25">
       <c r="A227" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2" t="s">
@@ -10428,7 +10458,7 @@
     </row>
     <row r="228" spans="1:7" ht="14.25">
       <c r="A228" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" s="2" t="s">
@@ -10447,7 +10477,7 @@
     </row>
     <row r="229" spans="1:7" ht="14.25">
       <c r="A229" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="2" t="s">
@@ -10466,7 +10496,7 @@
     </row>
     <row r="230" spans="1:7" ht="14.25">
       <c r="A230" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2" t="s">
@@ -10485,7 +10515,7 @@
     </row>
     <row r="231" spans="1:7" ht="14.25">
       <c r="A231" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2" t="s">
@@ -10504,7 +10534,7 @@
     </row>
     <row r="232" spans="1:7" ht="14.25">
       <c r="A232" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" s="2" t="s">
@@ -10523,41 +10553,41 @@
     </row>
     <row r="233" spans="1:7" ht="14.25">
       <c r="A233" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" s="2" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="F233" s="17" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="G233" s="2"/>
     </row>
     <row r="234" spans="1:7" ht="14.25">
       <c r="A234" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>332</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D234" s="17" t="s">
         <v>333</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="F234" s="16" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>334</v>
@@ -10565,23 +10595,23 @@
     </row>
     <row r="235" spans="1:7" ht="16.5">
       <c r="A235" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" s="2" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="D235" s="17" t="s">
         <v>335</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="F235" s="17" t="s">
         <v>335</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="14.25">
@@ -10595,13 +10625,13 @@
     </row>
     <row r="237" spans="1:7" ht="14.25">
       <c r="A237" s="2" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D237" s="17" t="s">
         <v>336</v>
@@ -10618,22 +10648,22 @@
     </row>
     <row r="238" spans="1:7" ht="14.25">
       <c r="A238" s="2" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D238" s="17" t="s">
         <v>338</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>339</v>
@@ -10641,22 +10671,22 @@
     </row>
     <row r="239" spans="1:7" ht="14.25">
       <c r="A239" s="2" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="D239" s="17" t="s">
         <v>340</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="F239" s="17" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>341</v>
@@ -10664,13 +10694,13 @@
     </row>
     <row r="240" spans="1:7" ht="14.25">
       <c r="A240" s="2" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D240" s="17" t="s">
         <v>342</v>
@@ -10687,13 +10717,13 @@
     </row>
     <row r="241" spans="1:7" ht="14.25">
       <c r="A241" s="2" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D241" s="17" t="s">
         <v>344</v>
@@ -10710,22 +10740,22 @@
     </row>
     <row r="242" spans="1:7" ht="14.25">
       <c r="A242" s="2" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="D242" s="17" t="s">
         <v>346</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>347</v>
@@ -10733,36 +10763,36 @@
     </row>
     <row r="243" spans="1:7" ht="14.25">
       <c r="A243" s="2" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>348</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="F243" s="9" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="14.25">
       <c r="A244" s="2" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D244" s="17" t="s">
         <v>349</v>
@@ -10771,79 +10801,79 @@
         <v>349</v>
       </c>
       <c r="F244" s="18" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="14.25">
       <c r="A245" s="2" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D245" s="17" t="s">
         <v>350</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="F245" s="18" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="14.25">
       <c r="A246" s="2" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D246" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="F246" s="9" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="14.25">
       <c r="A247" s="2" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D247" s="17" t="s">
         <v>352</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="F247" s="9" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="14.25">
@@ -10857,82 +10887,82 @@
     </row>
     <row r="249" spans="1:7" ht="14.25">
       <c r="A249" s="2" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="D249" s="17" t="s">
         <v>353</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="14.25">
       <c r="A250" s="2" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="14.25">
       <c r="A251" s="2" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="14.25">
       <c r="A252" s="2" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>355</v>
@@ -10941,56 +10971,56 @@
         <v>355</v>
       </c>
       <c r="F252" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="G252" s="2" t="s">
         <v>935</v>
-      </c>
-      <c r="G252" s="2" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="14.25">
       <c r="A253" s="2" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>356</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="F253" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="G253" s="2" t="s">
         <v>936</v>
-      </c>
-      <c r="G253" s="2" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="14.25">
       <c r="A254" s="2" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>357</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="F254" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="G254" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="G254" s="2" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="14.25">
@@ -11004,125 +11034,125 @@
     </row>
     <row r="256" spans="1:7" ht="14.25">
       <c r="A256" s="2" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D256" s="17" t="s">
         <v>358</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="14.25">
       <c r="A257" s="2" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>359</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="14.25">
       <c r="A258" s="2" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>360</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="F258" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="G258" s="2" t="s">
         <v>946</v>
-      </c>
-      <c r="G258" s="2" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="14.25">
       <c r="A259" s="2" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="F259" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="G259" s="2" t="s">
         <v>947</v>
-      </c>
-      <c r="G259" s="2" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="14.25">
       <c r="A260" s="2" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>362</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F260" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="G260" s="2" t="s">
         <v>948</v>
-      </c>
-      <c r="G260" s="2" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="14.25">
       <c r="A261" s="2" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>363</v>
@@ -11131,24 +11161,24 @@
         <v>364</v>
       </c>
       <c r="E261" s="17" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F261" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="G261" s="2" t="s">
         <v>949</v>
-      </c>
-      <c r="G261" s="2" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="14.25">
       <c r="A262" s="2" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D262" s="17" t="s">
         <v>365</v>
@@ -11157,235 +11187,235 @@
         <v>365</v>
       </c>
       <c r="F262" s="17" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="14.25">
       <c r="A263" s="2" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F263" s="18" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="14.25">
       <c r="A264" s="2" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="D264" s="17" t="s">
         <v>366</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F264" s="17" t="s">
+        <v>950</v>
+      </c>
+      <c r="G264" s="2" t="s">
         <v>956</v>
-      </c>
-      <c r="G264" s="2" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="14.25">
       <c r="A265" s="2" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="D265" s="17" t="s">
         <v>366</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F265" s="17" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="14.25">
       <c r="A266" s="2" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="2" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="E266" s="17" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="F266" s="17" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="14.25">
       <c r="A267" s="2" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F267" s="17" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="14.25">
       <c r="A268" s="2" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F268" s="17" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="14.25">
       <c r="A269" s="2" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F269" s="17" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="14.25">
       <c r="A270" s="2" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="D270" s="17" t="s">
         <v>367</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="F270" s="18" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="14.25">
       <c r="A271" s="2" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>368</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="F271" s="16" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="14.25">
       <c r="A272" s="2" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="D272" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="E272" s="16" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F272" s="17" t="s">
         <v>971</v>
-      </c>
-      <c r="E272" s="16" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F272" s="17" t="s">
-        <v>977</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>369</v>
@@ -11393,22 +11423,22 @@
     </row>
     <row r="273" spans="1:7" ht="14.25">
       <c r="A273" s="2" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>372</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="F273" s="17" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>371</v>
@@ -11416,22 +11446,22 @@
     </row>
     <row r="274" spans="1:7" ht="14.25">
       <c r="A274" s="2" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>374</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="F274" s="17" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>373</v>
@@ -11439,22 +11469,22 @@
     </row>
     <row r="275" spans="1:7" ht="14.25">
       <c r="A275" s="2" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>370</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="F275" s="17" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>375</v>
@@ -11462,22 +11492,22 @@
     </row>
     <row r="276" spans="1:7" ht="14.25">
       <c r="A276" s="2" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>376</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F276" s="17" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>377</v>
@@ -11485,22 +11515,22 @@
     </row>
     <row r="277" spans="1:7" ht="14.25">
       <c r="A277" s="2" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>378</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F277" s="17" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>379</v>
@@ -11508,22 +11538,22 @@
     </row>
     <row r="278" spans="1:7" ht="14.25">
       <c r="A278" s="2" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>380</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F278" s="17" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>381</v>
@@ -11531,22 +11561,22 @@
     </row>
     <row r="279" spans="1:7" ht="14.25">
       <c r="A279" s="2" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>382</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F279" s="17" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>383</v>
@@ -11554,22 +11584,22 @@
     </row>
     <row r="280" spans="1:7" ht="14.25">
       <c r="A280" s="2" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>384</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>385</v>
@@ -11577,22 +11607,22 @@
     </row>
     <row r="281" spans="1:7" ht="14.25">
       <c r="A281" s="2" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>386</v>
@@ -11600,22 +11630,22 @@
     </row>
     <row r="282" spans="1:7" ht="14.25">
       <c r="A282" s="2" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>388</v>
@@ -11623,48 +11653,48 @@
     </row>
     <row r="283" spans="1:7" ht="14.25">
       <c r="A283" s="2" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>389</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="14.25">
       <c r="A284" s="2" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>390</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="14.25">
@@ -11678,13 +11708,13 @@
     </row>
     <row r="286" spans="1:7" ht="14.25">
       <c r="A286" s="2" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>391</v>
@@ -11693,113 +11723,113 @@
         <v>391</v>
       </c>
       <c r="F286" s="17" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="14.25">
       <c r="A287" s="2" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>392</v>
       </c>
       <c r="E287" s="17" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="F287" s="17" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="14.25">
       <c r="A288" s="2" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="E288" s="17" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="F288" s="17" t="s">
         <v>393</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="14.25">
       <c r="A289" s="2" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="E289" s="17" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="F289" s="17" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="14.25">
       <c r="A290" s="2" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="E290" s="17" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="F290" s="17" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="14.25">
       <c r="A291" s="2" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D291" s="17" t="s">
         <v>394</v>
@@ -11808,10 +11838,10 @@
         <v>394</v>
       </c>
       <c r="F291" s="17" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="14.25">
@@ -11825,140 +11855,140 @@
     </row>
     <row r="293" spans="1:7" ht="14.25">
       <c r="A293" s="2" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="F293" s="17" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="14.25">
       <c r="A294" s="2" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="F294" s="18" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="14.25">
       <c r="A295" s="2" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="F295" s="18" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="14.25">
       <c r="A296" s="2" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>395</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="F296" s="17" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="14.25">
       <c r="A297" s="2" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>396</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="F297" s="17" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="14.25">
       <c r="A298" s="2" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>397</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="F298" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G298" s="2" t="s">
         <v>1166</v>
-      </c>
-      <c r="G298" s="2" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="14.25">
@@ -11972,140 +12002,140 @@
     </row>
     <row r="300" spans="1:7" ht="14.25">
       <c r="A300" s="2" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="D300" s="17" t="s">
         <v>398</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F300" s="16" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="14.25">
       <c r="A301" s="2" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="D301" s="17" t="s">
         <v>399</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F301" s="16" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="14.25">
       <c r="A302" s="2" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="D302" s="17" t="s">
         <v>400</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="F302" s="21" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="14.25">
       <c r="A303" s="2" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="D303" s="17" t="s">
         <v>401</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F303" s="16" t="s">
+        <v>1310</v>
+      </c>
+      <c r="G303" s="2" t="s">
         <v>1316</v>
-      </c>
-      <c r="G303" s="2" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="14.25">
       <c r="A304" s="2" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="D304" s="17" t="s">
         <v>402</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="F304" s="16" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G304" s="2" t="s">
         <v>1317</v>
-      </c>
-      <c r="G304" s="2" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="14.25">
       <c r="A305" s="2" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="D305" s="17" t="s">
         <v>403</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="F305" s="16" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G305" s="2" t="s">
         <v>1318</v>
-      </c>
-      <c r="G305" s="2" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="14.25">
@@ -12119,105 +12149,105 @@
     </row>
     <row r="307" spans="1:7" ht="14.25">
       <c r="A307" s="2" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="D307" s="17" t="s">
         <v>404</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="F307" s="18" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="14.25">
       <c r="A308" s="2" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="F308" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G308" s="2" t="s">
         <v>1360</v>
-      </c>
-      <c r="G308" s="2" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="14.25">
       <c r="A309" s="2" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="D309" s="17" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E309" s="16" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G309" s="2" t="s">
         <v>1361</v>
-      </c>
-      <c r="E309" s="16" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F309" s="2" t="s">
-        <v>1361</v>
-      </c>
-      <c r="G309" s="2" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="14.25">
       <c r="A310" s="2" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="D310" s="17" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E310" s="16" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G310" s="2" t="s">
         <v>1362</v>
-      </c>
-      <c r="E310" s="16" t="s">
-        <v>1115</v>
-      </c>
-      <c r="F310" s="2" t="s">
-        <v>1362</v>
-      </c>
-      <c r="G310" s="2" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="14.25">
       <c r="A311" s="2" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="D311" s="17" t="s">
         <v>405</v>
@@ -12226,33 +12256,33 @@
         <v>405</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="14.25">
       <c r="A312" s="2" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="D312" s="17" t="s">
         <v>406</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="F312" s="9" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="14.25">
@@ -12266,163 +12296,163 @@
     </row>
     <row r="314" spans="1:7" ht="14.25">
       <c r="A314" s="2" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="D314" s="17" t="s">
         <v>407</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="F314" s="16" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="14.25">
       <c r="A315" s="2" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="D315" s="17" t="s">
         <v>408</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="F315" s="16" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="14.25">
       <c r="A316" s="2" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="D316" s="17" t="s">
         <v>409</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="F316" s="16" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="14.25">
       <c r="A317" s="2" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="F317" s="16" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="14.25">
       <c r="A318" s="2" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="F318" s="16" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="14.25">
       <c r="A319" s="2" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="F319" s="16" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="14.25">
       <c r="A320" s="2" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="D320" s="17" t="s">
         <v>410</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="F320" s="16" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="14.25">
@@ -12436,128 +12466,140 @@
     </row>
     <row r="322" spans="1:7" ht="14.25">
       <c r="A322" s="2" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="D322" s="17" t="s">
         <v>411</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F322" s="11"/>
+        <v>1116</v>
+      </c>
+      <c r="F322" s="16" t="s">
+        <v>1382</v>
+      </c>
       <c r="G322" s="2" t="s">
-        <v>412</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="14.25">
       <c r="A323" s="2" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>1123</v>
-      </c>
-      <c r="F323" s="11"/>
+        <v>1117</v>
+      </c>
+      <c r="F323" s="16" t="s">
+        <v>1384</v>
+      </c>
       <c r="G323" s="2" t="s">
-        <v>414</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="14.25">
       <c r="A324" s="2" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F324" s="11"/>
+        <v>1118</v>
+      </c>
+      <c r="F324" s="16" t="s">
+        <v>1392</v>
+      </c>
       <c r="G324" s="2" t="s">
-        <v>416</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="14.25">
       <c r="A325" s="2" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F325" s="11"/>
+        <v>1119</v>
+      </c>
+      <c r="F325" s="16" t="s">
+        <v>1393</v>
+      </c>
       <c r="G325" s="2" t="s">
-        <v>418</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="14.25">
       <c r="A326" s="2" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F326" s="11"/>
+        <v>1120</v>
+      </c>
+      <c r="F326" s="17" t="s">
+        <v>1388</v>
+      </c>
       <c r="G326" s="2" t="s">
-        <v>420</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="14.25">
       <c r="A327" s="2" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F327" s="11"/>
+        <v>1121</v>
+      </c>
+      <c r="F327" s="16" t="s">
+        <v>1390</v>
+      </c>
       <c r="G327" s="2" t="s">
-        <v>422</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="14.25">
@@ -12571,128 +12613,128 @@
     </row>
     <row r="329" spans="1:7" ht="14.25">
       <c r="A329" s="2" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="F329" s="11"/>
       <c r="G329" s="2" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="14.25">
       <c r="A330" s="2" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="F330" s="11"/>
       <c r="G330" s="2" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="14.25">
       <c r="A331" s="2" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="F331" s="11"/>
       <c r="G331" s="2" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="14.25">
       <c r="A332" s="2" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="F332" s="11"/>
       <c r="G332" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="14.25">
       <c r="A333" s="2" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="F333" s="11"/>
       <c r="G333" s="2" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="14.25">
       <c r="A334" s="2" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="F334" s="11"/>
       <c r="G334" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="14.25">
@@ -12706,128 +12748,128 @@
     </row>
     <row r="336" spans="1:7" ht="14.25">
       <c r="A336" s="2" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="F336" s="11"/>
       <c r="G336" s="2" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="14.25">
       <c r="A337" s="2" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="F337" s="11"/>
       <c r="G337" s="2" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="14.25">
       <c r="A338" s="2" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="F338" s="11"/>
       <c r="G338" s="2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="14.25">
       <c r="A339" s="2" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="F339" s="11"/>
       <c r="G339" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="14.25">
       <c r="A340" s="2" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="F340" s="11"/>
       <c r="G340" s="2" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="14.25">
       <c r="A341" s="2" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F341" s="11"/>
       <c r="G341" s="2" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="14.25">
@@ -12841,128 +12883,128 @@
     </row>
     <row r="343" spans="1:7" ht="14.25">
       <c r="A343" s="2" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="F343" s="11"/>
       <c r="G343" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="14.25">
       <c r="A344" s="2" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="F344" s="11"/>
       <c r="G344" s="2" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="14.25">
       <c r="A345" s="2" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="F345" s="11"/>
       <c r="G345" s="2" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="14.25">
       <c r="A346" s="2" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F346" s="11"/>
       <c r="G346" s="2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="14.25">
       <c r="A347" s="2" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="D347" s="17" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F347" s="11"/>
       <c r="G347" s="2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="348" spans="1:7" ht="14.25">
       <c r="A348" s="2" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F348" s="11"/>
       <c r="G348" s="2" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="14.25">
@@ -12976,128 +13018,128 @@
     </row>
     <row r="350" spans="1:7" ht="14.25">
       <c r="A350" s="2" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="F350" s="11"/>
       <c r="G350" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="14.25">
       <c r="A351" s="2" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="F351" s="11"/>
       <c r="G351" s="2" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="14.25">
       <c r="A352" s="2" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="F352" s="11"/>
       <c r="G352" s="2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="14.25">
       <c r="A353" s="2" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="F353" s="11"/>
       <c r="G353" s="2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="14.25">
       <c r="A354" s="2" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="D354" s="17" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="F354" s="11"/>
       <c r="G354" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="14.25">
       <c r="A355" s="2" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="F355" s="11"/>
       <c r="G355" s="2" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="14.25">
@@ -13111,116 +13153,116 @@
     </row>
     <row r="357" spans="1:7" ht="14.25">
       <c r="A357" s="2" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="D357" s="16" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="E357" s="11"/>
       <c r="F357" s="11"/>
       <c r="G357" s="2" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="14.25">
       <c r="A358" s="2" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="D358" s="16" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E358" s="11"/>
       <c r="F358" s="11"/>
       <c r="G358" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="14.25">
       <c r="A359" s="2" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="D359" s="16" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="E359" s="11"/>
       <c r="F359" s="11"/>
       <c r="G359" s="2" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="16.5">
       <c r="A360" s="2" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D360" s="16" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="E360" s="11"/>
       <c r="F360" s="11"/>
       <c r="G360" s="2" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="14.25">
       <c r="A361" s="2" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="D361" s="16" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="E361" s="11"/>
       <c r="F361" s="11"/>
       <c r="G361" s="2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="14.25">
       <c r="A362" s="2" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="D362" s="16" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="E362" s="11"/>
       <c r="F362" s="11"/>
       <c r="G362" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="14.25">
@@ -13234,116 +13276,116 @@
     </row>
     <row r="364" spans="1:7" ht="14.25">
       <c r="A364" s="2" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="E364" s="14"/>
       <c r="F364" s="11"/>
       <c r="G364" s="2" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="14.25">
       <c r="A365" s="2" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="E365" s="14"/>
       <c r="F365" s="11"/>
       <c r="G365" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="14.25">
       <c r="A366" s="2" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="E366" s="14"/>
       <c r="F366" s="11"/>
       <c r="G366" s="2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="14.25">
       <c r="A367" s="2" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="E367" s="14"/>
       <c r="F367" s="11"/>
       <c r="G367" s="2" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="14.25">
       <c r="A368" s="2" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="D368" s="17" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="E368" s="14"/>
       <c r="F368" s="11"/>
       <c r="G368" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="57">
       <c r="A369" s="2" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="E369" s="15"/>
       <c r="F369" s="11"/>
       <c r="G369" s="2" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="14.25">
@@ -13357,116 +13399,116 @@
     </row>
     <row r="371" spans="1:7" ht="14.25">
       <c r="A371" s="2" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="D371" s="17" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="E371" s="14"/>
       <c r="F371" s="11"/>
       <c r="G371" s="2" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="14.25">
       <c r="A372" s="2" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D372" s="17" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="E372" s="14"/>
       <c r="F372" s="11"/>
       <c r="G372" s="2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="14.25">
       <c r="A373" s="2" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="D373" s="17" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="E373" s="14"/>
       <c r="F373" s="11"/>
       <c r="G373" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="14.25">
       <c r="A374" s="2" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="D374" s="17" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="E374" s="14"/>
       <c r="F374" s="11"/>
       <c r="G374" s="2" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="14.25">
       <c r="A375" s="2" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="D375" s="17" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E375" s="14"/>
       <c r="F375" s="11"/>
       <c r="G375" s="2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="14.25">
       <c r="A376" s="2" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="D376" s="17" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E376" s="14"/>
       <c r="F376" s="11"/>
       <c r="G376" s="2" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="377" spans="1:7" ht="14.25">
@@ -13480,128 +13522,128 @@
     </row>
     <row r="378" spans="1:7" ht="14.25">
       <c r="A378" s="2" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D378" s="5" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E378" s="14"/>
       <c r="F378" s="5" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="14.25">
       <c r="A379" s="2" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="D379" s="5" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="E379" s="14"/>
       <c r="F379" s="5" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
     </row>
     <row r="380" spans="1:7" ht="14.25">
       <c r="A380" s="2" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D380" s="5" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="E380" s="14"/>
       <c r="F380" s="5" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="14.25">
       <c r="A381" s="2" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D381" s="5" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="E381" s="14"/>
       <c r="F381" s="5" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="14.25">
       <c r="A382" s="2" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="D382" s="5" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="E382" s="14"/>
       <c r="F382" s="5" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="14.25">
       <c r="A383" s="2" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="D383" s="17" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="E383" s="14"/>
       <c r="F383" s="17" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="14.25">
@@ -13615,128 +13657,128 @@
     </row>
     <row r="385" spans="1:7" ht="14.25">
       <c r="A385" s="2" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C385" s="19" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="E385" s="11"/>
       <c r="F385" s="22" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="386" spans="1:7" ht="14.25">
       <c r="A386" s="2" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C386" s="19" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="E386" s="11"/>
       <c r="F386" s="22" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="387" spans="1:7" ht="14.25">
       <c r="A387" s="2" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C387" s="19" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="E387" s="11"/>
       <c r="F387" s="17" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="388" spans="1:7" ht="14.25">
       <c r="A388" s="2" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C388" s="19" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="E388" s="11"/>
       <c r="F388" s="22" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="389" spans="1:7" ht="14.25">
       <c r="A389" s="2" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C389" s="19" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="E389" s="11"/>
       <c r="F389" s="22" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="14.25">
       <c r="A390" s="2" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C390" s="19" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="E390" s="13"/>
       <c r="F390" s="22" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="14.25">

--- a/章节标题.xlsx
+++ b/章节标题.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\魔禁相关\魔法禁书目录X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06001447-02DA-43A8-959D-2F01009CCA3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2945E2C5-E9B9-4DEA-BD60-A01840466F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1050" windowWidth="22095" windowHeight="19950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5295" yWindow="0" windowWidth="22095" windowHeight="19950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet10" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="1394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="1400">
   <si>
     <t>章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1292,37 +1292,19 @@
     <t>或者说包括结论的前提</t>
   </si>
   <si>
-    <t>to_the_Girl's_ABYSS.</t>
-  </si>
-  <si>
     <t>或者说截断导致的扩散</t>
   </si>
   <si>
-    <t>Gray_City.</t>
-  </si>
-  <si>
     <t>或者说逃走引起的反击</t>
   </si>
   <si>
-    <t>Social_Network_Slayer.</t>
-  </si>
-  <si>
     <t>或者说战胜集团的孤独</t>
   </si>
   <si>
-    <t>Engage_U.F.O.</t>
-  </si>
-  <si>
     <t>或者说带来安宁的禁忌</t>
   </si>
   <si>
-    <t>Salvage_XXX.</t>
-  </si>
-  <si>
     <t>或者说内藏真相的疑虑</t>
-  </si>
-  <si>
-    <t>Bet_Time.Red_or_Black.</t>
   </si>
   <si>
     <t>连结点</t>
@@ -5012,6 +4994,54 @@
   </si>
   <si>
     <t>化敌为友的协力要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to_the_Girl's_ABYSS.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许正因为隔绝才造成扩散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gray_City.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许正因为逃走才能够反击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Social_Network_Slayer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许正因为孤独才胜过团体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engage_U.F.O.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许正因是禁忌才取得安宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salvage_XXX.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许正因是疑念才存有真理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bet_Time.Red_or_Black.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许正因是前提才包含结论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5852,7 +5882,7 @@
   <dimension ref="A1:G391"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
-      <selection activeCell="G327" sqref="G327"/>
+      <selection activeCell="G334" sqref="G334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5869,22 +5899,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25">
       <c r="A1" s="2" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>1</v>
@@ -5892,20 +5922,20 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
@@ -5913,13 +5943,13 @@
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="2" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17" t="s">
@@ -5934,13 +5964,13 @@
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="2" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17" t="s">
@@ -5950,18 +5980,18 @@
         <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="2" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17" t="s">
@@ -5976,13 +6006,13 @@
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="2" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17" t="s">
@@ -5997,13 +6027,13 @@
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="2" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
@@ -6027,13 +6057,13 @@
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="2" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
@@ -6048,13 +6078,13 @@
     </row>
     <row r="10" spans="1:7" ht="14.25">
       <c r="A10" s="2" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17" t="s">
@@ -6069,13 +6099,13 @@
     </row>
     <row r="11" spans="1:7" ht="14.25">
       <c r="A11" s="2" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17" t="s">
@@ -6090,13 +6120,13 @@
     </row>
     <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="2" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17" t="s">
@@ -6111,13 +6141,13 @@
     </row>
     <row r="13" spans="1:7" ht="14.25">
       <c r="A13" s="2" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17" t="s">
@@ -6132,13 +6162,13 @@
     </row>
     <row r="14" spans="1:7" ht="14.25">
       <c r="A14" s="2" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17" t="s">
@@ -6162,13 +6192,13 @@
     </row>
     <row r="16" spans="1:7" ht="14.25">
       <c r="A16" s="2" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17" t="s">
@@ -6183,13 +6213,13 @@
     </row>
     <row r="17" spans="1:7" ht="14.25">
       <c r="A17" s="2" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
@@ -6204,13 +6234,13 @@
     </row>
     <row r="18" spans="1:7" ht="14.25">
       <c r="A18" s="2" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17" t="s">
@@ -6225,13 +6255,13 @@
     </row>
     <row r="19" spans="1:7" ht="14.25">
       <c r="A19" s="2" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17" t="s">
@@ -6246,13 +6276,13 @@
     </row>
     <row r="20" spans="1:7" ht="14.25">
       <c r="A20" s="2" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17" t="s">
@@ -6267,13 +6297,13 @@
     </row>
     <row r="21" spans="1:7" ht="14.25">
       <c r="A21" s="2" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
@@ -6297,13 +6327,13 @@
     </row>
     <row r="23" spans="1:7" ht="14.25">
       <c r="A23" s="2" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17" t="s">
@@ -6316,13 +6346,13 @@
     </row>
     <row r="24" spans="1:7" ht="14.25">
       <c r="A24" s="2" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17" t="s">
@@ -6335,13 +6365,13 @@
     </row>
     <row r="25" spans="1:7" ht="14.25">
       <c r="A25" s="2" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
@@ -6354,13 +6384,13 @@
     </row>
     <row r="26" spans="1:7" ht="14.25">
       <c r="A26" s="2" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
@@ -6373,13 +6403,13 @@
     </row>
     <row r="27" spans="1:7" ht="14.25">
       <c r="A27" s="2" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
@@ -6392,13 +6422,13 @@
     </row>
     <row r="28" spans="1:7" ht="14.25">
       <c r="A28" s="2" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
@@ -6420,13 +6450,13 @@
     </row>
     <row r="30" spans="1:7" ht="14.25">
       <c r="A30" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17" t="s">
@@ -6441,20 +6471,20 @@
     </row>
     <row r="31" spans="1:7" ht="14.25">
       <c r="A31" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17" t="s">
         <v>48</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>49</v>
@@ -6462,20 +6492,20 @@
     </row>
     <row r="32" spans="1:7" ht="14.25">
       <c r="A32" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>51</v>
@@ -6483,20 +6513,20 @@
     </row>
     <row r="33" spans="1:7" ht="14.25">
       <c r="A33" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>53</v>
@@ -6504,20 +6534,20 @@
     </row>
     <row r="34" spans="1:7" ht="14.25">
       <c r="A34" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>55</v>
@@ -6525,13 +6555,13 @@
     </row>
     <row r="35" spans="1:7" ht="14.25">
       <c r="A35" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17" t="s">
@@ -6555,39 +6585,39 @@
     </row>
     <row r="37" spans="1:7" ht="14.25">
       <c r="A37" s="2" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" ht="14.25">
       <c r="A38" s="2" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>59</v>
@@ -6595,13 +6625,13 @@
     </row>
     <row r="39" spans="1:7" ht="14.25">
       <c r="A39" s="2" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="17" t="s">
@@ -6616,13 +6646,13 @@
     </row>
     <row r="40" spans="1:7" ht="14.25">
       <c r="A40" s="2" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="17" t="s">
@@ -6637,13 +6667,13 @@
     </row>
     <row r="41" spans="1:7" ht="14.25">
       <c r="A41" s="2" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17" t="s">
@@ -6658,20 +6688,20 @@
     </row>
     <row r="42" spans="1:7" ht="14.25">
       <c r="A42" s="2" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="G42" s="2"/>
     </row>
@@ -6686,13 +6716,13 @@
     </row>
     <row r="44" spans="1:7" ht="14.25">
       <c r="A44" s="2" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17" t="s">
@@ -6707,13 +6737,13 @@
     </row>
     <row r="45" spans="1:7" ht="14.25">
       <c r="A45" s="2" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17" t="s">
@@ -6728,13 +6758,13 @@
     </row>
     <row r="46" spans="1:7" ht="14.25">
       <c r="A46" s="2" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17" t="s">
@@ -6749,13 +6779,13 @@
     </row>
     <row r="47" spans="1:7" ht="14.25">
       <c r="A47" s="2" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17" t="s">
@@ -6770,20 +6800,20 @@
     </row>
     <row r="48" spans="1:7" ht="14.25">
       <c r="A48" s="2" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>75</v>
@@ -6791,13 +6821,13 @@
     </row>
     <row r="49" spans="1:7" ht="14.25">
       <c r="A49" s="2" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17" t="s">
@@ -6821,20 +6851,20 @@
     </row>
     <row r="51" spans="1:7" ht="14.25">
       <c r="A51" s="2" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17" t="s">
         <v>78</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>79</v>
@@ -6842,20 +6872,20 @@
     </row>
     <row r="52" spans="1:7" ht="14.25">
       <c r="A52" s="2" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>81</v>
@@ -6863,20 +6893,20 @@
     </row>
     <row r="53" spans="1:7" ht="14.25">
       <c r="A53" s="2" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>83</v>
@@ -6884,41 +6914,41 @@
     </row>
     <row r="54" spans="1:7" ht="14.25">
       <c r="A54" s="2" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.25">
       <c r="A55" s="2" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>86</v>
@@ -6926,13 +6956,13 @@
     </row>
     <row r="56" spans="1:7" ht="14.25">
       <c r="A56" s="2" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="2" t="s">
@@ -6956,20 +6986,20 @@
     </row>
     <row r="58" spans="1:7" ht="14.25">
       <c r="A58" s="2" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>90</v>
@@ -6977,20 +7007,20 @@
     </row>
     <row r="59" spans="1:7" ht="14.25">
       <c r="A59" s="2" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>92</v>
@@ -6998,20 +7028,20 @@
     </row>
     <row r="60" spans="1:7" ht="14.25">
       <c r="A60" s="2" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>94</v>
@@ -7019,20 +7049,20 @@
     </row>
     <row r="61" spans="1:7" ht="14.25">
       <c r="A61" s="2" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="2" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>95</v>
@@ -7040,20 +7070,20 @@
     </row>
     <row r="62" spans="1:7" ht="14.25">
       <c r="A62" s="2" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>97</v>
@@ -7061,22 +7091,22 @@
     </row>
     <row r="63" spans="1:7" ht="14.25">
       <c r="A63" s="2" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>100</v>
@@ -7084,20 +7114,20 @@
     </row>
     <row r="64" spans="1:7" ht="14.25">
       <c r="A64" s="2" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>103</v>
@@ -7105,20 +7135,20 @@
     </row>
     <row r="65" spans="1:7" ht="14.25">
       <c r="A65" s="2" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>106</v>
@@ -7126,20 +7156,20 @@
     </row>
     <row r="66" spans="1:7" ht="14.25">
       <c r="A66" s="2" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>109</v>
@@ -7147,20 +7177,20 @@
     </row>
     <row r="67" spans="1:7" ht="14.25">
       <c r="A67" s="2" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>111</v>
@@ -7177,20 +7207,20 @@
     </row>
     <row r="69" spans="1:7" ht="14.25">
       <c r="A69" s="2" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="17" t="s">
         <v>112</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>113</v>
@@ -7198,20 +7228,20 @@
     </row>
     <row r="70" spans="1:7" ht="14.25">
       <c r="A70" s="2" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>115</v>
@@ -7219,20 +7249,20 @@
     </row>
     <row r="71" spans="1:7" ht="14.25">
       <c r="A71" s="2" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>117</v>
@@ -7240,22 +7270,22 @@
     </row>
     <row r="72" spans="1:7" ht="14.25">
       <c r="A72" s="2" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>119</v>
@@ -7263,20 +7293,20 @@
     </row>
     <row r="73" spans="1:7" ht="14.25">
       <c r="A73" s="2" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="2" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>120</v>
@@ -7284,20 +7314,20 @@
     </row>
     <row r="74" spans="1:7" ht="14.25">
       <c r="A74" s="2" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>122</v>
@@ -7305,20 +7335,20 @@
     </row>
     <row r="75" spans="1:7" ht="14.25">
       <c r="A75" s="2" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="2" t="s">
         <v>123</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>124</v>
@@ -7335,13 +7365,13 @@
     </row>
     <row r="77" spans="1:7" ht="14.25">
       <c r="A77" s="2" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="2" t="s">
@@ -7356,20 +7386,20 @@
     </row>
     <row r="78" spans="1:7" ht="14.25">
       <c r="A78" s="2" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>128</v>
@@ -7377,20 +7407,20 @@
     </row>
     <row r="79" spans="1:7" ht="14.25">
       <c r="A79" s="2" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>130</v>
@@ -7398,20 +7428,20 @@
     </row>
     <row r="80" spans="1:7" ht="14.25">
       <c r="A80" s="2" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>132</v>
@@ -7419,20 +7449,20 @@
     </row>
     <row r="81" spans="1:7" ht="14.25">
       <c r="A81" s="2" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>134</v>
@@ -7440,20 +7470,20 @@
     </row>
     <row r="82" spans="1:7" ht="14.25">
       <c r="A82" s="2" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="2" t="s">
         <v>135</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>136</v>
@@ -7461,20 +7491,20 @@
     </row>
     <row r="83" spans="1:7" ht="14.25">
       <c r="A83" s="2" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="2" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>137</v>
@@ -7482,20 +7512,20 @@
     </row>
     <row r="84" spans="1:7" ht="14.25">
       <c r="A84" s="2" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="2" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>138</v>
@@ -7503,13 +7533,13 @@
     </row>
     <row r="85" spans="1:7" ht="14.25">
       <c r="A85" s="2" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="2" t="s">
@@ -7524,20 +7554,20 @@
     </row>
     <row r="86" spans="1:7" ht="14.25">
       <c r="A86" s="2" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="2" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>142</v>
@@ -7545,20 +7575,20 @@
     </row>
     <row r="87" spans="1:7" ht="14.25">
       <c r="A87" s="2" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="2" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>144</v>
@@ -7566,23 +7596,23 @@
     </row>
     <row r="88" spans="1:7" ht="14.25">
       <c r="A88" s="2" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="2" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="14.25">
@@ -7596,22 +7626,22 @@
     </row>
     <row r="90" spans="1:7" ht="14.25">
       <c r="A90" s="2" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>146</v>
@@ -7619,22 +7649,22 @@
     </row>
     <row r="91" spans="1:7" ht="14.25">
       <c r="A91" s="2" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>148</v>
@@ -7642,22 +7672,22 @@
     </row>
     <row r="92" spans="1:7" ht="14.25">
       <c r="A92" s="2" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>150</v>
@@ -7665,13 +7695,13 @@
     </row>
     <row r="93" spans="1:7" ht="14.25">
       <c r="A93" s="2" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>151</v>
@@ -7680,7 +7710,7 @@
         <v>151</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>152</v>
@@ -7688,22 +7718,22 @@
     </row>
     <row r="94" spans="1:7" ht="14.25">
       <c r="A94" s="2" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>154</v>
@@ -7711,22 +7741,22 @@
     </row>
     <row r="95" spans="1:7" ht="14.25">
       <c r="A95" s="2" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>155</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>156</v>
@@ -7743,20 +7773,20 @@
     </row>
     <row r="97" spans="1:7" ht="14.25">
       <c r="A97" s="2" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="2" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>157</v>
@@ -7764,20 +7794,20 @@
     </row>
     <row r="98" spans="1:7" ht="14.25">
       <c r="A98" s="2" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="2" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>158</v>
@@ -7785,20 +7815,20 @@
     </row>
     <row r="99" spans="1:7" ht="14.25">
       <c r="A99" s="2" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="2" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>159</v>
@@ -7806,20 +7836,20 @@
     </row>
     <row r="100" spans="1:7" ht="14.25">
       <c r="A100" s="2" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="2" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>160</v>
@@ -7827,20 +7857,20 @@
     </row>
     <row r="101" spans="1:7" ht="14.25">
       <c r="A101" s="2" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="2" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>161</v>
@@ -7848,20 +7878,20 @@
     </row>
     <row r="102" spans="1:7" ht="14.25">
       <c r="A102" s="2" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="2" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>162</v>
@@ -7878,20 +7908,20 @@
     </row>
     <row r="104" spans="1:7" ht="14.25">
       <c r="A104" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="2" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>163</v>
@@ -7899,20 +7929,20 @@
     </row>
     <row r="105" spans="1:7" ht="14.25">
       <c r="A105" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="2" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>164</v>
@@ -7920,20 +7950,20 @@
     </row>
     <row r="106" spans="1:7" ht="14.25">
       <c r="A106" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D106" s="17"/>
       <c r="E106" s="2" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>165</v>
@@ -7941,20 +7971,20 @@
     </row>
     <row r="107" spans="1:7" ht="14.25">
       <c r="A107" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="2" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>166</v>
@@ -7962,20 +7992,20 @@
     </row>
     <row r="108" spans="1:7" ht="14.25">
       <c r="A108" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D108" s="17"/>
       <c r="E108" s="2" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>167</v>
@@ -7983,20 +8013,20 @@
     </row>
     <row r="109" spans="1:7" ht="14.25">
       <c r="A109" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="2" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>168</v>
@@ -8004,20 +8034,20 @@
     </row>
     <row r="110" spans="1:7" ht="14.25">
       <c r="A110" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D110" s="17"/>
       <c r="E110" s="2" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>169</v>
@@ -8034,20 +8064,20 @@
     </row>
     <row r="112" spans="1:7" ht="14.25">
       <c r="A112" s="2" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D112" s="17"/>
       <c r="E112" s="2" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>170</v>
@@ -8055,20 +8085,20 @@
     </row>
     <row r="113" spans="1:7" ht="14.25">
       <c r="A113" s="2" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="2" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>171</v>
@@ -8076,20 +8106,20 @@
     </row>
     <row r="114" spans="1:7" ht="14.25">
       <c r="A114" s="2" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D114" s="17"/>
       <c r="E114" s="2" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>172</v>
@@ -8097,20 +8127,20 @@
     </row>
     <row r="115" spans="1:7" ht="14.25">
       <c r="A115" s="2" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="2" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>173</v>
@@ -8118,20 +8148,20 @@
     </row>
     <row r="116" spans="1:7" ht="14.25">
       <c r="A116" s="2" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="2" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>174</v>
@@ -8139,20 +8169,20 @@
     </row>
     <row r="117" spans="1:7" ht="14.25">
       <c r="A117" s="2" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="2" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>175</v>
@@ -8169,22 +8199,22 @@
     </row>
     <row r="119" spans="1:7" ht="14.25">
       <c r="A119" s="2" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>176</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>177</v>
@@ -8192,22 +8222,22 @@
     </row>
     <row r="120" spans="1:7" ht="14.25">
       <c r="A120" s="2" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>178</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>179</v>
@@ -8215,22 +8245,22 @@
     </row>
     <row r="121" spans="1:7" ht="14.25">
       <c r="A121" s="2" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>180</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>181</v>
@@ -8238,22 +8268,22 @@
     </row>
     <row r="122" spans="1:7" ht="14.25">
       <c r="A122" s="2" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>182</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>183</v>
@@ -8261,22 +8291,22 @@
     </row>
     <row r="123" spans="1:7" ht="14.25">
       <c r="A123" s="2" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>185</v>
@@ -8284,22 +8314,22 @@
     </row>
     <row r="124" spans="1:7" ht="14.25">
       <c r="A124" s="2" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>186</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>187</v>
@@ -8307,22 +8337,22 @@
     </row>
     <row r="125" spans="1:7" ht="14.25">
       <c r="A125" s="2" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>188</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>189</v>
@@ -8330,13 +8360,13 @@
     </row>
     <row r="126" spans="1:7" ht="14.25">
       <c r="A126" s="2" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>190</v>
@@ -8345,7 +8375,7 @@
         <v>190</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>191</v>
@@ -8353,22 +8383,22 @@
     </row>
     <row r="127" spans="1:7" ht="14.25">
       <c r="A127" s="2" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>192</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>193</v>
@@ -8376,22 +8406,22 @@
     </row>
     <row r="128" spans="1:7" ht="14.25">
       <c r="A128" s="2" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>194</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>195</v>
@@ -8399,22 +8429,22 @@
     </row>
     <row r="129" spans="1:7" ht="14.25">
       <c r="A129" s="2" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>198</v>
@@ -8422,22 +8452,22 @@
     </row>
     <row r="130" spans="1:7" ht="14.25">
       <c r="A130" s="2" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>200</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>201</v>
@@ -8445,22 +8475,22 @@
     </row>
     <row r="131" spans="1:7" ht="14.25">
       <c r="A131" s="2" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>203</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>204</v>
@@ -8468,22 +8498,22 @@
     </row>
     <row r="132" spans="1:7" ht="14.25">
       <c r="A132" s="2" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>206</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>207</v>
@@ -8491,22 +8521,22 @@
     </row>
     <row r="133" spans="1:7" ht="14.25">
       <c r="A133" s="2" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>209</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>210</v>
@@ -8514,22 +8544,22 @@
     </row>
     <row r="134" spans="1:7" ht="14.25">
       <c r="A134" s="2" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>212</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>213</v>
@@ -8537,22 +8567,22 @@
     </row>
     <row r="135" spans="1:7" ht="14.25">
       <c r="A135" s="2" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>215</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>216</v>
@@ -8560,22 +8590,22 @@
     </row>
     <row r="136" spans="1:7" ht="14.25">
       <c r="A136" s="2" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>216</v>
@@ -8583,22 +8613,22 @@
     </row>
     <row r="137" spans="1:7" ht="14.25">
       <c r="A137" s="2" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>220</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>221</v>
@@ -8606,22 +8636,22 @@
     </row>
     <row r="138" spans="1:7" ht="14.25">
       <c r="A138" s="2" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>221</v>
@@ -8629,22 +8659,22 @@
     </row>
     <row r="139" spans="1:7" ht="14.25">
       <c r="A139" s="2" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>221</v>
@@ -8652,22 +8682,22 @@
     </row>
     <row r="140" spans="1:7" ht="14.25">
       <c r="A140" s="2" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>226</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>221</v>
@@ -8684,229 +8714,229 @@
     </row>
     <row r="142" spans="1:7" ht="14.25">
       <c r="A142" s="2" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D142" s="17" t="s">
         <v>227</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="14.25">
       <c r="A143" s="2" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>228</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="14.25">
       <c r="A144" s="2" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>229</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="F144" s="16" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="14.25">
       <c r="A145" s="2" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D145" s="17" t="s">
         <v>230</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="14.25">
       <c r="A146" s="2" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>231</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="F146" s="21" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="14.25">
       <c r="A147" s="2" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="14.25">
       <c r="A148" s="2" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>232</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>232</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="14.25">
       <c r="A149" s="2" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>233</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="14.25">
       <c r="A150" s="2" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D150" s="17" t="s">
         <v>234</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="14.25">
       <c r="A151" s="2" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D151" s="17" t="s">
         <v>235</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>236</v>
@@ -8923,105 +8953,105 @@
     </row>
     <row r="153" spans="1:7" ht="14.25">
       <c r="A153" s="2" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>237</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="14.25">
       <c r="A154" s="2" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>238</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="14.25">
       <c r="A155" s="2" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>239</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="14.25">
       <c r="A156" s="2" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>240</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="14.25">
       <c r="A157" s="2" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>241</v>
@@ -9030,33 +9060,33 @@
         <v>241</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="14.25">
       <c r="A158" s="2" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>242</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="14.25">
@@ -9070,22 +9100,22 @@
     </row>
     <row r="160" spans="1:7" ht="14.25">
       <c r="A160" s="2" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>243</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="F160" s="17" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>244</v>
@@ -9093,22 +9123,22 @@
     </row>
     <row r="161" spans="1:7" ht="14.25">
       <c r="A161" s="2" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>245</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="F161" s="17" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>246</v>
@@ -9116,22 +9146,22 @@
     </row>
     <row r="162" spans="1:7" ht="14.25">
       <c r="A162" s="2" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>247</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="F162" s="17" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>248</v>
@@ -9139,22 +9169,22 @@
     </row>
     <row r="163" spans="1:7" ht="14.25">
       <c r="A163" s="2" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>250</v>
@@ -9162,22 +9192,22 @@
     </row>
     <row r="164" spans="1:7" ht="14.25">
       <c r="A164" s="2" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>251</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>252</v>
@@ -9185,13 +9215,13 @@
     </row>
     <row r="165" spans="1:7" ht="14.25">
       <c r="A165" s="2" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D165" s="17" t="s">
         <v>253</v>
@@ -9208,19 +9238,19 @@
     </row>
     <row r="166" spans="1:7" ht="14.25">
       <c r="A166" s="2" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D166" s="17" t="s">
         <v>255</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="F166" s="17" t="s">
         <v>255</v>
@@ -9231,19 +9261,19 @@
     </row>
     <row r="167" spans="1:7" ht="14.25">
       <c r="A167" s="2" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D167" s="17" t="s">
         <v>257</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="F167" s="17" t="s">
         <v>257</v>
@@ -9254,19 +9284,19 @@
     </row>
     <row r="168" spans="1:7" ht="14.25">
       <c r="A168" s="2" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D168" s="17" t="s">
         <v>259</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="F168" s="17" t="s">
         <v>259</v>
@@ -9277,19 +9307,19 @@
     </row>
     <row r="169" spans="1:7" ht="14.25">
       <c r="A169" s="2" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D169" s="17" t="s">
         <v>261</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="F169" s="17" t="s">
         <v>261</v>
@@ -9300,19 +9330,19 @@
     </row>
     <row r="170" spans="1:7" ht="14.25">
       <c r="A170" s="2" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D170" s="17" t="s">
         <v>263</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="F170" s="17" t="s">
         <v>263</v>
@@ -9323,19 +9353,19 @@
     </row>
     <row r="171" spans="1:7" ht="14.25">
       <c r="A171" s="2" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D171" s="17" t="s">
         <v>265</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="F171" s="17" t="s">
         <v>265</v>
@@ -9346,19 +9376,19 @@
     </row>
     <row r="172" spans="1:7" ht="14.25">
       <c r="A172" s="2" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D172" s="17" t="s">
         <v>267</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="F172" s="17" t="s">
         <v>267</v>
@@ -9369,19 +9399,19 @@
     </row>
     <row r="173" spans="1:7" ht="14.25">
       <c r="A173" s="2" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="D173" s="17" t="s">
         <v>269</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="F173" s="17" t="s">
         <v>269</v>
@@ -9401,22 +9431,22 @@
     </row>
     <row r="175" spans="1:7" ht="14.25">
       <c r="A175" s="2" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D175" s="17" t="s">
         <v>271</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>272</v>
@@ -9424,22 +9454,22 @@
     </row>
     <row r="176" spans="1:7" ht="14.25">
       <c r="A176" s="2" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="F176" s="18" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>273</v>
@@ -9447,22 +9477,22 @@
     </row>
     <row r="177" spans="1:7" ht="14.25">
       <c r="A177" s="2" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D177" s="17" t="s">
         <v>274</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>275</v>
@@ -9470,22 +9500,22 @@
     </row>
     <row r="178" spans="1:7" ht="14.25">
       <c r="A178" s="2" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>276</v>
@@ -9493,13 +9523,13 @@
     </row>
     <row r="179" spans="1:7" ht="14.25">
       <c r="A179" s="2" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="D179" s="17" t="s">
         <v>277</v>
@@ -9508,7 +9538,7 @@
         <v>277</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>278</v>
@@ -9516,22 +9546,22 @@
     </row>
     <row r="180" spans="1:7" ht="14.25">
       <c r="A180" s="2" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>279</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>280</v>
@@ -9539,22 +9569,22 @@
     </row>
     <row r="181" spans="1:7" ht="14.25">
       <c r="A181" s="2" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="D181" s="17" t="s">
         <v>281</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>282</v>
@@ -9571,19 +9601,19 @@
     </row>
     <row r="183" spans="1:7" ht="14.25">
       <c r="A183" s="2" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="F183" s="17" t="s">
         <v>283</v>
@@ -9594,22 +9624,22 @@
     </row>
     <row r="184" spans="1:7" ht="14.25">
       <c r="A184" s="2" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>285</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="F184" s="17" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>286</v>
@@ -9617,22 +9647,22 @@
     </row>
     <row r="185" spans="1:7" ht="14.25">
       <c r="A185" s="2" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>287</v>
@@ -9640,22 +9670,22 @@
     </row>
     <row r="186" spans="1:7" ht="14.25">
       <c r="A186" s="2" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D186" s="17" t="s">
         <v>288</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="F186" s="18" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>289</v>
@@ -9663,45 +9693,45 @@
     </row>
     <row r="187" spans="1:7" ht="14.25">
       <c r="A187" s="2" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D187" s="17" t="s">
         <v>290</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="F187" s="18" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="14.25">
       <c r="A188" s="2" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>291</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="F188" s="17" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>292</v>
@@ -9718,59 +9748,59 @@
     </row>
     <row r="190" spans="1:7" ht="14.25">
       <c r="A190" s="2" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>293</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="F190" s="17" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="14.25">
       <c r="A191" s="2" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="14.25">
       <c r="A192" s="2" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>294</v>
@@ -9779,102 +9809,102 @@
         <v>294</v>
       </c>
       <c r="F192" s="17" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="14.25">
       <c r="A193" s="2" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D193" s="17" t="s">
         <v>295</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="F193" s="17" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="14.25">
       <c r="A194" s="2" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>296</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="F194" s="17" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="14.25">
       <c r="A195" s="2" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>297</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="F195" s="17" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="14.25">
       <c r="A196" s="2" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="14.25">
@@ -9888,26 +9918,26 @@
     </row>
     <row r="198" spans="1:7" ht="14.25">
       <c r="A198" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2" t="s">
         <v>298</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="E198" s="17" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F198" s="17" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="G198" s="2"/>
     </row>
     <row r="199" spans="1:7" ht="14.25">
       <c r="A199" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
@@ -9926,7 +9956,7 @@
     </row>
     <row r="200" spans="1:7" ht="14.25">
       <c r="A200" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="2" t="s">
@@ -9945,7 +9975,7 @@
     </row>
     <row r="201" spans="1:7" ht="14.25">
       <c r="A201" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="2" t="s">
@@ -9964,7 +9994,7 @@
     </row>
     <row r="202" spans="1:7" ht="14.25">
       <c r="A202" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2" t="s">
@@ -9983,7 +10013,7 @@
     </row>
     <row r="203" spans="1:7" ht="14.25">
       <c r="A203" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2" t="s">
@@ -10002,7 +10032,7 @@
     </row>
     <row r="204" spans="1:7" ht="14.25">
       <c r="A204" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2" t="s">
@@ -10021,7 +10051,7 @@
     </row>
     <row r="205" spans="1:7" ht="14.25">
       <c r="A205" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2" t="s">
@@ -10040,7 +10070,7 @@
     </row>
     <row r="206" spans="1:7" ht="14.25">
       <c r="A206" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" s="2" t="s">
@@ -10059,7 +10089,7 @@
     </row>
     <row r="207" spans="1:7" ht="14.25">
       <c r="A207" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" s="2" t="s">
@@ -10078,7 +10108,7 @@
     </row>
     <row r="208" spans="1:7" ht="14.25">
       <c r="A208" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="2" t="s">
@@ -10097,7 +10127,7 @@
     </row>
     <row r="209" spans="1:7" ht="14.25">
       <c r="A209" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" s="2" t="s">
@@ -10116,7 +10146,7 @@
     </row>
     <row r="210" spans="1:7" ht="14.25">
       <c r="A210" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" s="2" t="s">
@@ -10135,7 +10165,7 @@
     </row>
     <row r="211" spans="1:7" ht="14.25">
       <c r="A211" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="2" t="s">
@@ -10154,7 +10184,7 @@
     </row>
     <row r="212" spans="1:7" ht="14.25">
       <c r="A212" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2" t="s">
@@ -10173,7 +10203,7 @@
     </row>
     <row r="213" spans="1:7" ht="14.25">
       <c r="A213" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2" t="s">
@@ -10192,7 +10222,7 @@
     </row>
     <row r="214" spans="1:7" ht="14.25">
       <c r="A214" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2" t="s">
@@ -10211,7 +10241,7 @@
     </row>
     <row r="215" spans="1:7" ht="14.25">
       <c r="A215" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="2" t="s">
@@ -10230,7 +10260,7 @@
     </row>
     <row r="216" spans="1:7" ht="14.25">
       <c r="A216" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="2" t="s">
@@ -10249,7 +10279,7 @@
     </row>
     <row r="217" spans="1:7" ht="14.25">
       <c r="A217" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" s="2" t="s">
@@ -10268,7 +10298,7 @@
     </row>
     <row r="218" spans="1:7" ht="14.25">
       <c r="A218" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="2" t="s">
@@ -10287,7 +10317,7 @@
     </row>
     <row r="219" spans="1:7" ht="14.25">
       <c r="A219" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="2" t="s">
@@ -10306,7 +10336,7 @@
     </row>
     <row r="220" spans="1:7" ht="14.25">
       <c r="A220" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="2" t="s">
@@ -10325,7 +10355,7 @@
     </row>
     <row r="221" spans="1:7" ht="14.25">
       <c r="A221" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" s="2" t="s">
@@ -10344,7 +10374,7 @@
     </row>
     <row r="222" spans="1:7" ht="14.25">
       <c r="A222" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" s="2" t="s">
@@ -10363,7 +10393,7 @@
     </row>
     <row r="223" spans="1:7" ht="14.25">
       <c r="A223" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="2" t="s">
@@ -10382,7 +10412,7 @@
     </row>
     <row r="224" spans="1:7" ht="14.25">
       <c r="A224" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="2" t="s">
@@ -10401,7 +10431,7 @@
     </row>
     <row r="225" spans="1:7" ht="14.25">
       <c r="A225" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" s="2" t="s">
@@ -10420,7 +10450,7 @@
     </row>
     <row r="226" spans="1:7" ht="14.25">
       <c r="A226" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2" t="s">
@@ -10439,7 +10469,7 @@
     </row>
     <row r="227" spans="1:7" ht="14.25">
       <c r="A227" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2" t="s">
@@ -10458,7 +10488,7 @@
     </row>
     <row r="228" spans="1:7" ht="14.25">
       <c r="A228" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" s="2" t="s">
@@ -10477,7 +10507,7 @@
     </row>
     <row r="229" spans="1:7" ht="14.25">
       <c r="A229" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="2" t="s">
@@ -10496,7 +10526,7 @@
     </row>
     <row r="230" spans="1:7" ht="14.25">
       <c r="A230" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2" t="s">
@@ -10515,7 +10545,7 @@
     </row>
     <row r="231" spans="1:7" ht="14.25">
       <c r="A231" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2" t="s">
@@ -10534,7 +10564,7 @@
     </row>
     <row r="232" spans="1:7" ht="14.25">
       <c r="A232" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" s="2" t="s">
@@ -10553,41 +10583,41 @@
     </row>
     <row r="233" spans="1:7" ht="14.25">
       <c r="A233" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" s="2" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="F233" s="17" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="G233" s="2"/>
     </row>
     <row r="234" spans="1:7" ht="14.25">
       <c r="A234" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>332</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D234" s="17" t="s">
         <v>333</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="F234" s="16" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>334</v>
@@ -10595,23 +10625,23 @@
     </row>
     <row r="235" spans="1:7" ht="16.5">
       <c r="A235" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" s="2" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D235" s="17" t="s">
         <v>335</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="F235" s="17" t="s">
         <v>335</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="14.25">
@@ -10625,13 +10655,13 @@
     </row>
     <row r="237" spans="1:7" ht="14.25">
       <c r="A237" s="2" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D237" s="17" t="s">
         <v>336</v>
@@ -10648,22 +10678,22 @@
     </row>
     <row r="238" spans="1:7" ht="14.25">
       <c r="A238" s="2" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D238" s="17" t="s">
         <v>338</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>339</v>
@@ -10671,22 +10701,22 @@
     </row>
     <row r="239" spans="1:7" ht="14.25">
       <c r="A239" s="2" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D239" s="17" t="s">
         <v>340</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="F239" s="17" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>341</v>
@@ -10694,13 +10724,13 @@
     </row>
     <row r="240" spans="1:7" ht="14.25">
       <c r="A240" s="2" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="D240" s="17" t="s">
         <v>342</v>
@@ -10717,13 +10747,13 @@
     </row>
     <row r="241" spans="1:7" ht="14.25">
       <c r="A241" s="2" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D241" s="17" t="s">
         <v>344</v>
@@ -10740,22 +10770,22 @@
     </row>
     <row r="242" spans="1:7" ht="14.25">
       <c r="A242" s="2" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="D242" s="17" t="s">
         <v>346</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>347</v>
@@ -10763,36 +10793,36 @@
     </row>
     <row r="243" spans="1:7" ht="14.25">
       <c r="A243" s="2" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>348</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="F243" s="9" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="14.25">
       <c r="A244" s="2" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D244" s="17" t="s">
         <v>349</v>
@@ -10801,79 +10831,79 @@
         <v>349</v>
       </c>
       <c r="F244" s="18" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="14.25">
       <c r="A245" s="2" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="D245" s="17" t="s">
         <v>350</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="F245" s="18" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="14.25">
       <c r="A246" s="2" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D246" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="F246" s="9" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="14.25">
       <c r="A247" s="2" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D247" s="17" t="s">
         <v>352</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="F247" s="9" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="14.25">
@@ -10887,82 +10917,82 @@
     </row>
     <row r="249" spans="1:7" ht="14.25">
       <c r="A249" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="D249" s="17" t="s">
         <v>353</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="14.25">
       <c r="A250" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="14.25">
       <c r="A251" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="14.25">
       <c r="A252" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>355</v>
@@ -10971,56 +11001,56 @@
         <v>355</v>
       </c>
       <c r="F252" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="G252" s="2" t="s">
         <v>929</v>
-      </c>
-      <c r="G252" s="2" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="14.25">
       <c r="A253" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>356</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="F253" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="G253" s="2" t="s">
         <v>930</v>
-      </c>
-      <c r="G253" s="2" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="14.25">
       <c r="A254" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>357</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="F254" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="G254" s="2" t="s">
         <v>931</v>
-      </c>
-      <c r="G254" s="2" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="14.25">
@@ -11034,125 +11064,125 @@
     </row>
     <row r="256" spans="1:7" ht="14.25">
       <c r="A256" s="2" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="D256" s="17" t="s">
         <v>358</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="14.25">
       <c r="A257" s="2" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>359</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="14.25">
       <c r="A258" s="2" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>360</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="F258" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="G258" s="2" t="s">
         <v>940</v>
-      </c>
-      <c r="G258" s="2" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="14.25">
       <c r="A259" s="2" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="F259" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="G259" s="2" t="s">
         <v>941</v>
-      </c>
-      <c r="G259" s="2" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="14.25">
       <c r="A260" s="2" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>362</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="F260" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="G260" s="2" t="s">
         <v>942</v>
-      </c>
-      <c r="G260" s="2" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="14.25">
       <c r="A261" s="2" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>363</v>
@@ -11161,24 +11191,24 @@
         <v>364</v>
       </c>
       <c r="E261" s="17" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="F261" s="17" t="s">
+        <v>937</v>
+      </c>
+      <c r="G261" s="2" t="s">
         <v>943</v>
-      </c>
-      <c r="G261" s="2" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="14.25">
       <c r="A262" s="2" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D262" s="17" t="s">
         <v>365</v>
@@ -11187,235 +11217,235 @@
         <v>365</v>
       </c>
       <c r="F262" s="17" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="14.25">
       <c r="A263" s="2" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="F263" s="18" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="14.25">
       <c r="A264" s="2" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="D264" s="17" t="s">
         <v>366</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="F264" s="17" t="s">
+        <v>944</v>
+      </c>
+      <c r="G264" s="2" t="s">
         <v>950</v>
-      </c>
-      <c r="G264" s="2" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="14.25">
       <c r="A265" s="2" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="D265" s="17" t="s">
         <v>366</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="F265" s="17" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="14.25">
       <c r="A266" s="2" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="2" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="E266" s="17" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="F266" s="17" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="14.25">
       <c r="A267" s="2" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="F267" s="17" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="14.25">
       <c r="A268" s="2" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="F268" s="17" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="14.25">
       <c r="A269" s="2" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="F269" s="17" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="14.25">
       <c r="A270" s="2" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="D270" s="17" t="s">
         <v>367</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F270" s="18" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="14.25">
       <c r="A271" s="2" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>368</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F271" s="16" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="14.25">
       <c r="A272" s="2" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="D272" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="E272" s="16" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F272" s="17" t="s">
         <v>965</v>
-      </c>
-      <c r="E272" s="16" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F272" s="17" t="s">
-        <v>971</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>369</v>
@@ -11423,22 +11453,22 @@
     </row>
     <row r="273" spans="1:7" ht="14.25">
       <c r="A273" s="2" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>372</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F273" s="17" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>371</v>
@@ -11446,22 +11476,22 @@
     </row>
     <row r="274" spans="1:7" ht="14.25">
       <c r="A274" s="2" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>374</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F274" s="17" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>373</v>
@@ -11469,22 +11499,22 @@
     </row>
     <row r="275" spans="1:7" ht="14.25">
       <c r="A275" s="2" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>370</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F275" s="17" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>375</v>
@@ -11492,22 +11522,22 @@
     </row>
     <row r="276" spans="1:7" ht="14.25">
       <c r="A276" s="2" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>376</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="F276" s="17" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>377</v>
@@ -11515,22 +11545,22 @@
     </row>
     <row r="277" spans="1:7" ht="14.25">
       <c r="A277" s="2" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>378</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="F277" s="17" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>379</v>
@@ -11538,22 +11568,22 @@
     </row>
     <row r="278" spans="1:7" ht="14.25">
       <c r="A278" s="2" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>380</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="F278" s="17" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>381</v>
@@ -11561,22 +11591,22 @@
     </row>
     <row r="279" spans="1:7" ht="14.25">
       <c r="A279" s="2" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>382</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="F279" s="17" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>383</v>
@@ -11584,22 +11614,22 @@
     </row>
     <row r="280" spans="1:7" ht="14.25">
       <c r="A280" s="2" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>384</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>385</v>
@@ -11607,22 +11637,22 @@
     </row>
     <row r="281" spans="1:7" ht="14.25">
       <c r="A281" s="2" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>386</v>
@@ -11630,22 +11660,22 @@
     </row>
     <row r="282" spans="1:7" ht="14.25">
       <c r="A282" s="2" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>388</v>
@@ -11653,48 +11683,48 @@
     </row>
     <row r="283" spans="1:7" ht="14.25">
       <c r="A283" s="2" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>389</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="14.25">
       <c r="A284" s="2" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>390</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="14.25">
@@ -11708,13 +11738,13 @@
     </row>
     <row r="286" spans="1:7" ht="14.25">
       <c r="A286" s="2" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>391</v>
@@ -11723,113 +11753,113 @@
         <v>391</v>
       </c>
       <c r="F286" s="17" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="14.25">
       <c r="A287" s="2" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>392</v>
       </c>
       <c r="E287" s="17" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="F287" s="17" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="14.25">
       <c r="A288" s="2" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="E288" s="17" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="F288" s="17" t="s">
         <v>393</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="14.25">
       <c r="A289" s="2" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="E289" s="17" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="F289" s="17" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="14.25">
       <c r="A290" s="2" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="E290" s="17" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="F290" s="17" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="14.25">
       <c r="A291" s="2" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="D291" s="17" t="s">
         <v>394</v>
@@ -11838,10 +11868,10 @@
         <v>394</v>
       </c>
       <c r="F291" s="17" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="14.25">
@@ -11855,140 +11885,140 @@
     </row>
     <row r="293" spans="1:7" ht="14.25">
       <c r="A293" s="2" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F293" s="17" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="14.25">
       <c r="A294" s="2" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F294" s="18" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="14.25">
       <c r="A295" s="2" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="F295" s="18" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="14.25">
       <c r="A296" s="2" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>395</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="F296" s="17" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="14.25">
       <c r="A297" s="2" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>396</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="F297" s="17" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="14.25">
       <c r="A298" s="2" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>397</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="F298" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G298" s="2" t="s">
         <v>1160</v>
-      </c>
-      <c r="G298" s="2" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="14.25">
@@ -12002,140 +12032,140 @@
     </row>
     <row r="300" spans="1:7" ht="14.25">
       <c r="A300" s="2" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="D300" s="17" t="s">
         <v>398</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F300" s="16" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="14.25">
       <c r="A301" s="2" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="D301" s="17" t="s">
         <v>399</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="F301" s="16" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="14.25">
       <c r="A302" s="2" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="D302" s="17" t="s">
         <v>400</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="F302" s="21" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="14.25">
       <c r="A303" s="2" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="D303" s="17" t="s">
         <v>401</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="F303" s="16" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G303" s="2" t="s">
         <v>1310</v>
-      </c>
-      <c r="G303" s="2" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="14.25">
       <c r="A304" s="2" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="D304" s="17" t="s">
         <v>402</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="F304" s="16" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G304" s="2" t="s">
         <v>1311</v>
-      </c>
-      <c r="G304" s="2" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="14.25">
       <c r="A305" s="2" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="D305" s="17" t="s">
         <v>403</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="F305" s="16" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G305" s="2" t="s">
         <v>1312</v>
-      </c>
-      <c r="G305" s="2" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="14.25">
@@ -12149,105 +12179,105 @@
     </row>
     <row r="307" spans="1:7" ht="14.25">
       <c r="A307" s="2" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="D307" s="17" t="s">
         <v>404</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="F307" s="18" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="14.25">
       <c r="A308" s="2" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F308" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G308" s="2" t="s">
         <v>1354</v>
-      </c>
-      <c r="G308" s="2" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="14.25">
       <c r="A309" s="2" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="D309" s="17" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E309" s="16" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G309" s="2" t="s">
         <v>1355</v>
-      </c>
-      <c r="E309" s="16" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F309" s="2" t="s">
-        <v>1355</v>
-      </c>
-      <c r="G309" s="2" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="14.25">
       <c r="A310" s="2" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="D310" s="17" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E310" s="16" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G310" s="2" t="s">
         <v>1356</v>
-      </c>
-      <c r="E310" s="16" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F310" s="2" t="s">
-        <v>1356</v>
-      </c>
-      <c r="G310" s="2" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="14.25">
       <c r="A311" s="2" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="D311" s="17" t="s">
         <v>405</v>
@@ -12256,33 +12286,33 @@
         <v>405</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="14.25">
       <c r="A312" s="2" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="D312" s="17" t="s">
         <v>406</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="F312" s="9" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="14.25">
@@ -12296,163 +12326,163 @@
     </row>
     <row r="314" spans="1:7" ht="14.25">
       <c r="A314" s="2" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="D314" s="17" t="s">
         <v>407</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="F314" s="16" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="14.25">
       <c r="A315" s="2" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="D315" s="17" t="s">
         <v>408</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="F315" s="16" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="14.25">
       <c r="A316" s="2" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="D316" s="17" t="s">
         <v>409</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="F316" s="16" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="14.25">
       <c r="A317" s="2" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="F317" s="16" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="14.25">
       <c r="A318" s="2" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="F318" s="16" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="14.25">
       <c r="A319" s="2" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="F319" s="16" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="14.25">
       <c r="A320" s="2" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="D320" s="17" t="s">
         <v>410</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="F320" s="16" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="14.25">
@@ -12466,140 +12496,140 @@
     </row>
     <row r="322" spans="1:7" ht="14.25">
       <c r="A322" s="2" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="D322" s="17" t="s">
         <v>411</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="F322" s="16" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="14.25">
       <c r="A323" s="2" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="D323" s="17" t="s">
         <v>412</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="F323" s="16" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="14.25">
       <c r="A324" s="2" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="D324" s="17" t="s">
         <v>413</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="F324" s="16" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="14.25">
       <c r="A325" s="2" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="D325" s="17" t="s">
         <v>414</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="F325" s="16" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="14.25">
       <c r="A326" s="2" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="D326" s="17" t="s">
         <v>415</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="F326" s="17" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="14.25">
       <c r="A327" s="2" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="D327" s="17" t="s">
         <v>416</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="F327" s="16" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="14.25">
@@ -12613,128 +12643,140 @@
     </row>
     <row r="329" spans="1:7" ht="14.25">
       <c r="A329" s="2" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="D329" s="17" t="s">
         <v>417</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F329" s="11"/>
+        <v>1116</v>
+      </c>
+      <c r="F329" s="16" t="s">
+        <v>1399</v>
+      </c>
       <c r="G329" s="2" t="s">
-        <v>418</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="14.25">
       <c r="A330" s="2" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>1123</v>
-      </c>
-      <c r="F330" s="11"/>
+        <v>1117</v>
+      </c>
+      <c r="F330" s="16" t="s">
+        <v>1389</v>
+      </c>
       <c r="G330" s="2" t="s">
-        <v>420</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="14.25">
       <c r="A331" s="2" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F331" s="11"/>
+        <v>1118</v>
+      </c>
+      <c r="F331" s="16" t="s">
+        <v>1391</v>
+      </c>
       <c r="G331" s="2" t="s">
-        <v>422</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="14.25">
       <c r="A332" s="2" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F332" s="11"/>
+        <v>1119</v>
+      </c>
+      <c r="F332" s="16" t="s">
+        <v>1393</v>
+      </c>
       <c r="G332" s="2" t="s">
-        <v>424</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="14.25">
       <c r="A333" s="2" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F333" s="11"/>
+        <v>1120</v>
+      </c>
+      <c r="F333" s="16" t="s">
+        <v>1395</v>
+      </c>
       <c r="G333" s="2" t="s">
-        <v>426</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="14.25">
       <c r="A334" s="2" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F334" s="11"/>
+        <v>1121</v>
+      </c>
+      <c r="F334" s="16" t="s">
+        <v>1397</v>
+      </c>
       <c r="G334" s="2" t="s">
-        <v>428</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="14.25">
@@ -12748,128 +12790,128 @@
     </row>
     <row r="336" spans="1:7" ht="14.25">
       <c r="A336" s="2" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="F336" s="11"/>
       <c r="G336" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="14.25">
       <c r="A337" s="2" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="F337" s="11"/>
       <c r="G337" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="14.25">
       <c r="A338" s="2" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="F338" s="11"/>
       <c r="G338" s="2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="14.25">
       <c r="A339" s="2" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="F339" s="11"/>
       <c r="G339" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="14.25">
       <c r="A340" s="2" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="F340" s="11"/>
       <c r="G340" s="2" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="14.25">
       <c r="A341" s="2" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F341" s="11"/>
       <c r="G341" s="2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="14.25">
@@ -12883,128 +12925,128 @@
     </row>
     <row r="343" spans="1:7" ht="14.25">
       <c r="A343" s="2" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="F343" s="11"/>
       <c r="G343" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="14.25">
       <c r="A344" s="2" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="F344" s="11"/>
       <c r="G344" s="2" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="14.25">
       <c r="A345" s="2" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="F345" s="11"/>
       <c r="G345" s="2" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="14.25">
       <c r="A346" s="2" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="F346" s="11"/>
       <c r="G346" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="14.25">
       <c r="A347" s="2" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D347" s="17" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="F347" s="11"/>
       <c r="G347" s="2" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="348" spans="1:7" ht="14.25">
       <c r="A348" s="2" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="F348" s="11"/>
       <c r="G348" s="2" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="14.25">
@@ -13018,128 +13060,128 @@
     </row>
     <row r="350" spans="1:7" ht="14.25">
       <c r="A350" s="2" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="F350" s="11"/>
       <c r="G350" s="2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="14.25">
       <c r="A351" s="2" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="F351" s="11"/>
       <c r="G351" s="2" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="14.25">
       <c r="A352" s="2" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="F352" s="11"/>
       <c r="G352" s="2" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="14.25">
       <c r="A353" s="2" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F353" s="11"/>
       <c r="G353" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="14.25">
       <c r="A354" s="2" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="D354" s="17" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F354" s="11"/>
       <c r="G354" s="2" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="14.25">
       <c r="A355" s="2" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F355" s="11"/>
       <c r="G355" s="2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="14.25">
@@ -13153,116 +13195,116 @@
     </row>
     <row r="357" spans="1:7" ht="14.25">
       <c r="A357" s="2" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="D357" s="16" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="E357" s="11"/>
       <c r="F357" s="11"/>
       <c r="G357" s="2" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="14.25">
       <c r="A358" s="2" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="D358" s="16" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E358" s="11"/>
       <c r="F358" s="11"/>
       <c r="G358" s="2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="14.25">
       <c r="A359" s="2" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="D359" s="16" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="E359" s="11"/>
       <c r="F359" s="11"/>
       <c r="G359" s="2" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="16.5">
       <c r="A360" s="2" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="D360" s="16" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="E360" s="11"/>
       <c r="F360" s="11"/>
       <c r="G360" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="14.25">
       <c r="A361" s="2" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D361" s="16" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="E361" s="11"/>
       <c r="F361" s="11"/>
       <c r="G361" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="14.25">
       <c r="A362" s="2" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="D362" s="16" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="E362" s="11"/>
       <c r="F362" s="11"/>
       <c r="G362" s="2" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="14.25">
@@ -13276,116 +13318,116 @@
     </row>
     <row r="364" spans="1:7" ht="14.25">
       <c r="A364" s="2" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E364" s="14"/>
       <c r="F364" s="11"/>
       <c r="G364" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="14.25">
       <c r="A365" s="2" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E365" s="14"/>
       <c r="F365" s="11"/>
       <c r="G365" s="2" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="14.25">
       <c r="A366" s="2" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E366" s="14"/>
       <c r="F366" s="11"/>
       <c r="G366" s="2" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="14.25">
       <c r="A367" s="2" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E367" s="14"/>
       <c r="F367" s="11"/>
       <c r="G367" s="2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="14.25">
       <c r="A368" s="2" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="D368" s="17" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E368" s="14"/>
       <c r="F368" s="11"/>
       <c r="G368" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="57">
       <c r="A369" s="2" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="E369" s="15"/>
       <c r="F369" s="11"/>
       <c r="G369" s="2" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="14.25">
@@ -13399,116 +13441,116 @@
     </row>
     <row r="371" spans="1:7" ht="14.25">
       <c r="A371" s="2" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D371" s="17" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="E371" s="14"/>
       <c r="F371" s="11"/>
       <c r="G371" s="2" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="14.25">
       <c r="A372" s="2" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="D372" s="17" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="E372" s="14"/>
       <c r="F372" s="11"/>
       <c r="G372" s="2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="14.25">
       <c r="A373" s="2" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="D373" s="17" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E373" s="14"/>
       <c r="F373" s="11"/>
       <c r="G373" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="14.25">
       <c r="A374" s="2" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="D374" s="17" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="E374" s="14"/>
       <c r="F374" s="11"/>
       <c r="G374" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="14.25">
       <c r="A375" s="2" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D375" s="17" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E375" s="14"/>
       <c r="F375" s="11"/>
       <c r="G375" s="2" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="14.25">
       <c r="A376" s="2" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="D376" s="17" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="E376" s="14"/>
       <c r="F376" s="11"/>
       <c r="G376" s="2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="377" spans="1:7" ht="14.25">
@@ -13522,128 +13564,128 @@
     </row>
     <row r="378" spans="1:7" ht="14.25">
       <c r="A378" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D378" s="5" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="E378" s="14"/>
       <c r="F378" s="5" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="14.25">
       <c r="A379" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="D379" s="5" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="E379" s="14"/>
       <c r="F379" s="5" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="380" spans="1:7" ht="14.25">
       <c r="A380" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="D380" s="5" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="E380" s="14"/>
       <c r="F380" s="5" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="14.25">
       <c r="A381" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D381" s="5" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="E381" s="14"/>
       <c r="F381" s="5" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="14.25">
       <c r="A382" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="D382" s="5" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="E382" s="14"/>
       <c r="F382" s="5" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="14.25">
       <c r="A383" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D383" s="17" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="E383" s="14"/>
       <c r="F383" s="17" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="14.25">
@@ -13657,128 +13699,128 @@
     </row>
     <row r="385" spans="1:7" ht="14.25">
       <c r="A385" s="2" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C385" s="19" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="E385" s="11"/>
       <c r="F385" s="22" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="386" spans="1:7" ht="14.25">
       <c r="A386" s="2" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C386" s="19" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="E386" s="11"/>
       <c r="F386" s="22" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="387" spans="1:7" ht="14.25">
       <c r="A387" s="2" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C387" s="19" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="E387" s="11"/>
       <c r="F387" s="17" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="388" spans="1:7" ht="14.25">
       <c r="A388" s="2" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C388" s="19" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="E388" s="11"/>
       <c r="F388" s="22" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="389" spans="1:7" ht="14.25">
       <c r="A389" s="2" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C389" s="19" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="E389" s="11"/>
       <c r="F389" s="22" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="14.25">
       <c r="A390" s="2" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C390" s="19" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="E390" s="13"/>
       <c r="F390" s="22" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="14.25">

--- a/章节标题.xlsx
+++ b/章节标题.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\魔禁相关\魔法禁书目录X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2945E2C5-E9B9-4DEA-BD60-A01840466F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5988ED3A-36CF-426A-A73C-0581DD021F23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5295" yWindow="0" windowWidth="22095" windowHeight="19950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22095" windowHeight="19950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet10" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="1400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="1406">
   <si>
     <t>章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1310,34 +1310,16 @@
     <t>连结点</t>
   </si>
   <si>
-    <t>Destiny_Joint.</t>
-  </si>
-  <si>
-    <t>X.</t>
-  </si>
-  <si>
     <t>该逃到哪里去</t>
   </si>
   <si>
-    <t>Escape_to_Central.</t>
-  </si>
-  <si>
     <t>『黄金』</t>
   </si>
   <si>
-    <t>A.D.1900_Invisible_War.</t>
-  </si>
-  <si>
     <t>于天顶进行有所价值的一战</t>
   </si>
   <si>
-    <t>Light.</t>
-  </si>
-  <si>
     <t>破裂的恶意</t>
-  </si>
-  <si>
-    <t>Devil_in_Evil.</t>
   </si>
   <si>
     <t>由圣守护天使传达的神谕</t>
@@ -4007,9 +3989,6 @@
     <t>圣守护天使托付神谕</t>
   </si>
   <si>
-    <t>头戴L冠的小小光辉</t>
-  </si>
-  <si>
     <t>苏醒的野兽前往钢城</t>
   </si>
   <si>
@@ -4631,10 +4610,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>于铁窗之内的致意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名为上条当麻现象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4755,10 +4730,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上条当麻化现象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>来自铁窗之内的致意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5042,6 +5013,66 @@
   </si>
   <si>
     <t>或许正因是前提才包含结论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上条当麻现象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自铁窗内的致意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头戴Ｌ冠的小小光辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“黄金”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devil_in_Evil.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生存所需</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃跑的方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在顶点的宝贵一战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破裂的恶意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Destiny_Joint.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Escape_to_Central.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.D.1900_Invisible_War.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5881,8 +5912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
-      <selection activeCell="G334" sqref="G334"/>
+    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="G341" sqref="G341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5899,22 +5930,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25">
       <c r="A1" s="2" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>1</v>
@@ -5922,20 +5953,20 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
@@ -5943,13 +5974,13 @@
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="2" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17" t="s">
@@ -5964,13 +5995,13 @@
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="2" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17" t="s">
@@ -5980,18 +6011,18 @@
         <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="2" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17" t="s">
@@ -6006,13 +6037,13 @@
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="2" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17" t="s">
@@ -6027,13 +6058,13 @@
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="2" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
@@ -6057,13 +6088,13 @@
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="2" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
@@ -6078,13 +6109,13 @@
     </row>
     <row r="10" spans="1:7" ht="14.25">
       <c r="A10" s="2" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17" t="s">
@@ -6099,13 +6130,13 @@
     </row>
     <row r="11" spans="1:7" ht="14.25">
       <c r="A11" s="2" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17" t="s">
@@ -6120,13 +6151,13 @@
     </row>
     <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="2" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17" t="s">
@@ -6141,13 +6172,13 @@
     </row>
     <row r="13" spans="1:7" ht="14.25">
       <c r="A13" s="2" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17" t="s">
@@ -6162,13 +6193,13 @@
     </row>
     <row r="14" spans="1:7" ht="14.25">
       <c r="A14" s="2" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17" t="s">
@@ -6192,13 +6223,13 @@
     </row>
     <row r="16" spans="1:7" ht="14.25">
       <c r="A16" s="2" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17" t="s">
@@ -6213,13 +6244,13 @@
     </row>
     <row r="17" spans="1:7" ht="14.25">
       <c r="A17" s="2" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
@@ -6234,13 +6265,13 @@
     </row>
     <row r="18" spans="1:7" ht="14.25">
       <c r="A18" s="2" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17" t="s">
@@ -6255,13 +6286,13 @@
     </row>
     <row r="19" spans="1:7" ht="14.25">
       <c r="A19" s="2" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17" t="s">
@@ -6276,13 +6307,13 @@
     </row>
     <row r="20" spans="1:7" ht="14.25">
       <c r="A20" s="2" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17" t="s">
@@ -6297,13 +6328,13 @@
     </row>
     <row r="21" spans="1:7" ht="14.25">
       <c r="A21" s="2" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
@@ -6327,13 +6358,13 @@
     </row>
     <row r="23" spans="1:7" ht="14.25">
       <c r="A23" s="2" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17" t="s">
@@ -6346,13 +6377,13 @@
     </row>
     <row r="24" spans="1:7" ht="14.25">
       <c r="A24" s="2" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17" t="s">
@@ -6365,13 +6396,13 @@
     </row>
     <row r="25" spans="1:7" ht="14.25">
       <c r="A25" s="2" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
@@ -6384,13 +6415,13 @@
     </row>
     <row r="26" spans="1:7" ht="14.25">
       <c r="A26" s="2" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
@@ -6403,13 +6434,13 @@
     </row>
     <row r="27" spans="1:7" ht="14.25">
       <c r="A27" s="2" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
@@ -6422,13 +6453,13 @@
     </row>
     <row r="28" spans="1:7" ht="14.25">
       <c r="A28" s="2" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
@@ -6450,13 +6481,13 @@
     </row>
     <row r="30" spans="1:7" ht="14.25">
       <c r="A30" s="2" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17" t="s">
@@ -6471,20 +6502,20 @@
     </row>
     <row r="31" spans="1:7" ht="14.25">
       <c r="A31" s="2" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17" t="s">
         <v>48</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>49</v>
@@ -6492,20 +6523,20 @@
     </row>
     <row r="32" spans="1:7" ht="14.25">
       <c r="A32" s="2" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>51</v>
@@ -6513,20 +6544,20 @@
     </row>
     <row r="33" spans="1:7" ht="14.25">
       <c r="A33" s="2" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>53</v>
@@ -6534,20 +6565,20 @@
     </row>
     <row r="34" spans="1:7" ht="14.25">
       <c r="A34" s="2" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>55</v>
@@ -6555,13 +6586,13 @@
     </row>
     <row r="35" spans="1:7" ht="14.25">
       <c r="A35" s="2" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17" t="s">
@@ -6585,39 +6616,39 @@
     </row>
     <row r="37" spans="1:7" ht="14.25">
       <c r="A37" s="2" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" ht="14.25">
       <c r="A38" s="2" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>59</v>
@@ -6625,13 +6656,13 @@
     </row>
     <row r="39" spans="1:7" ht="14.25">
       <c r="A39" s="2" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="17" t="s">
@@ -6646,13 +6677,13 @@
     </row>
     <row r="40" spans="1:7" ht="14.25">
       <c r="A40" s="2" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="17" t="s">
@@ -6667,13 +6698,13 @@
     </row>
     <row r="41" spans="1:7" ht="14.25">
       <c r="A41" s="2" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17" t="s">
@@ -6688,20 +6719,20 @@
     </row>
     <row r="42" spans="1:7" ht="14.25">
       <c r="A42" s="2" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="G42" s="2"/>
     </row>
@@ -6716,13 +6747,13 @@
     </row>
     <row r="44" spans="1:7" ht="14.25">
       <c r="A44" s="2" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17" t="s">
@@ -6737,13 +6768,13 @@
     </row>
     <row r="45" spans="1:7" ht="14.25">
       <c r="A45" s="2" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17" t="s">
@@ -6758,13 +6789,13 @@
     </row>
     <row r="46" spans="1:7" ht="14.25">
       <c r="A46" s="2" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17" t="s">
@@ -6779,13 +6810,13 @@
     </row>
     <row r="47" spans="1:7" ht="14.25">
       <c r="A47" s="2" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17" t="s">
@@ -6800,20 +6831,20 @@
     </row>
     <row r="48" spans="1:7" ht="14.25">
       <c r="A48" s="2" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>75</v>
@@ -6821,13 +6852,13 @@
     </row>
     <row r="49" spans="1:7" ht="14.25">
       <c r="A49" s="2" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17" t="s">
@@ -6851,20 +6882,20 @@
     </row>
     <row r="51" spans="1:7" ht="14.25">
       <c r="A51" s="2" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17" t="s">
         <v>78</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>79</v>
@@ -6872,20 +6903,20 @@
     </row>
     <row r="52" spans="1:7" ht="14.25">
       <c r="A52" s="2" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>81</v>
@@ -6893,20 +6924,20 @@
     </row>
     <row r="53" spans="1:7" ht="14.25">
       <c r="A53" s="2" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>83</v>
@@ -6914,41 +6945,41 @@
     </row>
     <row r="54" spans="1:7" ht="14.25">
       <c r="A54" s="2" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.25">
       <c r="A55" s="2" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>86</v>
@@ -6956,13 +6987,13 @@
     </row>
     <row r="56" spans="1:7" ht="14.25">
       <c r="A56" s="2" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="2" t="s">
@@ -6986,20 +7017,20 @@
     </row>
     <row r="58" spans="1:7" ht="14.25">
       <c r="A58" s="2" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>90</v>
@@ -7007,20 +7038,20 @@
     </row>
     <row r="59" spans="1:7" ht="14.25">
       <c r="A59" s="2" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>92</v>
@@ -7028,20 +7059,20 @@
     </row>
     <row r="60" spans="1:7" ht="14.25">
       <c r="A60" s="2" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>94</v>
@@ -7049,20 +7080,20 @@
     </row>
     <row r="61" spans="1:7" ht="14.25">
       <c r="A61" s="2" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="2" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>95</v>
@@ -7070,20 +7101,20 @@
     </row>
     <row r="62" spans="1:7" ht="14.25">
       <c r="A62" s="2" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>97</v>
@@ -7091,22 +7122,22 @@
     </row>
     <row r="63" spans="1:7" ht="14.25">
       <c r="A63" s="2" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>100</v>
@@ -7114,20 +7145,20 @@
     </row>
     <row r="64" spans="1:7" ht="14.25">
       <c r="A64" s="2" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>103</v>
@@ -7135,20 +7166,20 @@
     </row>
     <row r="65" spans="1:7" ht="14.25">
       <c r="A65" s="2" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>106</v>
@@ -7156,20 +7187,20 @@
     </row>
     <row r="66" spans="1:7" ht="14.25">
       <c r="A66" s="2" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>109</v>
@@ -7177,20 +7208,20 @@
     </row>
     <row r="67" spans="1:7" ht="14.25">
       <c r="A67" s="2" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>111</v>
@@ -7207,20 +7238,20 @@
     </row>
     <row r="69" spans="1:7" ht="14.25">
       <c r="A69" s="2" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="17" t="s">
         <v>112</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>113</v>
@@ -7228,20 +7259,20 @@
     </row>
     <row r="70" spans="1:7" ht="14.25">
       <c r="A70" s="2" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>115</v>
@@ -7249,20 +7280,20 @@
     </row>
     <row r="71" spans="1:7" ht="14.25">
       <c r="A71" s="2" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>117</v>
@@ -7270,22 +7301,22 @@
     </row>
     <row r="72" spans="1:7" ht="14.25">
       <c r="A72" s="2" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>119</v>
@@ -7293,20 +7324,20 @@
     </row>
     <row r="73" spans="1:7" ht="14.25">
       <c r="A73" s="2" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="2" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>120</v>
@@ -7314,20 +7345,20 @@
     </row>
     <row r="74" spans="1:7" ht="14.25">
       <c r="A74" s="2" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>122</v>
@@ -7335,20 +7366,20 @@
     </row>
     <row r="75" spans="1:7" ht="14.25">
       <c r="A75" s="2" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="2" t="s">
         <v>123</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>124</v>
@@ -7365,13 +7396,13 @@
     </row>
     <row r="77" spans="1:7" ht="14.25">
       <c r="A77" s="2" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="2" t="s">
@@ -7386,20 +7417,20 @@
     </row>
     <row r="78" spans="1:7" ht="14.25">
       <c r="A78" s="2" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>128</v>
@@ -7407,20 +7438,20 @@
     </row>
     <row r="79" spans="1:7" ht="14.25">
       <c r="A79" s="2" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>130</v>
@@ -7428,20 +7459,20 @@
     </row>
     <row r="80" spans="1:7" ht="14.25">
       <c r="A80" s="2" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>132</v>
@@ -7449,20 +7480,20 @@
     </row>
     <row r="81" spans="1:7" ht="14.25">
       <c r="A81" s="2" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>134</v>
@@ -7470,20 +7501,20 @@
     </row>
     <row r="82" spans="1:7" ht="14.25">
       <c r="A82" s="2" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="2" t="s">
         <v>135</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>136</v>
@@ -7491,20 +7522,20 @@
     </row>
     <row r="83" spans="1:7" ht="14.25">
       <c r="A83" s="2" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="2" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>137</v>
@@ -7512,20 +7543,20 @@
     </row>
     <row r="84" spans="1:7" ht="14.25">
       <c r="A84" s="2" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="2" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>138</v>
@@ -7533,13 +7564,13 @@
     </row>
     <row r="85" spans="1:7" ht="14.25">
       <c r="A85" s="2" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="2" t="s">
@@ -7554,20 +7585,20 @@
     </row>
     <row r="86" spans="1:7" ht="14.25">
       <c r="A86" s="2" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="2" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>142</v>
@@ -7575,20 +7606,20 @@
     </row>
     <row r="87" spans="1:7" ht="14.25">
       <c r="A87" s="2" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="2" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>144</v>
@@ -7596,23 +7627,23 @@
     </row>
     <row r="88" spans="1:7" ht="14.25">
       <c r="A88" s="2" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="2" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="14.25">
@@ -7626,22 +7657,22 @@
     </row>
     <row r="90" spans="1:7" ht="14.25">
       <c r="A90" s="2" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>146</v>
@@ -7649,22 +7680,22 @@
     </row>
     <row r="91" spans="1:7" ht="14.25">
       <c r="A91" s="2" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>148</v>
@@ -7672,22 +7703,22 @@
     </row>
     <row r="92" spans="1:7" ht="14.25">
       <c r="A92" s="2" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>150</v>
@@ -7695,13 +7726,13 @@
     </row>
     <row r="93" spans="1:7" ht="14.25">
       <c r="A93" s="2" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>151</v>
@@ -7710,7 +7741,7 @@
         <v>151</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>152</v>
@@ -7718,22 +7749,22 @@
     </row>
     <row r="94" spans="1:7" ht="14.25">
       <c r="A94" s="2" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>154</v>
@@ -7741,22 +7772,22 @@
     </row>
     <row r="95" spans="1:7" ht="14.25">
       <c r="A95" s="2" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>155</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>156</v>
@@ -7773,20 +7804,20 @@
     </row>
     <row r="97" spans="1:7" ht="14.25">
       <c r="A97" s="2" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="2" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>157</v>
@@ -7794,20 +7825,20 @@
     </row>
     <row r="98" spans="1:7" ht="14.25">
       <c r="A98" s="2" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="2" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>158</v>
@@ -7815,20 +7846,20 @@
     </row>
     <row r="99" spans="1:7" ht="14.25">
       <c r="A99" s="2" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="2" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>159</v>
@@ -7836,20 +7867,20 @@
     </row>
     <row r="100" spans="1:7" ht="14.25">
       <c r="A100" s="2" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="2" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>160</v>
@@ -7857,20 +7888,20 @@
     </row>
     <row r="101" spans="1:7" ht="14.25">
       <c r="A101" s="2" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="2" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>161</v>
@@ -7878,20 +7909,20 @@
     </row>
     <row r="102" spans="1:7" ht="14.25">
       <c r="A102" s="2" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="2" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>162</v>
@@ -7908,20 +7939,20 @@
     </row>
     <row r="104" spans="1:7" ht="14.25">
       <c r="A104" s="2" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="2" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>163</v>
@@ -7929,20 +7960,20 @@
     </row>
     <row r="105" spans="1:7" ht="14.25">
       <c r="A105" s="2" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="2" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>164</v>
@@ -7950,20 +7981,20 @@
     </row>
     <row r="106" spans="1:7" ht="14.25">
       <c r="A106" s="2" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D106" s="17"/>
       <c r="E106" s="2" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>165</v>
@@ -7971,20 +8002,20 @@
     </row>
     <row r="107" spans="1:7" ht="14.25">
       <c r="A107" s="2" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="2" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>166</v>
@@ -7992,20 +8023,20 @@
     </row>
     <row r="108" spans="1:7" ht="14.25">
       <c r="A108" s="2" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D108" s="17"/>
       <c r="E108" s="2" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>167</v>
@@ -8013,20 +8044,20 @@
     </row>
     <row r="109" spans="1:7" ht="14.25">
       <c r="A109" s="2" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="2" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>168</v>
@@ -8034,20 +8065,20 @@
     </row>
     <row r="110" spans="1:7" ht="14.25">
       <c r="A110" s="2" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D110" s="17"/>
       <c r="E110" s="2" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>169</v>
@@ -8064,20 +8095,20 @@
     </row>
     <row r="112" spans="1:7" ht="14.25">
       <c r="A112" s="2" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D112" s="17"/>
       <c r="E112" s="2" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>170</v>
@@ -8085,20 +8116,20 @@
     </row>
     <row r="113" spans="1:7" ht="14.25">
       <c r="A113" s="2" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="2" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>171</v>
@@ -8106,20 +8137,20 @@
     </row>
     <row r="114" spans="1:7" ht="14.25">
       <c r="A114" s="2" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D114" s="17"/>
       <c r="E114" s="2" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>172</v>
@@ -8127,20 +8158,20 @@
     </row>
     <row r="115" spans="1:7" ht="14.25">
       <c r="A115" s="2" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="2" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>173</v>
@@ -8148,20 +8179,20 @@
     </row>
     <row r="116" spans="1:7" ht="14.25">
       <c r="A116" s="2" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="2" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>174</v>
@@ -8169,20 +8200,20 @@
     </row>
     <row r="117" spans="1:7" ht="14.25">
       <c r="A117" s="2" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="2" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>175</v>
@@ -8199,22 +8230,22 @@
     </row>
     <row r="119" spans="1:7" ht="14.25">
       <c r="A119" s="2" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>176</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>177</v>
@@ -8222,22 +8253,22 @@
     </row>
     <row r="120" spans="1:7" ht="14.25">
       <c r="A120" s="2" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>178</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>179</v>
@@ -8245,22 +8276,22 @@
     </row>
     <row r="121" spans="1:7" ht="14.25">
       <c r="A121" s="2" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>180</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>181</v>
@@ -8268,22 +8299,22 @@
     </row>
     <row r="122" spans="1:7" ht="14.25">
       <c r="A122" s="2" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>182</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>183</v>
@@ -8291,22 +8322,22 @@
     </row>
     <row r="123" spans="1:7" ht="14.25">
       <c r="A123" s="2" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>185</v>
@@ -8314,22 +8345,22 @@
     </row>
     <row r="124" spans="1:7" ht="14.25">
       <c r="A124" s="2" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>186</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>187</v>
@@ -8337,22 +8368,22 @@
     </row>
     <row r="125" spans="1:7" ht="14.25">
       <c r="A125" s="2" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>188</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>189</v>
@@ -8360,13 +8391,13 @@
     </row>
     <row r="126" spans="1:7" ht="14.25">
       <c r="A126" s="2" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>190</v>
@@ -8375,7 +8406,7 @@
         <v>190</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>191</v>
@@ -8383,22 +8414,22 @@
     </row>
     <row r="127" spans="1:7" ht="14.25">
       <c r="A127" s="2" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>192</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>193</v>
@@ -8406,22 +8437,22 @@
     </row>
     <row r="128" spans="1:7" ht="14.25">
       <c r="A128" s="2" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>194</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>195</v>
@@ -8429,22 +8460,22 @@
     </row>
     <row r="129" spans="1:7" ht="14.25">
       <c r="A129" s="2" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>1339</v>
+        <v>1330</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>198</v>
@@ -8452,22 +8483,22 @@
     </row>
     <row r="130" spans="1:7" ht="14.25">
       <c r="A130" s="2" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>200</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>201</v>
@@ -8475,22 +8506,22 @@
     </row>
     <row r="131" spans="1:7" ht="14.25">
       <c r="A131" s="2" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>203</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>204</v>
@@ -8498,22 +8529,22 @@
     </row>
     <row r="132" spans="1:7" ht="14.25">
       <c r="A132" s="2" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>206</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>207</v>
@@ -8521,22 +8552,22 @@
     </row>
     <row r="133" spans="1:7" ht="14.25">
       <c r="A133" s="2" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>209</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>210</v>
@@ -8544,22 +8575,22 @@
     </row>
     <row r="134" spans="1:7" ht="14.25">
       <c r="A134" s="2" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>212</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>213</v>
@@ -8567,22 +8598,22 @@
     </row>
     <row r="135" spans="1:7" ht="14.25">
       <c r="A135" s="2" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>215</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>216</v>
@@ -8590,22 +8621,22 @@
     </row>
     <row r="136" spans="1:7" ht="14.25">
       <c r="A136" s="2" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>1340</v>
+        <v>1331</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>216</v>
@@ -8613,22 +8644,22 @@
     </row>
     <row r="137" spans="1:7" ht="14.25">
       <c r="A137" s="2" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>220</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>221</v>
@@ -8636,22 +8667,22 @@
     </row>
     <row r="138" spans="1:7" ht="14.25">
       <c r="A138" s="2" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>221</v>
@@ -8659,22 +8690,22 @@
     </row>
     <row r="139" spans="1:7" ht="14.25">
       <c r="A139" s="2" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>221</v>
@@ -8682,22 +8713,22 @@
     </row>
     <row r="140" spans="1:7" ht="14.25">
       <c r="A140" s="2" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>226</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>221</v>
@@ -8714,229 +8745,229 @@
     </row>
     <row r="142" spans="1:7" ht="14.25">
       <c r="A142" s="2" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="D142" s="17" t="s">
         <v>227</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="14.25">
       <c r="A143" s="2" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>228</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="14.25">
       <c r="A144" s="2" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>229</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="F144" s="16" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="14.25">
       <c r="A145" s="2" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D145" s="17" t="s">
         <v>230</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="14.25">
       <c r="A146" s="2" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>231</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="F146" s="21" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="14.25">
       <c r="A147" s="2" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="14.25">
       <c r="A148" s="2" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>232</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>232</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="14.25">
       <c r="A149" s="2" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>233</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="14.25">
       <c r="A150" s="2" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D150" s="17" t="s">
         <v>234</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="14.25">
       <c r="A151" s="2" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D151" s="17" t="s">
         <v>235</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>236</v>
@@ -8953,105 +8984,105 @@
     </row>
     <row r="153" spans="1:7" ht="14.25">
       <c r="A153" s="2" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>237</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="14.25">
       <c r="A154" s="2" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>238</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="14.25">
       <c r="A155" s="2" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>239</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="14.25">
       <c r="A156" s="2" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>240</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="14.25">
       <c r="A157" s="2" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>241</v>
@@ -9060,33 +9091,33 @@
         <v>241</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="14.25">
       <c r="A158" s="2" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>242</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="14.25">
@@ -9100,22 +9131,22 @@
     </row>
     <row r="160" spans="1:7" ht="14.25">
       <c r="A160" s="2" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>243</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="F160" s="17" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>244</v>
@@ -9123,22 +9154,22 @@
     </row>
     <row r="161" spans="1:7" ht="14.25">
       <c r="A161" s="2" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>245</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="F161" s="17" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>246</v>
@@ -9146,22 +9177,22 @@
     </row>
     <row r="162" spans="1:7" ht="14.25">
       <c r="A162" s="2" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>247</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="F162" s="17" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>248</v>
@@ -9169,22 +9200,22 @@
     </row>
     <row r="163" spans="1:7" ht="14.25">
       <c r="A163" s="2" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>250</v>
@@ -9192,22 +9223,22 @@
     </row>
     <row r="164" spans="1:7" ht="14.25">
       <c r="A164" s="2" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>251</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>252</v>
@@ -9215,13 +9246,13 @@
     </row>
     <row r="165" spans="1:7" ht="14.25">
       <c r="A165" s="2" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D165" s="17" t="s">
         <v>253</v>
@@ -9238,19 +9269,19 @@
     </row>
     <row r="166" spans="1:7" ht="14.25">
       <c r="A166" s="2" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="D166" s="17" t="s">
         <v>255</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="F166" s="17" t="s">
         <v>255</v>
@@ -9261,19 +9292,19 @@
     </row>
     <row r="167" spans="1:7" ht="14.25">
       <c r="A167" s="2" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="D167" s="17" t="s">
         <v>257</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="F167" s="17" t="s">
         <v>257</v>
@@ -9284,19 +9315,19 @@
     </row>
     <row r="168" spans="1:7" ht="14.25">
       <c r="A168" s="2" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D168" s="17" t="s">
         <v>259</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="F168" s="17" t="s">
         <v>259</v>
@@ -9307,19 +9338,19 @@
     </row>
     <row r="169" spans="1:7" ht="14.25">
       <c r="A169" s="2" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D169" s="17" t="s">
         <v>261</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="F169" s="17" t="s">
         <v>261</v>
@@ -9330,19 +9361,19 @@
     </row>
     <row r="170" spans="1:7" ht="14.25">
       <c r="A170" s="2" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D170" s="17" t="s">
         <v>263</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="F170" s="17" t="s">
         <v>263</v>
@@ -9353,19 +9384,19 @@
     </row>
     <row r="171" spans="1:7" ht="14.25">
       <c r="A171" s="2" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D171" s="17" t="s">
         <v>265</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="F171" s="17" t="s">
         <v>265</v>
@@ -9376,19 +9407,19 @@
     </row>
     <row r="172" spans="1:7" ht="14.25">
       <c r="A172" s="2" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D172" s="17" t="s">
         <v>267</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="F172" s="17" t="s">
         <v>267</v>
@@ -9399,19 +9430,19 @@
     </row>
     <row r="173" spans="1:7" ht="14.25">
       <c r="A173" s="2" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D173" s="17" t="s">
         <v>269</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="F173" s="17" t="s">
         <v>269</v>
@@ -9431,22 +9462,22 @@
     </row>
     <row r="175" spans="1:7" ht="14.25">
       <c r="A175" s="2" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D175" s="17" t="s">
         <v>271</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>272</v>
@@ -9454,22 +9485,22 @@
     </row>
     <row r="176" spans="1:7" ht="14.25">
       <c r="A176" s="2" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="F176" s="18" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>273</v>
@@ -9477,22 +9508,22 @@
     </row>
     <row r="177" spans="1:7" ht="14.25">
       <c r="A177" s="2" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D177" s="17" t="s">
         <v>274</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>1342</v>
+        <v>1333</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>275</v>
@@ -9500,22 +9531,22 @@
     </row>
     <row r="178" spans="1:7" ht="14.25">
       <c r="A178" s="2" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>276</v>
@@ -9523,13 +9554,13 @@
     </row>
     <row r="179" spans="1:7" ht="14.25">
       <c r="A179" s="2" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D179" s="17" t="s">
         <v>277</v>
@@ -9538,7 +9569,7 @@
         <v>277</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>278</v>
@@ -9546,22 +9577,22 @@
     </row>
     <row r="180" spans="1:7" ht="14.25">
       <c r="A180" s="2" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>279</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>280</v>
@@ -9569,22 +9600,22 @@
     </row>
     <row r="181" spans="1:7" ht="14.25">
       <c r="A181" s="2" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="D181" s="17" t="s">
         <v>281</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>282</v>
@@ -9601,19 +9632,19 @@
     </row>
     <row r="183" spans="1:7" ht="14.25">
       <c r="A183" s="2" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="F183" s="17" t="s">
         <v>283</v>
@@ -9624,22 +9655,22 @@
     </row>
     <row r="184" spans="1:7" ht="14.25">
       <c r="A184" s="2" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>285</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="F184" s="17" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>286</v>
@@ -9647,22 +9678,22 @@
     </row>
     <row r="185" spans="1:7" ht="14.25">
       <c r="A185" s="2" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>287</v>
@@ -9670,22 +9701,22 @@
     </row>
     <row r="186" spans="1:7" ht="14.25">
       <c r="A186" s="2" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="D186" s="17" t="s">
         <v>288</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="F186" s="18" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>289</v>
@@ -9693,45 +9724,45 @@
     </row>
     <row r="187" spans="1:7" ht="14.25">
       <c r="A187" s="2" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="D187" s="17" t="s">
         <v>290</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="F187" s="18" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="14.25">
       <c r="A188" s="2" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>291</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="F188" s="17" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>292</v>
@@ -9748,59 +9779,59 @@
     </row>
     <row r="190" spans="1:7" ht="14.25">
       <c r="A190" s="2" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>293</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="F190" s="17" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="14.25">
       <c r="A191" s="2" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="14.25">
       <c r="A192" s="2" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>294</v>
@@ -9809,102 +9840,102 @@
         <v>294</v>
       </c>
       <c r="F192" s="17" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="14.25">
       <c r="A193" s="2" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D193" s="17" t="s">
         <v>295</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="F193" s="17" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="14.25">
       <c r="A194" s="2" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>296</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="F194" s="17" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="14.25">
       <c r="A195" s="2" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>297</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="F195" s="17" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="14.25">
       <c r="A196" s="2" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="14.25">
@@ -9918,26 +9949,26 @@
     </row>
     <row r="198" spans="1:7" ht="14.25">
       <c r="A198" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2" t="s">
         <v>298</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="E198" s="17" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="F198" s="17" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="G198" s="2"/>
     </row>
     <row r="199" spans="1:7" ht="14.25">
       <c r="A199" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
@@ -9956,7 +9987,7 @@
     </row>
     <row r="200" spans="1:7" ht="14.25">
       <c r="A200" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="2" t="s">
@@ -9975,7 +10006,7 @@
     </row>
     <row r="201" spans="1:7" ht="14.25">
       <c r="A201" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="2" t="s">
@@ -9994,7 +10025,7 @@
     </row>
     <row r="202" spans="1:7" ht="14.25">
       <c r="A202" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2" t="s">
@@ -10013,7 +10044,7 @@
     </row>
     <row r="203" spans="1:7" ht="14.25">
       <c r="A203" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2" t="s">
@@ -10032,7 +10063,7 @@
     </row>
     <row r="204" spans="1:7" ht="14.25">
       <c r="A204" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2" t="s">
@@ -10051,7 +10082,7 @@
     </row>
     <row r="205" spans="1:7" ht="14.25">
       <c r="A205" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2" t="s">
@@ -10070,7 +10101,7 @@
     </row>
     <row r="206" spans="1:7" ht="14.25">
       <c r="A206" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" s="2" t="s">
@@ -10089,7 +10120,7 @@
     </row>
     <row r="207" spans="1:7" ht="14.25">
       <c r="A207" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" s="2" t="s">
@@ -10108,7 +10139,7 @@
     </row>
     <row r="208" spans="1:7" ht="14.25">
       <c r="A208" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="2" t="s">
@@ -10127,7 +10158,7 @@
     </row>
     <row r="209" spans="1:7" ht="14.25">
       <c r="A209" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" s="2" t="s">
@@ -10146,7 +10177,7 @@
     </row>
     <row r="210" spans="1:7" ht="14.25">
       <c r="A210" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" s="2" t="s">
@@ -10165,7 +10196,7 @@
     </row>
     <row r="211" spans="1:7" ht="14.25">
       <c r="A211" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="2" t="s">
@@ -10184,7 +10215,7 @@
     </row>
     <row r="212" spans="1:7" ht="14.25">
       <c r="A212" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2" t="s">
@@ -10203,7 +10234,7 @@
     </row>
     <row r="213" spans="1:7" ht="14.25">
       <c r="A213" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2" t="s">
@@ -10222,7 +10253,7 @@
     </row>
     <row r="214" spans="1:7" ht="14.25">
       <c r="A214" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2" t="s">
@@ -10241,7 +10272,7 @@
     </row>
     <row r="215" spans="1:7" ht="14.25">
       <c r="A215" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="2" t="s">
@@ -10260,7 +10291,7 @@
     </row>
     <row r="216" spans="1:7" ht="14.25">
       <c r="A216" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="2" t="s">
@@ -10279,7 +10310,7 @@
     </row>
     <row r="217" spans="1:7" ht="14.25">
       <c r="A217" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" s="2" t="s">
@@ -10298,7 +10329,7 @@
     </row>
     <row r="218" spans="1:7" ht="14.25">
       <c r="A218" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="2" t="s">
@@ -10317,7 +10348,7 @@
     </row>
     <row r="219" spans="1:7" ht="14.25">
       <c r="A219" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="2" t="s">
@@ -10336,7 +10367,7 @@
     </row>
     <row r="220" spans="1:7" ht="14.25">
       <c r="A220" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="2" t="s">
@@ -10355,7 +10386,7 @@
     </row>
     <row r="221" spans="1:7" ht="14.25">
       <c r="A221" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" s="2" t="s">
@@ -10374,7 +10405,7 @@
     </row>
     <row r="222" spans="1:7" ht="14.25">
       <c r="A222" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" s="2" t="s">
@@ -10393,7 +10424,7 @@
     </row>
     <row r="223" spans="1:7" ht="14.25">
       <c r="A223" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="2" t="s">
@@ -10412,7 +10443,7 @@
     </row>
     <row r="224" spans="1:7" ht="14.25">
       <c r="A224" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="2" t="s">
@@ -10431,7 +10462,7 @@
     </row>
     <row r="225" spans="1:7" ht="14.25">
       <c r="A225" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" s="2" t="s">
@@ -10450,7 +10481,7 @@
     </row>
     <row r="226" spans="1:7" ht="14.25">
       <c r="A226" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2" t="s">
@@ -10469,7 +10500,7 @@
     </row>
     <row r="227" spans="1:7" ht="14.25">
       <c r="A227" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2" t="s">
@@ -10488,7 +10519,7 @@
     </row>
     <row r="228" spans="1:7" ht="14.25">
       <c r="A228" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" s="2" t="s">
@@ -10507,7 +10538,7 @@
     </row>
     <row r="229" spans="1:7" ht="14.25">
       <c r="A229" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="2" t="s">
@@ -10526,7 +10557,7 @@
     </row>
     <row r="230" spans="1:7" ht="14.25">
       <c r="A230" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2" t="s">
@@ -10545,7 +10576,7 @@
     </row>
     <row r="231" spans="1:7" ht="14.25">
       <c r="A231" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2" t="s">
@@ -10564,7 +10595,7 @@
     </row>
     <row r="232" spans="1:7" ht="14.25">
       <c r="A232" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" s="2" t="s">
@@ -10583,41 +10614,41 @@
     </row>
     <row r="233" spans="1:7" ht="14.25">
       <c r="A233" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="F233" s="17" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="G233" s="2"/>
     </row>
     <row r="234" spans="1:7" ht="14.25">
       <c r="A234" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>332</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D234" s="17" t="s">
         <v>333</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="F234" s="16" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>334</v>
@@ -10625,23 +10656,23 @@
     </row>
     <row r="235" spans="1:7" ht="16.5">
       <c r="A235" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" s="2" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D235" s="17" t="s">
         <v>335</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="F235" s="17" t="s">
         <v>335</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="14.25">
@@ -10655,13 +10686,13 @@
     </row>
     <row r="237" spans="1:7" ht="14.25">
       <c r="A237" s="2" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="D237" s="17" t="s">
         <v>336</v>
@@ -10678,22 +10709,22 @@
     </row>
     <row r="238" spans="1:7" ht="14.25">
       <c r="A238" s="2" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D238" s="17" t="s">
         <v>338</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>339</v>
@@ -10701,22 +10732,22 @@
     </row>
     <row r="239" spans="1:7" ht="14.25">
       <c r="A239" s="2" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D239" s="17" t="s">
         <v>340</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="F239" s="17" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>341</v>
@@ -10724,13 +10755,13 @@
     </row>
     <row r="240" spans="1:7" ht="14.25">
       <c r="A240" s="2" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D240" s="17" t="s">
         <v>342</v>
@@ -10747,13 +10778,13 @@
     </row>
     <row r="241" spans="1:7" ht="14.25">
       <c r="A241" s="2" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D241" s="17" t="s">
         <v>344</v>
@@ -10770,22 +10801,22 @@
     </row>
     <row r="242" spans="1:7" ht="14.25">
       <c r="A242" s="2" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D242" s="17" t="s">
         <v>346</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>347</v>
@@ -10793,36 +10824,36 @@
     </row>
     <row r="243" spans="1:7" ht="14.25">
       <c r="A243" s="2" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>348</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="F243" s="9" t="s">
-        <v>1283</v>
+        <v>1276</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="14.25">
       <c r="A244" s="2" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D244" s="17" t="s">
         <v>349</v>
@@ -10831,79 +10862,79 @@
         <v>349</v>
       </c>
       <c r="F244" s="18" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="14.25">
       <c r="A245" s="2" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D245" s="17" t="s">
         <v>350</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="F245" s="18" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="14.25">
       <c r="A246" s="2" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="D246" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="F246" s="9" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="14.25">
       <c r="A247" s="2" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D247" s="17" t="s">
         <v>352</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="F247" s="9" t="s">
-        <v>1286</v>
+        <v>1279</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="14.25">
@@ -10917,82 +10948,82 @@
     </row>
     <row r="249" spans="1:7" ht="14.25">
       <c r="A249" s="2" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="D249" s="17" t="s">
         <v>353</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="14.25">
       <c r="A250" s="2" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="14.25">
       <c r="A251" s="2" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="14.25">
       <c r="A252" s="2" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>355</v>
@@ -11001,56 +11032,56 @@
         <v>355</v>
       </c>
       <c r="F252" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="G252" s="2" t="s">
         <v>923</v>
-      </c>
-      <c r="G252" s="2" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="14.25">
       <c r="A253" s="2" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>356</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="F253" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="G253" s="2" t="s">
         <v>924</v>
-      </c>
-      <c r="G253" s="2" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="14.25">
       <c r="A254" s="2" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>357</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="F254" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G254" s="2" t="s">
         <v>925</v>
-      </c>
-      <c r="G254" s="2" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="14.25">
@@ -11064,125 +11095,125 @@
     </row>
     <row r="256" spans="1:7" ht="14.25">
       <c r="A256" s="2" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="D256" s="17" t="s">
         <v>358</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="14.25">
       <c r="A257" s="2" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>359</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="14.25">
       <c r="A258" s="2" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>360</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="F258" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="G258" s="2" t="s">
         <v>934</v>
-      </c>
-      <c r="G258" s="2" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="14.25">
       <c r="A259" s="2" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="F259" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="G259" s="2" t="s">
         <v>935</v>
-      </c>
-      <c r="G259" s="2" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="14.25">
       <c r="A260" s="2" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>362</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="F260" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="G260" s="2" t="s">
         <v>936</v>
-      </c>
-      <c r="G260" s="2" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="14.25">
       <c r="A261" s="2" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>363</v>
@@ -11191,24 +11222,24 @@
         <v>364</v>
       </c>
       <c r="E261" s="17" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="F261" s="17" t="s">
+        <v>931</v>
+      </c>
+      <c r="G261" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="G261" s="2" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="14.25">
       <c r="A262" s="2" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D262" s="17" t="s">
         <v>365</v>
@@ -11217,235 +11248,235 @@
         <v>365</v>
       </c>
       <c r="F262" s="17" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="14.25">
       <c r="A263" s="2" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="F263" s="18" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="14.25">
       <c r="A264" s="2" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D264" s="17" t="s">
         <v>366</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="F264" s="17" t="s">
+        <v>938</v>
+      </c>
+      <c r="G264" s="2" t="s">
         <v>944</v>
-      </c>
-      <c r="G264" s="2" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="14.25">
       <c r="A265" s="2" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D265" s="17" t="s">
         <v>366</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="F265" s="17" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="14.25">
       <c r="A266" s="2" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="2" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="E266" s="17" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F266" s="17" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="14.25">
       <c r="A267" s="2" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="F267" s="17" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="14.25">
       <c r="A268" s="2" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="F268" s="17" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="14.25">
       <c r="A269" s="2" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="F269" s="17" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="14.25">
       <c r="A270" s="2" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D270" s="17" t="s">
         <v>367</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="F270" s="18" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="14.25">
       <c r="A271" s="2" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>368</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="F271" s="16" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="14.25">
       <c r="A272" s="2" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="D272" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="E272" s="16" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F272" s="17" t="s">
         <v>959</v>
-      </c>
-      <c r="E272" s="16" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F272" s="17" t="s">
-        <v>965</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>369</v>
@@ -11453,22 +11484,22 @@
     </row>
     <row r="273" spans="1:7" ht="14.25">
       <c r="A273" s="2" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>372</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="F273" s="17" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>371</v>
@@ -11476,22 +11507,22 @@
     </row>
     <row r="274" spans="1:7" ht="14.25">
       <c r="A274" s="2" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>374</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="F274" s="17" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>373</v>
@@ -11499,22 +11530,22 @@
     </row>
     <row r="275" spans="1:7" ht="14.25">
       <c r="A275" s="2" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>370</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="F275" s="17" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>375</v>
@@ -11522,22 +11553,22 @@
     </row>
     <row r="276" spans="1:7" ht="14.25">
       <c r="A276" s="2" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>376</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F276" s="17" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>377</v>
@@ -11545,22 +11576,22 @@
     </row>
     <row r="277" spans="1:7" ht="14.25">
       <c r="A277" s="2" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>378</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F277" s="17" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>379</v>
@@ -11568,22 +11599,22 @@
     </row>
     <row r="278" spans="1:7" ht="14.25">
       <c r="A278" s="2" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>380</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F278" s="17" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>381</v>
@@ -11591,22 +11622,22 @@
     </row>
     <row r="279" spans="1:7" ht="14.25">
       <c r="A279" s="2" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>382</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F279" s="17" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>383</v>
@@ -11614,22 +11645,22 @@
     </row>
     <row r="280" spans="1:7" ht="14.25">
       <c r="A280" s="2" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>384</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>385</v>
@@ -11637,22 +11668,22 @@
     </row>
     <row r="281" spans="1:7" ht="14.25">
       <c r="A281" s="2" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>386</v>
@@ -11660,22 +11691,22 @@
     </row>
     <row r="282" spans="1:7" ht="14.25">
       <c r="A282" s="2" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>388</v>
@@ -11683,48 +11714,48 @@
     </row>
     <row r="283" spans="1:7" ht="14.25">
       <c r="A283" s="2" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>389</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="14.25">
       <c r="A284" s="2" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>390</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="14.25">
@@ -11738,13 +11769,13 @@
     </row>
     <row r="286" spans="1:7" ht="14.25">
       <c r="A286" s="2" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>391</v>
@@ -11753,113 +11784,113 @@
         <v>391</v>
       </c>
       <c r="F286" s="17" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="14.25">
       <c r="A287" s="2" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>392</v>
       </c>
       <c r="E287" s="17" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="F287" s="17" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="14.25">
       <c r="A288" s="2" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="E288" s="17" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="F288" s="17" t="s">
         <v>393</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="14.25">
       <c r="A289" s="2" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="E289" s="17" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="F289" s="17" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="14.25">
       <c r="A290" s="2" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="E290" s="17" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="F290" s="17" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="14.25">
       <c r="A291" s="2" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="D291" s="17" t="s">
         <v>394</v>
@@ -11868,10 +11899,10 @@
         <v>394</v>
       </c>
       <c r="F291" s="17" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="14.25">
@@ -11885,140 +11916,140 @@
     </row>
     <row r="293" spans="1:7" ht="14.25">
       <c r="A293" s="2" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="F293" s="17" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="14.25">
       <c r="A294" s="2" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="F294" s="18" t="s">
-        <v>1301</v>
+        <v>1293</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="14.25">
       <c r="A295" s="2" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="F295" s="18" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="14.25">
       <c r="A296" s="2" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>395</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="F296" s="17" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="14.25">
       <c r="A297" s="2" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>396</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="F297" s="17" t="s">
-        <v>1300</v>
+        <v>1292</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="14.25">
       <c r="A298" s="2" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>397</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="14.25">
@@ -12032,140 +12063,140 @@
     </row>
     <row r="300" spans="1:7" ht="14.25">
       <c r="A300" s="2" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="D300" s="17" t="s">
         <v>398</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="F300" s="16" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="14.25">
       <c r="A301" s="2" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="D301" s="17" t="s">
         <v>399</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F301" s="16" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="14.25">
       <c r="A302" s="2" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="D302" s="17" t="s">
         <v>400</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="F302" s="21" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>1309</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="14.25">
       <c r="A303" s="2" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="D303" s="17" t="s">
         <v>401</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F303" s="16" t="s">
-        <v>1304</v>
+        <v>1296</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>1310</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="14.25">
       <c r="A304" s="2" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="D304" s="17" t="s">
         <v>402</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F304" s="16" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>1311</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="14.25">
       <c r="A305" s="2" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D305" s="17" t="s">
         <v>403</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F305" s="16" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="14.25">
@@ -12179,105 +12210,105 @@
     </row>
     <row r="307" spans="1:7" ht="14.25">
       <c r="A307" s="2" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="D307" s="17" t="s">
         <v>404</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F307" s="18" t="s">
-        <v>1351</v>
+        <v>1342</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>1353</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="14.25">
       <c r="A308" s="2" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>1347</v>
+        <v>1338</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>1348</v>
+        <v>1339</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>1354</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="14.25">
       <c r="A309" s="2" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>1349</v>
+        <v>1340</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>1349</v>
+        <v>1340</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>1355</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="14.25">
       <c r="A310" s="2" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>1350</v>
+        <v>1341</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>1350</v>
+        <v>1341</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>1356</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="14.25">
       <c r="A311" s="2" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="D311" s="17" t="s">
         <v>405</v>
@@ -12286,33 +12317,33 @@
         <v>405</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>1357</v>
+        <v>1348</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>1358</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="14.25">
       <c r="A312" s="2" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="D312" s="17" t="s">
         <v>406</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="F312" s="9" t="s">
-        <v>1352</v>
+        <v>1343</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>1359</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="14.25">
@@ -12326,163 +12357,163 @@
     </row>
     <row r="314" spans="1:7" ht="14.25">
       <c r="A314" s="2" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="D314" s="17" t="s">
         <v>407</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="F314" s="16" t="s">
-        <v>1365</v>
+        <v>1356</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>1364</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="14.25">
       <c r="A315" s="2" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="D315" s="17" t="s">
         <v>408</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="F315" s="16" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="14.25">
       <c r="A316" s="2" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="D316" s="17" t="s">
         <v>409</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F316" s="16" t="s">
-        <v>1367</v>
+        <v>1358</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>1368</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="14.25">
       <c r="A317" s="2" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F317" s="16" t="s">
-        <v>1370</v>
+        <v>1361</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="14.25">
       <c r="A318" s="2" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>1361</v>
+        <v>1352</v>
       </c>
       <c r="F318" s="16" t="s">
-        <v>1361</v>
+        <v>1352</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="14.25">
       <c r="A319" s="2" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="E319" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F319" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G319" s="2" t="s">
         <v>1363</v>
-      </c>
-      <c r="F319" s="16" t="s">
-        <v>1363</v>
-      </c>
-      <c r="G319" s="2" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="14.25">
       <c r="A320" s="2" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="D320" s="17" t="s">
         <v>410</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F320" s="16" t="s">
-        <v>1373</v>
+        <v>1364</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>1374</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="14.25">
@@ -12496,140 +12527,140 @@
     </row>
     <row r="322" spans="1:7" ht="14.25">
       <c r="A322" s="2" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="D322" s="17" t="s">
         <v>411</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="F322" s="16" t="s">
-        <v>1376</v>
+        <v>1367</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>1377</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="14.25">
       <c r="A323" s="2" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="D323" s="17" t="s">
         <v>412</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="F323" s="16" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>1379</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="14.25">
       <c r="A324" s="2" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="D324" s="17" t="s">
         <v>413</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="F324" s="16" t="s">
-        <v>1386</v>
+        <v>1377</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>1380</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="14.25">
       <c r="A325" s="2" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="D325" s="17" t="s">
         <v>414</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="F325" s="16" t="s">
-        <v>1387</v>
+        <v>1378</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="14.25">
       <c r="A326" s="2" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="D326" s="17" t="s">
         <v>415</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="F326" s="17" t="s">
-        <v>1382</v>
+        <v>1373</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>1383</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="14.25">
       <c r="A327" s="2" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="D327" s="17" t="s">
         <v>416</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="F327" s="16" t="s">
-        <v>1384</v>
+        <v>1375</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>1385</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="14.25">
@@ -12643,140 +12674,140 @@
     </row>
     <row r="329" spans="1:7" ht="14.25">
       <c r="A329" s="2" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="D329" s="17" t="s">
         <v>417</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="F329" s="16" t="s">
-        <v>1399</v>
+        <v>1390</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="14.25">
       <c r="A330" s="2" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="D330" s="17" t="s">
         <v>418</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="F330" s="16" t="s">
-        <v>1389</v>
+        <v>1380</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>1390</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="14.25">
       <c r="A331" s="2" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="D331" s="17" t="s">
         <v>419</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="F331" s="16" t="s">
-        <v>1391</v>
+        <v>1382</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>1392</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="14.25">
       <c r="A332" s="2" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="D332" s="17" t="s">
         <v>420</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="F332" s="16" t="s">
-        <v>1393</v>
+        <v>1384</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>1394</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="14.25">
       <c r="A333" s="2" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="D333" s="17" t="s">
         <v>421</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="F333" s="16" t="s">
-        <v>1395</v>
+        <v>1386</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>1396</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="14.25">
       <c r="A334" s="2" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="D334" s="17" t="s">
         <v>422</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="F334" s="16" t="s">
-        <v>1397</v>
+        <v>1388</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>1398</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="14.25">
@@ -12790,128 +12821,140 @@
     </row>
     <row r="336" spans="1:7" ht="14.25">
       <c r="A336" s="2" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="D336" s="17" t="s">
         <v>423</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F336" s="11"/>
+        <v>1116</v>
+      </c>
+      <c r="F336" s="16" t="s">
+        <v>1398</v>
+      </c>
       <c r="G336" s="2" t="s">
-        <v>424</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="14.25">
       <c r="A337" s="2" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>1123</v>
-      </c>
-      <c r="F337" s="11"/>
+        <v>1117</v>
+      </c>
+      <c r="F337" s="16" t="s">
+        <v>1399</v>
+      </c>
       <c r="G337" s="2" t="s">
-        <v>425</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="14.25">
       <c r="A338" s="2" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F338" s="11"/>
+        <v>1118</v>
+      </c>
+      <c r="F338" s="16" t="s">
+        <v>1400</v>
+      </c>
       <c r="G338" s="2" t="s">
-        <v>427</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="14.25">
       <c r="A339" s="2" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F339" s="11"/>
+        <v>1119</v>
+      </c>
+      <c r="F339" s="16" t="s">
+        <v>1395</v>
+      </c>
       <c r="G339" s="2" t="s">
-        <v>429</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="14.25">
       <c r="A340" s="2" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F340" s="11"/>
+        <v>1120</v>
+      </c>
+      <c r="F340" s="16" t="s">
+        <v>1401</v>
+      </c>
       <c r="G340" s="2" t="s">
-        <v>431</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="14.25">
       <c r="A341" s="2" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>432</v>
-      </c>
-      <c r="F341" s="11"/>
+        <v>427</v>
+      </c>
+      <c r="F341" s="16" t="s">
+        <v>1402</v>
+      </c>
       <c r="G341" s="2" t="s">
-        <v>433</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="14.25">
@@ -12925,128 +12968,128 @@
     </row>
     <row r="343" spans="1:7" ht="14.25">
       <c r="A343" s="2" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="F343" s="11"/>
       <c r="G343" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="14.25">
       <c r="A344" s="2" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>1128</v>
+        <v>1393</v>
       </c>
       <c r="F344" s="11"/>
       <c r="G344" s="2" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="14.25">
       <c r="A345" s="2" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="F345" s="11"/>
       <c r="G345" s="2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="14.25">
       <c r="A346" s="2" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="F346" s="11"/>
       <c r="G346" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="14.25">
       <c r="A347" s="2" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D347" s="17" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="F347" s="11"/>
       <c r="G347" s="2" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="348" spans="1:7" ht="14.25">
       <c r="A348" s="2" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="F348" s="11"/>
       <c r="G348" s="2" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="14.25">
@@ -13060,128 +13103,128 @@
     </row>
     <row r="350" spans="1:7" ht="14.25">
       <c r="A350" s="2" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="F350" s="11"/>
       <c r="G350" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="14.25">
       <c r="A351" s="2" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="F351" s="11"/>
       <c r="G351" s="2" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="14.25">
       <c r="A352" s="2" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="F352" s="11"/>
       <c r="G352" s="2" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="14.25">
       <c r="A353" s="2" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="F353" s="11"/>
       <c r="G353" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="14.25">
       <c r="A354" s="2" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="D354" s="17" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="F354" s="11"/>
       <c r="G354" s="2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="14.25">
       <c r="A355" s="2" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="F355" s="11"/>
       <c r="G355" s="2" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="14.25">
@@ -13195,116 +13238,116 @@
     </row>
     <row r="357" spans="1:7" ht="14.25">
       <c r="A357" s="2" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="D357" s="16" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="E357" s="11"/>
       <c r="F357" s="11"/>
       <c r="G357" s="2" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="14.25">
       <c r="A358" s="2" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="D358" s="16" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E358" s="11"/>
       <c r="F358" s="11"/>
       <c r="G358" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="14.25">
       <c r="A359" s="2" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="D359" s="16" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="E359" s="11"/>
       <c r="F359" s="11"/>
       <c r="G359" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="16.5">
       <c r="A360" s="2" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="D360" s="16" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="E360" s="11"/>
       <c r="F360" s="11"/>
       <c r="G360" s="2" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="14.25">
       <c r="A361" s="2" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D361" s="16" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="E361" s="11"/>
       <c r="F361" s="11"/>
       <c r="G361" s="2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="14.25">
       <c r="A362" s="2" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="D362" s="16" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="E362" s="11"/>
       <c r="F362" s="11"/>
       <c r="G362" s="2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="14.25">
@@ -13318,116 +13361,116 @@
     </row>
     <row r="364" spans="1:7" ht="14.25">
       <c r="A364" s="2" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E364" s="14"/>
       <c r="F364" s="11"/>
       <c r="G364" s="2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="14.25">
       <c r="A365" s="2" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E365" s="14"/>
       <c r="F365" s="11"/>
       <c r="G365" s="2" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="14.25">
       <c r="A366" s="2" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E366" s="14"/>
       <c r="F366" s="11"/>
       <c r="G366" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="14.25">
       <c r="A367" s="2" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E367" s="14"/>
       <c r="F367" s="11"/>
       <c r="G367" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="14.25">
       <c r="A368" s="2" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="D368" s="17" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E368" s="14"/>
       <c r="F368" s="11"/>
       <c r="G368" s="2" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="57">
       <c r="A369" s="2" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="E369" s="15"/>
       <c r="F369" s="11"/>
       <c r="G369" s="2" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="14.25">
@@ -13441,116 +13484,116 @@
     </row>
     <row r="371" spans="1:7" ht="14.25">
       <c r="A371" s="2" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="D371" s="17" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E371" s="14"/>
       <c r="F371" s="11"/>
       <c r="G371" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="14.25">
       <c r="A372" s="2" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D372" s="17" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E372" s="14"/>
       <c r="F372" s="11"/>
       <c r="G372" s="2" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="14.25">
       <c r="A373" s="2" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="D373" s="17" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="E373" s="14"/>
       <c r="F373" s="11"/>
       <c r="G373" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="14.25">
       <c r="A374" s="2" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="D374" s="17" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="E374" s="14"/>
       <c r="F374" s="11"/>
       <c r="G374" s="2" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="14.25">
       <c r="A375" s="2" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="D375" s="17" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E375" s="14"/>
       <c r="F375" s="11"/>
       <c r="G375" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="14.25">
       <c r="A376" s="2" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D376" s="17" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E376" s="14"/>
       <c r="F376" s="11"/>
       <c r="G376" s="2" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="377" spans="1:7" ht="14.25">
@@ -13564,128 +13607,128 @@
     </row>
     <row r="378" spans="1:7" ht="14.25">
       <c r="A378" s="2" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="D378" s="5" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="E378" s="14"/>
       <c r="F378" s="5" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="14.25">
       <c r="A379" s="2" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D379" s="5" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="E379" s="14"/>
       <c r="F379" s="5" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="380" spans="1:7" ht="14.25">
       <c r="A380" s="2" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="D380" s="5" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="E380" s="14"/>
       <c r="F380" s="5" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="14.25">
       <c r="A381" s="2" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D381" s="5" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E381" s="14"/>
       <c r="F381" s="5" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="14.25">
       <c r="A382" s="2" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="D382" s="5" t="s">
-        <v>1313</v>
+        <v>1305</v>
       </c>
       <c r="E382" s="14"/>
       <c r="F382" s="5" t="s">
-        <v>1313</v>
+        <v>1305</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="14.25">
       <c r="A383" s="2" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D383" s="17" t="s">
-        <v>1314</v>
+        <v>1306</v>
       </c>
       <c r="E383" s="14"/>
       <c r="F383" s="17" t="s">
-        <v>1314</v>
+        <v>1306</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="14.25">
@@ -13699,128 +13742,128 @@
     </row>
     <row r="385" spans="1:7" ht="14.25">
       <c r="A385" s="2" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="C385" s="19" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>1324</v>
+        <v>1316</v>
       </c>
       <c r="E385" s="11"/>
       <c r="F385" s="22" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="386" spans="1:7" ht="14.25">
       <c r="A386" s="2" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C386" s="19" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>1323</v>
+        <v>1315</v>
       </c>
       <c r="E386" s="11"/>
       <c r="F386" s="22" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="387" spans="1:7" ht="14.25">
       <c r="A387" s="2" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C387" s="19" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>1325</v>
+        <v>1317</v>
       </c>
       <c r="E387" s="11"/>
       <c r="F387" s="17" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="388" spans="1:7" ht="14.25">
       <c r="A388" s="2" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C388" s="19" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
       <c r="E388" s="11"/>
       <c r="F388" s="22" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="389" spans="1:7" ht="14.25">
       <c r="A389" s="2" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C389" s="19" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>1327</v>
+        <v>1391</v>
       </c>
       <c r="E389" s="11"/>
       <c r="F389" s="22" t="s">
-        <v>1297</v>
+        <v>1289</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="14.25">
       <c r="A390" s="2" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C390" s="19" t="s">
-        <v>1295</v>
+        <v>1288</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="E390" s="13"/>
       <c r="F390" s="22" t="s">
-        <v>1296</v>
+        <v>1392</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="14.25">
